--- a/Testcase/03-Testcase-1.xlsx
+++ b/Testcase/03-Testcase-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SE\HKI VII\tesing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B66BDD-1471-43EB-8C52-982547C5AD7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A31FA8-32FF-447A-B820-CBFDAA9E5817}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="794" firstSheet="4" activeTab="9" xr2:uid="{DF3F47F0-DBD9-4663-B187-A3CC9925D78A}"/>
   </bookViews>
@@ -497,7 +497,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="289">
   <si>
     <t>UNIT TEST CASE</t>
   </si>
@@ -1353,6 +1353,18 @@
   </si>
   <si>
     <t>"Mô tả"</t>
+  </si>
+  <si>
+    <t>"Giá khuyến mãi không được vượt quá giá gốc"</t>
+  </si>
+  <si>
+    <t>"Tên sản phẩm không được vượt quá 250 kí tự"</t>
+  </si>
+  <si>
+    <t>"The field MetaTitle must be a string with a maximum length of 250"</t>
+  </si>
+  <si>
+    <t>"The field Mô tả must be a string with a maximum length of 500"</t>
   </si>
 </sst>
 </file>
@@ -3480,6 +3492,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3553,6 +3568,141 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="42" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="57" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3568,139 +3718,34 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="42" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="57" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="64" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3709,36 +3754,6 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3820,6 +3835,12 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="103" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3828,15 +3849,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="103" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4559,13 +4571,13 @@
   <sheetData>
     <row r="2" spans="1:6" ht="31.8">
       <c r="A2" s="1"/>
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
@@ -4579,11 +4591,11 @@
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="195" t="s">
+      <c r="B4" s="196" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="195"/>
-      <c r="D4" s="195"/>
+      <c r="C4" s="196"/>
+      <c r="D4" s="196"/>
       <c r="E4" s="6" t="s">
         <v>2</v>
       </c>
@@ -4595,26 +4607,26 @@
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="195" t="s">
+      <c r="B5" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="195"/>
-      <c r="D5" s="195"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="196"/>
       <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="196" t="s">
+      <c r="A6" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="197" t="str">
+      <c r="B6" s="198" t="str">
         <f>B5&amp;"_"&amp;"2019"&amp;"_"&amp;"v1.0"</f>
         <v>SE108_2019_v1.0</v>
       </c>
-      <c r="C6" s="197"/>
-      <c r="D6" s="197"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="198"/>
       <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
@@ -4623,10 +4635,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="196"/>
-      <c r="B7" s="197"/>
-      <c r="C7" s="197"/>
-      <c r="D7" s="197"/>
+      <c r="A7" s="197"/>
+      <c r="B7" s="198"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="198"/>
       <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
@@ -4759,10 +4771,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0780C922-9BBF-4508-97E6-886C6C3CD92D}">
-  <dimension ref="A1:U72"/>
+  <dimension ref="A1:U77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="U50" sqref="U50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N76" sqref="N76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4789,61 +4801,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="265" t="str">
+      <c r="B1" s="221"/>
+      <c r="C1" s="234" t="str">
         <f>FunctionList!E14</f>
         <v>FN04</v>
       </c>
-      <c r="D1" s="266"/>
+      <c r="D1" s="235"/>
       <c r="E1" s="118"/>
-      <c r="F1" s="253" t="s">
+      <c r="F1" s="222" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="254" t="str">
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="222"/>
+      <c r="L1" s="223" t="str">
         <f>FunctionList!D14</f>
         <v>Sửa tài khoản</v>
       </c>
-      <c r="M1" s="255"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="255"/>
-      <c r="P1" s="255"/>
-      <c r="Q1" s="255"/>
-      <c r="R1" s="255"/>
-      <c r="S1" s="255"/>
-      <c r="T1" s="256"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="224"/>
+      <c r="O1" s="224"/>
+      <c r="P1" s="224"/>
+      <c r="Q1" s="224"/>
+      <c r="R1" s="224"/>
+      <c r="S1" s="224"/>
+      <c r="T1" s="225"/>
       <c r="U1" s="119"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="224" t="s">
+      <c r="A2" s="253" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="225"/>
-      <c r="C2" s="287" t="s">
+      <c r="B2" s="254"/>
+      <c r="C2" s="288" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="288"/>
-      <c r="E2" s="289"/>
-      <c r="F2" s="281" t="s">
+      <c r="D2" s="289"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="282" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="282"/>
-      <c r="H2" s="282"/>
-      <c r="I2" s="282"/>
-      <c r="J2" s="282"/>
-      <c r="K2" s="283"/>
-      <c r="L2" s="288" t="s">
+      <c r="G2" s="283"/>
+      <c r="H2" s="283"/>
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
+      <c r="K2" s="284"/>
+      <c r="L2" s="289" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="288"/>
-      <c r="N2" s="288"/>
+      <c r="M2" s="289"/>
+      <c r="N2" s="289"/>
       <c r="O2" s="63"/>
       <c r="P2" s="63"/>
       <c r="Q2" s="63"/>
@@ -4852,134 +4864,134 @@
       <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="224" t="s">
+      <c r="A3" s="253" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="225"/>
-      <c r="C3" s="291">
+      <c r="B3" s="254"/>
+      <c r="C3" s="292">
         <v>100</v>
       </c>
-      <c r="D3" s="292"/>
+      <c r="D3" s="293"/>
       <c r="E3" s="65"/>
-      <c r="F3" s="281" t="s">
+      <c r="F3" s="282" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="282"/>
-      <c r="H3" s="282"/>
-      <c r="I3" s="282"/>
-      <c r="J3" s="282"/>
-      <c r="K3" s="283"/>
-      <c r="L3" s="284">
+      <c r="G3" s="283"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="283"/>
+      <c r="J3" s="283"/>
+      <c r="K3" s="284"/>
+      <c r="L3" s="285">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C3*FunctionList!E6/1000,- O6),"N/A")</f>
         <v>1</v>
       </c>
-      <c r="M3" s="285"/>
-      <c r="N3" s="285"/>
-      <c r="O3" s="285"/>
-      <c r="P3" s="285"/>
-      <c r="Q3" s="285"/>
-      <c r="R3" s="285"/>
-      <c r="S3" s="285"/>
-      <c r="T3" s="286"/>
+      <c r="M3" s="286"/>
+      <c r="N3" s="286"/>
+      <c r="O3" s="286"/>
+      <c r="P3" s="286"/>
+      <c r="Q3" s="286"/>
+      <c r="R3" s="286"/>
+      <c r="S3" s="286"/>
+      <c r="T3" s="287"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="224" t="s">
+      <c r="A4" s="253" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="225"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="235"/>
-      <c r="G4" s="235"/>
-      <c r="H4" s="235"/>
-      <c r="I4" s="235"/>
-      <c r="J4" s="235"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="234"/>
-      <c r="M4" s="234"/>
-      <c r="N4" s="234"/>
-      <c r="O4" s="234"/>
-      <c r="P4" s="234"/>
-      <c r="Q4" s="234"/>
-      <c r="R4" s="234"/>
-      <c r="S4" s="234"/>
-      <c r="T4" s="234"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
+      <c r="F4" s="264"/>
+      <c r="G4" s="264"/>
+      <c r="H4" s="264"/>
+      <c r="I4" s="264"/>
+      <c r="J4" s="264"/>
+      <c r="K4" s="264"/>
+      <c r="L4" s="263"/>
+      <c r="M4" s="263"/>
+      <c r="N4" s="263"/>
+      <c r="O4" s="263"/>
+      <c r="P4" s="263"/>
+      <c r="Q4" s="263"/>
+      <c r="R4" s="263"/>
+      <c r="S4" s="263"/>
+      <c r="T4" s="263"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="246" t="s">
+      <c r="A5" s="248" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="248" t="s">
+      <c r="B5" s="249"/>
+      <c r="C5" s="250" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="237"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="248" t="s">
+      <c r="D5" s="239"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="250" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
-      <c r="I5" s="237"/>
-      <c r="J5" s="237"/>
-      <c r="K5" s="250"/>
-      <c r="L5" s="237" t="s">
+      <c r="G5" s="239"/>
+      <c r="H5" s="239"/>
+      <c r="I5" s="239"/>
+      <c r="J5" s="239"/>
+      <c r="K5" s="252"/>
+      <c r="L5" s="239" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="237"/>
-      <c r="N5" s="237"/>
-      <c r="O5" s="236" t="s">
+      <c r="M5" s="239"/>
+      <c r="N5" s="239"/>
+      <c r="O5" s="238" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="237"/>
-      <c r="Q5" s="237"/>
-      <c r="R5" s="237"/>
-      <c r="S5" s="237"/>
-      <c r="T5" s="238"/>
+      <c r="P5" s="239"/>
+      <c r="Q5" s="239"/>
+      <c r="R5" s="239"/>
+      <c r="S5" s="239"/>
+      <c r="T5" s="240"/>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1">
-      <c r="A6" s="239">
-        <f>COUNTIF(F67:HJ67,"P")</f>
+      <c r="A6" s="241">
+        <f>COUNTIF(F68:HJ68,"P")</f>
         <v>0</v>
       </c>
-      <c r="B6" s="240"/>
-      <c r="C6" s="241">
-        <f>COUNTIF(F67:HJ67,"F")</f>
+      <c r="B6" s="242"/>
+      <c r="C6" s="243">
+        <f>COUNTIF(F68:HJ68,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="241">
+      <c r="D6" s="244"/>
+      <c r="E6" s="242"/>
+      <c r="F6" s="243">
         <f>SUM(O6,- A6,- C6)</f>
         <v>9</v>
       </c>
-      <c r="G6" s="242"/>
-      <c r="H6" s="242"/>
-      <c r="I6" s="242"/>
-      <c r="J6" s="242"/>
-      <c r="K6" s="243"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="244"/>
+      <c r="K6" s="245"/>
       <c r="L6" s="66">
-        <f>COUNTIF(E65:HJ65,"N")</f>
+        <f>COUNTIF(E66:HJ66,"N")</f>
         <v>0</v>
       </c>
       <c r="M6" s="66">
-        <f>COUNTIF(E65:HJ65,"A")</f>
+        <f>COUNTIF(E66:HJ66,"A")</f>
         <v>0</v>
       </c>
       <c r="N6" s="66">
-        <f>COUNTIF(E65:HJ65,"B")</f>
+        <f>COUNTIF(E66:HJ66,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="244">
+      <c r="O6" s="246">
         <f>COUNTA(E8:HM8)</f>
         <v>9</v>
       </c>
-      <c r="P6" s="242"/>
-      <c r="Q6" s="242"/>
-      <c r="R6" s="242"/>
-      <c r="S6" s="242"/>
-      <c r="T6" s="245"/>
+      <c r="P6" s="244"/>
+      <c r="Q6" s="244"/>
+      <c r="R6" s="244"/>
+      <c r="S6" s="244"/>
+      <c r="T6" s="247"/>
     </row>
     <row r="7" spans="1:21" ht="15" thickBot="1"/>
     <row r="8" spans="1:21" ht="37.200000000000003" thickTop="1" thickBot="1">
@@ -5144,7 +5156,9 @@
       <c r="K15" s="110"/>
       <c r="L15" s="110"/>
       <c r="M15" s="110"/>
-      <c r="N15" s="110"/>
+      <c r="N15" s="110" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="78"/>
@@ -5169,7 +5183,9 @@
       <c r="L16" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="M16" s="110"/>
+      <c r="M16" s="110" t="s">
+        <v>101</v>
+      </c>
       <c r="N16" s="110"/>
     </row>
     <row r="17" spans="1:14">
@@ -5194,10 +5210,10 @@
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
       <c r="C18" s="80"/>
-      <c r="D18" s="219" t="s">
+      <c r="D18" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="219"/>
+      <c r="E18" s="265"/>
       <c r="F18" s="110" t="s">
         <v>101</v>
       </c>
@@ -5234,7 +5250,9 @@
       <c r="L19" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="M19" s="110"/>
+      <c r="M19" s="110" t="s">
+        <v>101</v>
+      </c>
       <c r="N19" s="110"/>
     </row>
     <row r="20" spans="1:14">
@@ -5255,7 +5273,9 @@
       </c>
       <c r="L20" s="110"/>
       <c r="M20" s="110"/>
-      <c r="N20" s="110"/>
+      <c r="N20" s="110" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="78"/>
@@ -5279,10 +5299,10 @@
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
       <c r="C22" s="80"/>
-      <c r="D22" s="219" t="s">
+      <c r="D22" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="313"/>
+      <c r="E22" s="309"/>
       <c r="F22" s="110" t="s">
         <v>101</v>
       </c>
@@ -5322,8 +5342,12 @@
       <c r="L23" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="M23" s="110"/>
-      <c r="N23" s="110"/>
+      <c r="M23" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="N23" s="110" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="78"/>
@@ -5347,10 +5371,10 @@
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
       <c r="C25" s="80"/>
-      <c r="D25" s="219" t="s">
+      <c r="D25" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="219"/>
+      <c r="E25" s="265"/>
       <c r="F25" s="110" t="s">
         <v>101</v>
       </c>
@@ -5390,8 +5414,12 @@
       <c r="L26" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="M26" s="110"/>
-      <c r="N26" s="110"/>
+      <c r="M26" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="N26" s="110" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="138"/>
@@ -5457,7 +5485,9 @@
       <c r="K29" s="128"/>
       <c r="L29" s="128"/>
       <c r="M29" s="128"/>
-      <c r="N29" s="128"/>
+      <c r="N29" s="128" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="78"/>
@@ -5473,8 +5503,12 @@
       <c r="I30" s="128"/>
       <c r="J30" s="128"/>
       <c r="K30" s="128"/>
-      <c r="L30" s="128"/>
-      <c r="M30" s="128"/>
+      <c r="L30" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="M30" s="128" t="s">
+        <v>101</v>
+      </c>
       <c r="N30" s="128"/>
     </row>
     <row r="31" spans="1:14">
@@ -5558,7 +5592,9 @@
       <c r="L34" s="128" t="s">
         <v>101</v>
       </c>
-      <c r="M34" s="128"/>
+      <c r="M34" s="128" t="s">
+        <v>101</v>
+      </c>
       <c r="N34" s="128"/>
     </row>
     <row r="35" spans="1:14">
@@ -5577,7 +5613,9 @@
       <c r="K35" s="128"/>
       <c r="L35" s="128"/>
       <c r="M35" s="128"/>
-      <c r="N35" s="128"/>
+      <c r="N35" s="128" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="78"/>
@@ -5632,7 +5670,7 @@
       <c r="B38" s="132"/>
       <c r="C38" s="133"/>
       <c r="D38" s="134" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="E38" s="84"/>
       <c r="F38" s="128"/>
@@ -5641,19 +5679,19 @@
       <c r="I38" s="128"/>
       <c r="J38" s="128"/>
       <c r="K38" s="128"/>
-      <c r="L38" s="128" t="s">
-        <v>101</v>
-      </c>
+      <c r="L38" s="128"/>
       <c r="M38" s="128"/>
-      <c r="N38" s="128"/>
+      <c r="N38" s="128" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="78"/>
-      <c r="B39" s="132" t="s">
-        <v>263</v>
-      </c>
+      <c r="B39" s="132"/>
       <c r="C39" s="133"/>
-      <c r="D39" s="134"/>
+      <c r="D39" s="134" t="s">
+        <v>269</v>
+      </c>
       <c r="E39" s="84"/>
       <c r="F39" s="128"/>
       <c r="G39" s="128"/>
@@ -5661,36 +5699,28 @@
       <c r="I39" s="128"/>
       <c r="J39" s="128"/>
       <c r="K39" s="128"/>
-      <c r="L39" s="128"/>
-      <c r="M39" s="128"/>
+      <c r="L39" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="M39" s="128" t="s">
+        <v>101</v>
+      </c>
       <c r="N39" s="128"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="78"/>
-      <c r="B40" s="132"/>
+      <c r="B40" s="132" t="s">
+        <v>263</v>
+      </c>
       <c r="C40" s="133"/>
-      <c r="D40" s="134" t="s">
-        <v>81</v>
-      </c>
+      <c r="D40" s="134"/>
       <c r="E40" s="84"/>
-      <c r="F40" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="G40" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="H40" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="I40" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="J40" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="K40" s="128" t="s">
-        <v>101</v>
-      </c>
+      <c r="F40" s="128"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="128"/>
+      <c r="J40" s="128"/>
+      <c r="K40" s="128"/>
       <c r="L40" s="128"/>
       <c r="M40" s="128"/>
       <c r="N40" s="128"/>
@@ -5699,29 +5729,39 @@
       <c r="A41" s="78"/>
       <c r="B41" s="132"/>
       <c r="C41" s="133"/>
-      <c r="D41" s="189">
-        <v>10000000</v>
+      <c r="D41" s="134" t="s">
+        <v>81</v>
       </c>
       <c r="E41" s="84"/>
-      <c r="F41" s="128"/>
-      <c r="G41" s="128"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="128"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="128"/>
-      <c r="L41" s="128" t="s">
-        <v>101</v>
-      </c>
+      <c r="F41" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="G41" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="H41" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="I41" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="J41" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="K41" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="L41" s="128"/>
       <c r="M41" s="128"/>
       <c r="N41" s="128"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="78"/>
-      <c r="B42" s="132" t="s">
-        <v>264</v>
-      </c>
+      <c r="B42" s="132"/>
       <c r="C42" s="133"/>
-      <c r="D42" s="134"/>
+      <c r="D42" s="189">
+        <v>10000000</v>
+      </c>
       <c r="E42" s="84"/>
       <c r="F42" s="128"/>
       <c r="G42" s="128"/>
@@ -5729,36 +5769,30 @@
       <c r="I42" s="128"/>
       <c r="J42" s="128"/>
       <c r="K42" s="128"/>
-      <c r="L42" s="128"/>
-      <c r="M42" s="128"/>
-      <c r="N42" s="128"/>
+      <c r="L42" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="M42" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="N42" s="128" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="78"/>
-      <c r="B43" s="132"/>
+      <c r="B43" s="132" t="s">
+        <v>264</v>
+      </c>
       <c r="C43" s="133"/>
-      <c r="D43" s="134" t="s">
-        <v>81</v>
-      </c>
+      <c r="D43" s="134"/>
       <c r="E43" s="84"/>
-      <c r="F43" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="G43" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="H43" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="I43" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="J43" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="K43" s="128" t="s">
-        <v>101</v>
-      </c>
+      <c r="F43" s="128"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="128"/>
+      <c r="J43" s="128"/>
+      <c r="K43" s="128"/>
       <c r="L43" s="128"/>
       <c r="M43" s="128"/>
       <c r="N43" s="128"/>
@@ -5767,16 +5801,28 @@
       <c r="A44" s="78"/>
       <c r="B44" s="132"/>
       <c r="C44" s="133"/>
-      <c r="D44" s="189">
-        <v>100000000</v>
+      <c r="D44" s="134" t="s">
+        <v>81</v>
       </c>
       <c r="E44" s="84"/>
-      <c r="F44" s="128"/>
-      <c r="G44" s="128"/>
-      <c r="H44" s="128"/>
-      <c r="I44" s="128"/>
-      <c r="J44" s="128"/>
-      <c r="K44" s="128"/>
+      <c r="F44" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="G44" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="H44" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="I44" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="J44" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="K44" s="128" t="s">
+        <v>101</v>
+      </c>
       <c r="L44" s="128"/>
       <c r="M44" s="128"/>
       <c r="N44" s="128"/>
@@ -5786,7 +5832,7 @@
       <c r="B45" s="132"/>
       <c r="C45" s="133"/>
       <c r="D45" s="189">
-        <v>1000000</v>
+        <v>100000000</v>
       </c>
       <c r="E45" s="84"/>
       <c r="F45" s="128"/>
@@ -5795,19 +5841,19 @@
       <c r="I45" s="128"/>
       <c r="J45" s="128"/>
       <c r="K45" s="128"/>
-      <c r="L45" s="128" t="s">
-        <v>101</v>
-      </c>
+      <c r="L45" s="128"/>
       <c r="M45" s="128"/>
-      <c r="N45" s="128"/>
+      <c r="N45" s="128" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="78"/>
-      <c r="B46" s="132" t="s">
-        <v>265</v>
-      </c>
+      <c r="B46" s="132"/>
       <c r="C46" s="133"/>
-      <c r="D46" s="134"/>
+      <c r="D46" s="189">
+        <v>1000000</v>
+      </c>
       <c r="E46" s="84"/>
       <c r="F46" s="128"/>
       <c r="G46" s="128"/>
@@ -5815,36 +5861,28 @@
       <c r="I46" s="128"/>
       <c r="J46" s="128"/>
       <c r="K46" s="128"/>
-      <c r="L46" s="128"/>
-      <c r="M46" s="128"/>
+      <c r="L46" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="M46" s="128" t="s">
+        <v>101</v>
+      </c>
       <c r="N46" s="128"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="78"/>
-      <c r="B47" s="132"/>
+      <c r="B47" s="132" t="s">
+        <v>265</v>
+      </c>
       <c r="C47" s="133"/>
-      <c r="D47" s="134" t="s">
-        <v>81</v>
-      </c>
+      <c r="D47" s="134"/>
       <c r="E47" s="84"/>
-      <c r="F47" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="G47" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="H47" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="I47" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="J47" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="K47" s="128" t="s">
-        <v>101</v>
-      </c>
+      <c r="F47" s="128"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="128"/>
+      <c r="I47" s="128"/>
+      <c r="J47" s="128"/>
+      <c r="K47" s="128"/>
       <c r="L47" s="128"/>
       <c r="M47" s="128"/>
       <c r="N47" s="128"/>
@@ -5854,28 +5892,38 @@
       <c r="B48" s="132"/>
       <c r="C48" s="133"/>
       <c r="D48" s="134" t="s">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="E48" s="84"/>
-      <c r="F48" s="128"/>
-      <c r="G48" s="128"/>
-      <c r="H48" s="128"/>
-      <c r="I48" s="128"/>
-      <c r="J48" s="128"/>
-      <c r="K48" s="128"/>
-      <c r="L48" s="128" t="s">
-        <v>101</v>
-      </c>
+      <c r="F48" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="G48" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="H48" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="I48" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="J48" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="K48" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="L48" s="128"/>
       <c r="M48" s="128"/>
       <c r="N48" s="128"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="78"/>
-      <c r="B49" s="132" t="s">
-        <v>266</v>
-      </c>
+      <c r="B49" s="132"/>
       <c r="C49" s="133"/>
-      <c r="D49" s="134"/>
+      <c r="D49" s="134" t="s">
+        <v>270</v>
+      </c>
       <c r="E49" s="84"/>
       <c r="F49" s="128"/>
       <c r="G49" s="128"/>
@@ -5883,39 +5931,31 @@
       <c r="I49" s="128"/>
       <c r="J49" s="128"/>
       <c r="K49" s="128"/>
-      <c r="L49" s="128"/>
-      <c r="M49" s="128"/>
-      <c r="N49" s="128"/>
+      <c r="L49" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="M49" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="N49" s="128" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="78"/>
-      <c r="B50" s="132"/>
+      <c r="B50" s="132" t="s">
+        <v>266</v>
+      </c>
       <c r="C50" s="133"/>
-      <c r="D50" s="134" t="s">
-        <v>254</v>
-      </c>
+      <c r="D50" s="134"/>
       <c r="E50" s="84"/>
-      <c r="F50" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="G50" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="H50" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="I50" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="J50" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="K50" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="L50" s="128" t="s">
-        <v>101</v>
-      </c>
+      <c r="F50" s="128"/>
+      <c r="G50" s="128"/>
+      <c r="H50" s="128"/>
+      <c r="I50" s="128"/>
+      <c r="J50" s="128"/>
+      <c r="K50" s="128"/>
+      <c r="L50" s="128"/>
       <c r="M50" s="128"/>
       <c r="N50" s="128"/>
     </row>
@@ -5924,26 +5964,40 @@
       <c r="B51" s="132"/>
       <c r="C51" s="133"/>
       <c r="D51" s="134" t="s">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="E51" s="84"/>
-      <c r="F51" s="128"/>
-      <c r="G51" s="128"/>
-      <c r="H51" s="128"/>
-      <c r="I51" s="128"/>
-      <c r="J51" s="128"/>
-      <c r="K51" s="128"/>
-      <c r="L51" s="128"/>
+      <c r="F51" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="G51" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="H51" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="I51" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="J51" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="K51" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="L51" s="128" t="s">
+        <v>101</v>
+      </c>
       <c r="M51" s="128"/>
       <c r="N51" s="128"/>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="78"/>
-      <c r="B52" s="132" t="s">
-        <v>230</v>
-      </c>
+      <c r="B52" s="132"/>
       <c r="C52" s="133"/>
-      <c r="D52" s="134"/>
+      <c r="D52" s="134" t="s">
+        <v>100</v>
+      </c>
       <c r="E52" s="84"/>
       <c r="F52" s="128"/>
       <c r="G52" s="128"/>
@@ -5952,35 +6006,27 @@
       <c r="J52" s="128"/>
       <c r="K52" s="128"/>
       <c r="L52" s="128"/>
-      <c r="M52" s="128"/>
-      <c r="N52" s="128"/>
+      <c r="M52" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="N52" s="128" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="78"/>
-      <c r="B53" s="132"/>
+      <c r="B53" s="132" t="s">
+        <v>230</v>
+      </c>
       <c r="C53" s="133"/>
-      <c r="D53" s="134" t="s">
-        <v>81</v>
-      </c>
+      <c r="D53" s="134"/>
       <c r="E53" s="84"/>
-      <c r="F53" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="G53" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="H53" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="I53" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="J53" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="K53" s="128" t="s">
-        <v>101</v>
-      </c>
+      <c r="F53" s="128"/>
+      <c r="G53" s="128"/>
+      <c r="H53" s="128"/>
+      <c r="I53" s="128"/>
+      <c r="J53" s="128"/>
+      <c r="K53" s="128"/>
       <c r="L53" s="128"/>
       <c r="M53" s="128"/>
       <c r="N53" s="128"/>
@@ -5989,83 +6035,99 @@
       <c r="A54" s="78"/>
       <c r="B54" s="132"/>
       <c r="C54" s="133"/>
-      <c r="D54" s="190" t="s">
-        <v>271</v>
+      <c r="D54" s="134" t="s">
+        <v>81</v>
       </c>
       <c r="E54" s="84"/>
-      <c r="F54" s="128"/>
-      <c r="G54" s="128"/>
-      <c r="H54" s="128"/>
-      <c r="I54" s="128"/>
-      <c r="J54" s="128"/>
-      <c r="K54" s="128"/>
+      <c r="F54" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="G54" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="H54" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="I54" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="J54" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="K54" s="128" t="s">
+        <v>101</v>
+      </c>
       <c r="L54" s="128"/>
       <c r="M54" s="128"/>
       <c r="N54" s="128"/>
     </row>
-    <row r="55" spans="1:14" ht="15" thickBot="1">
-      <c r="A55" s="95"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="87" t="s">
+    <row r="55" spans="1:14">
+      <c r="A55" s="78"/>
+      <c r="B55" s="132"/>
+      <c r="C55" s="133"/>
+      <c r="D55" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="E55" s="84"/>
+      <c r="F55" s="128"/>
+      <c r="G55" s="128"/>
+      <c r="H55" s="128"/>
+      <c r="I55" s="128"/>
+      <c r="J55" s="128"/>
+      <c r="K55" s="128"/>
+      <c r="L55" s="128"/>
+      <c r="M55" s="128"/>
+      <c r="N55" s="128" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15" thickBot="1">
+      <c r="A56" s="95"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="87" t="s">
         <v>272</v>
       </c>
-      <c r="E55" s="88"/>
-      <c r="F55" s="129"/>
-      <c r="G55" s="129"/>
-      <c r="H55" s="129"/>
-      <c r="I55" s="129"/>
-      <c r="J55" s="129"/>
-      <c r="K55" s="129"/>
-      <c r="L55" s="129" t="s">
-        <v>101</v>
-      </c>
-      <c r="M55" s="129"/>
-      <c r="N55" s="129"/>
-    </row>
-    <row r="56" spans="1:14" ht="15" thickTop="1">
-      <c r="A56" s="90" t="s">
+      <c r="E56" s="88"/>
+      <c r="F56" s="129"/>
+      <c r="G56" s="129"/>
+      <c r="H56" s="129"/>
+      <c r="I56" s="129"/>
+      <c r="J56" s="129"/>
+      <c r="K56" s="129"/>
+      <c r="L56" s="129" t="s">
+        <v>101</v>
+      </c>
+      <c r="M56" s="129" t="s">
+        <v>101</v>
+      </c>
+      <c r="N56" s="129"/>
+    </row>
+    <row r="57" spans="1:14" ht="15" thickTop="1">
+      <c r="A57" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="B56" s="91" t="s">
+      <c r="B57" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="93"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="127"/>
-      <c r="G56" s="127"/>
-      <c r="H56" s="127"/>
-      <c r="I56" s="127"/>
-      <c r="J56" s="127"/>
-      <c r="K56" s="127"/>
-      <c r="L56" s="127"/>
-      <c r="M56" s="127"/>
-      <c r="N56" s="127"/>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="95"/>
-      <c r="B57" s="96"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="98"/>
-      <c r="E57" s="99"/>
-      <c r="F57" s="110"/>
-      <c r="G57" s="110"/>
-      <c r="H57" s="110"/>
-      <c r="I57" s="110"/>
-      <c r="J57" s="110"/>
-      <c r="K57" s="110"/>
-      <c r="L57" s="110"/>
-      <c r="M57" s="110"/>
-      <c r="N57" s="110"/>
+      <c r="D57" s="93"/>
+      <c r="E57" s="94"/>
+      <c r="F57" s="127"/>
+      <c r="G57" s="127"/>
+      <c r="H57" s="127"/>
+      <c r="I57" s="127"/>
+      <c r="J57" s="127"/>
+      <c r="K57" s="127"/>
+      <c r="L57" s="127"/>
+      <c r="M57" s="127"/>
+      <c r="N57" s="127"/>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="95"/>
-      <c r="B58" s="96" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="97"/>
+      <c r="B58" s="96"/>
+      <c r="C58" s="100"/>
       <c r="D58" s="98"/>
-      <c r="E58" s="101"/>
+      <c r="E58" s="99"/>
       <c r="F58" s="110"/>
       <c r="G58" s="110"/>
       <c r="H58" s="110"/>
@@ -6078,8 +6140,10 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="95"/>
-      <c r="B59" s="96"/>
-      <c r="C59" s="100"/>
+      <c r="B59" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="97"/>
       <c r="D59" s="98"/>
       <c r="E59" s="101"/>
       <c r="F59" s="110"/>
@@ -6094,9 +6158,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="95"/>
-      <c r="B60" s="96" t="s">
-        <v>85</v>
-      </c>
+      <c r="B60" s="96"/>
       <c r="C60" s="100"/>
       <c r="D60" s="98"/>
       <c r="E60" s="101"/>
@@ -6112,11 +6174,11 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="95"/>
-      <c r="B61" s="96"/>
+      <c r="B61" s="96" t="s">
+        <v>85</v>
+      </c>
       <c r="C61" s="100"/>
-      <c r="D61" s="98" t="s">
-        <v>117</v>
-      </c>
+      <c r="D61" s="98"/>
       <c r="E61" s="101"/>
       <c r="F61" s="110"/>
       <c r="G61" s="110"/>
@@ -6130,40 +6192,32 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="95"/>
-      <c r="B62" s="102"/>
+      <c r="B62" s="96"/>
       <c r="C62" s="100"/>
-      <c r="D62" s="104" t="s">
-        <v>273</v>
-      </c>
-      <c r="E62" s="131"/>
-      <c r="F62" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="G62" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="H62" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="I62" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="J62" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="K62" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="L62" s="128"/>
-      <c r="M62" s="128"/>
-      <c r="N62" s="128"/>
+      <c r="D62" s="98" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62" s="101"/>
+      <c r="F62" s="110"/>
+      <c r="G62" s="110"/>
+      <c r="H62" s="110"/>
+      <c r="I62" s="110"/>
+      <c r="J62" s="110"/>
+      <c r="K62" s="110"/>
+      <c r="L62" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="M62" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="N62" s="110"/>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="95"/>
       <c r="B63" s="102"/>
-      <c r="C63" s="130"/>
+      <c r="C63" s="100"/>
       <c r="D63" s="104" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E63" s="131"/>
       <c r="F63" s="128" t="s">
@@ -6175,47 +6229,47 @@
       <c r="H63" s="128" t="s">
         <v>101</v>
       </c>
-      <c r="I63" s="128"/>
-      <c r="J63" s="128"/>
-      <c r="K63" s="128"/>
+      <c r="I63" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="J63" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="K63" s="128" t="s">
+        <v>101</v>
+      </c>
       <c r="L63" s="128"/>
       <c r="M63" s="128"/>
-      <c r="N63" s="128"/>
+      <c r="N63" s="128" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="95"/>
       <c r="B64" s="102"/>
       <c r="C64" s="130"/>
       <c r="D64" s="104" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="E64" s="131"/>
-      <c r="F64" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="G64" s="128" t="s">
-        <v>101</v>
-      </c>
+      <c r="F64" s="128"/>
+      <c r="G64" s="128"/>
       <c r="H64" s="128"/>
-      <c r="I64" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="J64" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="K64" s="128" t="s">
-        <v>101</v>
-      </c>
+      <c r="I64" s="128"/>
+      <c r="J64" s="128"/>
+      <c r="K64" s="128"/>
       <c r="L64" s="128"/>
       <c r="M64" s="128"/>
-      <c r="N64" s="128"/>
+      <c r="N64" s="128" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="95"/>
       <c r="B65" s="102"/>
       <c r="C65" s="130"/>
       <c r="D65" s="104" t="s">
-        <v>203</v>
+        <v>287</v>
       </c>
       <c r="E65" s="131"/>
       <c r="F65" s="128"/>
@@ -6226,14 +6280,16 @@
       <c r="K65" s="128"/>
       <c r="L65" s="128"/>
       <c r="M65" s="128"/>
-      <c r="N65" s="128"/>
+      <c r="N65" s="128" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="95"/>
       <c r="B66" s="102"/>
       <c r="C66" s="130"/>
       <c r="D66" s="104" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E66" s="131"/>
       <c r="F66" s="128"/>
@@ -6241,171 +6297,286 @@
       <c r="H66" s="128"/>
       <c r="I66" s="128"/>
       <c r="J66" s="128"/>
-      <c r="K66" s="128" t="s">
-        <v>101</v>
-      </c>
+      <c r="K66" s="128"/>
       <c r="L66" s="128"/>
       <c r="M66" s="128"/>
-      <c r="N66" s="128"/>
-    </row>
-    <row r="67" spans="1:14" ht="15" thickBot="1">
+      <c r="N66" s="128" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="95"/>
       <c r="B67" s="102"/>
-      <c r="C67" s="103"/>
+      <c r="C67" s="130"/>
       <c r="D67" s="104" t="s">
+        <v>274</v>
+      </c>
+      <c r="E67" s="131"/>
+      <c r="F67" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="G67" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="H67" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="I67" s="128"/>
+      <c r="J67" s="128"/>
+      <c r="K67" s="128"/>
+      <c r="L67" s="128"/>
+      <c r="M67" s="128"/>
+      <c r="N67" s="128"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="95"/>
+      <c r="B68" s="102"/>
+      <c r="C68" s="130"/>
+      <c r="D68" s="104" t="s">
+        <v>275</v>
+      </c>
+      <c r="E68" s="131"/>
+      <c r="F68" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="G68" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="H68" s="128"/>
+      <c r="I68" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="J68" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="K68" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="L68" s="128"/>
+      <c r="M68" s="128"/>
+      <c r="N68" s="128"/>
+    </row>
+    <row r="69" spans="1:14" ht="11.25" customHeight="1">
+      <c r="A69" s="95"/>
+      <c r="B69" s="102"/>
+      <c r="C69" s="130"/>
+      <c r="D69" s="104" t="s">
+        <v>203</v>
+      </c>
+      <c r="E69" s="131"/>
+      <c r="F69" s="128"/>
+      <c r="G69" s="128"/>
+      <c r="H69" s="128"/>
+      <c r="I69" s="128"/>
+      <c r="J69" s="128"/>
+      <c r="K69" s="128"/>
+      <c r="L69" s="128"/>
+      <c r="M69" s="128"/>
+      <c r="N69" s="128"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="95"/>
+      <c r="B70" s="102"/>
+      <c r="C70" s="130"/>
+      <c r="D70" s="104" t="s">
+        <v>283</v>
+      </c>
+      <c r="E70" s="131"/>
+      <c r="F70" s="128"/>
+      <c r="G70" s="128"/>
+      <c r="H70" s="128"/>
+      <c r="I70" s="128"/>
+      <c r="J70" s="128"/>
+      <c r="K70" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="L70" s="128"/>
+      <c r="M70" s="128"/>
+      <c r="N70" s="128"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="95"/>
+      <c r="B71" s="102"/>
+      <c r="C71" s="130"/>
+      <c r="D71" s="104" t="s">
+        <v>285</v>
+      </c>
+      <c r="E71" s="131"/>
+      <c r="F71" s="128"/>
+      <c r="G71" s="128"/>
+      <c r="H71" s="128"/>
+      <c r="I71" s="128"/>
+      <c r="J71" s="128"/>
+      <c r="K71" s="128"/>
+      <c r="L71" s="128"/>
+      <c r="M71" s="128"/>
+      <c r="N71" s="128" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="15" thickBot="1">
+      <c r="A72" s="95"/>
+      <c r="B72" s="102"/>
+      <c r="C72" s="103"/>
+      <c r="D72" s="104" t="s">
         <v>280</v>
       </c>
-      <c r="E67" s="105"/>
-      <c r="F67" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="G67" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="H67" s="312"/>
-      <c r="I67" s="312"/>
-      <c r="J67" s="312"/>
-      <c r="K67" s="312"/>
-      <c r="L67" s="312"/>
-      <c r="M67" s="312"/>
-      <c r="N67" s="312"/>
-    </row>
-    <row r="68" spans="1:14" ht="11.25" customHeight="1" thickTop="1">
-      <c r="A68" s="90" t="s">
+      <c r="E72" s="105"/>
+      <c r="F72" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="G72" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="H72" s="194"/>
+      <c r="I72" s="194"/>
+      <c r="J72" s="194"/>
+      <c r="K72" s="194"/>
+      <c r="L72" s="194"/>
+      <c r="M72" s="194"/>
+      <c r="N72" s="128" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="15" thickTop="1">
+      <c r="A73" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="183" t="s">
+      <c r="B73" s="183" t="s">
         <v>89</v>
       </c>
-      <c r="C68" s="184"/>
-      <c r="D68" s="185"/>
-      <c r="E68" s="175"/>
-      <c r="F68" s="108" t="s">
+      <c r="C73" s="184"/>
+      <c r="D73" s="185"/>
+      <c r="E73" s="175"/>
+      <c r="F73" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="G68" s="108" t="s">
+      <c r="G73" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="H68" s="108" t="s">
+      <c r="H73" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="I68" s="108" t="s">
+      <c r="I73" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="J68" s="108" t="s">
+      <c r="J73" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="K68" s="108" t="s">
+      <c r="K73" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="L68" s="108" t="s">
+      <c r="L73" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="M68" s="108" t="s">
+      <c r="M73" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="N68" s="108" t="s">
+      <c r="N73" s="108" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="95"/>
-      <c r="B69" s="180" t="s">
+    <row r="74" spans="1:14">
+      <c r="A74" s="95"/>
+      <c r="B74" s="180" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="181"/>
-      <c r="D69" s="182"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="110" t="s">
+      <c r="C74" s="181"/>
+      <c r="D74" s="182"/>
+      <c r="E74" s="109"/>
+      <c r="F74" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="G69" s="110" t="s">
+      <c r="G74" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="H69" s="110" t="s">
+      <c r="H74" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="I69" s="110" t="s">
+      <c r="I74" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="J69" s="110" t="s">
+      <c r="J74" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="K69" s="110" t="s">
+      <c r="K74" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="L69" s="110" t="s">
+      <c r="L74" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="M69" s="110" t="s">
+      <c r="M74" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="N69" s="110" t="s">
+      <c r="N74" s="110" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="52.2">
-      <c r="A70" s="95"/>
-      <c r="B70" s="178" t="s">
+    <row r="75" spans="1:14" ht="52.2">
+      <c r="A75" s="95"/>
+      <c r="B75" s="178" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="193"/>
-      <c r="D70" s="179"/>
-      <c r="E70" s="111"/>
-      <c r="F70" s="112">
+      <c r="C75" s="193"/>
+      <c r="D75" s="179"/>
+      <c r="E75" s="111"/>
+      <c r="F75" s="112">
         <v>43468</v>
       </c>
-      <c r="G70" s="112">
+      <c r="G75" s="112">
         <v>43468</v>
       </c>
-      <c r="H70" s="112">
+      <c r="H75" s="112">
         <v>43468</v>
       </c>
-      <c r="I70" s="112">
+      <c r="I75" s="112">
         <v>43468</v>
       </c>
-      <c r="J70" s="112">
+      <c r="J75" s="112">
         <v>43468</v>
       </c>
-      <c r="K70" s="112">
+      <c r="K75" s="112">
         <v>43468</v>
       </c>
-      <c r="L70" s="112">
+      <c r="L75" s="112">
         <v>43468</v>
       </c>
-      <c r="M70" s="112">
+      <c r="M75" s="112">
         <v>43468</v>
       </c>
-      <c r="N70" s="112">
+      <c r="N75" s="112">
         <v>43469</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="15" thickBot="1">
-      <c r="A71" s="113"/>
-      <c r="B71" s="176" t="s">
+    <row r="76" spans="1:14" ht="15" thickBot="1">
+      <c r="A76" s="113"/>
+      <c r="B76" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="192"/>
-      <c r="D71" s="177"/>
-      <c r="E71" s="114"/>
-      <c r="F71" s="115"/>
-      <c r="G71" s="115"/>
-      <c r="H71" s="115"/>
-      <c r="I71" s="115"/>
-      <c r="J71" s="115"/>
-      <c r="K71" s="115"/>
-      <c r="L71" s="115"/>
-      <c r="M71" s="115"/>
-      <c r="N71" s="115"/>
-    </row>
-    <row r="72" spans="1:14" ht="15" thickTop="1"/>
+      <c r="C76" s="192"/>
+      <c r="D76" s="177"/>
+      <c r="E76" s="114"/>
+      <c r="F76" s="115"/>
+      <c r="G76" s="115"/>
+      <c r="H76" s="115"/>
+      <c r="I76" s="115"/>
+      <c r="J76" s="115"/>
+      <c r="K76" s="115"/>
+      <c r="L76" s="115"/>
+      <c r="M76" s="115"/>
+      <c r="N76" s="115"/>
+    </row>
+    <row r="77" spans="1:14" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:N2"/>
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="O6:T6"/>
     <mergeCell ref="A3:B3"/>
@@ -6419,23 +6590,20 @@
     <mergeCell ref="F5:K5"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="O5:T5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I18 F18:H19 J18:N19 F9:N17 F20:N67" xr:uid="{F5D02F7C-4E5B-408B-A811-49F480D78479}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I18 F18:H19 M9:M19 F9:L17 J18:L19 F20:M72 N9:N72" xr:uid="{F5D02F7C-4E5B-408B-A811-49F480D78479}">
       <formula1>"O, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F69:N69" xr:uid="{D5D9A2BB-E709-440D-A0DF-7FB39E53300F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F74:N74" xr:uid="{D5D9A2BB-E709-440D-A0DF-7FB39E53300F}">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F68:N68" xr:uid="{D41D8936-C61C-4207-932E-9681EBF7BC74}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F73:N73" xr:uid="{D41D8936-C61C-4207-932E-9681EBF7BC74}">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -6477,58 +6645,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="290" t="str">
+      <c r="B1" s="221"/>
+      <c r="C1" s="291" t="str">
         <f>FunctionList!E17</f>
         <v>FN07</v>
       </c>
-      <c r="D1" s="278"/>
+      <c r="D1" s="277"/>
       <c r="E1" s="118"/>
-      <c r="F1" s="253" t="s">
+      <c r="F1" s="222" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="254" t="str">
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="222"/>
+      <c r="L1" s="223" t="str">
         <f>FunctionList!D17</f>
         <v>Thêm danh mục sản phẩm</v>
       </c>
-      <c r="M1" s="255"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="255"/>
-      <c r="P1" s="255"/>
-      <c r="Q1" s="255"/>
-      <c r="R1" s="255"/>
-      <c r="S1" s="255"/>
-      <c r="T1" s="272"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="224"/>
+      <c r="O1" s="224"/>
+      <c r="P1" s="224"/>
+      <c r="Q1" s="224"/>
+      <c r="R1" s="224"/>
+      <c r="S1" s="224"/>
+      <c r="T1" s="271"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="224" t="s">
+      <c r="A2" s="253" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="225"/>
-      <c r="C2" s="287" t="s">
+      <c r="B2" s="254"/>
+      <c r="C2" s="288" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="288"/>
-      <c r="E2" s="289"/>
-      <c r="F2" s="281" t="s">
+      <c r="D2" s="289"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="282" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="282"/>
-      <c r="H2" s="282"/>
-      <c r="I2" s="282"/>
-      <c r="J2" s="282"/>
-      <c r="K2" s="283"/>
-      <c r="L2" s="311"/>
-      <c r="M2" s="311"/>
-      <c r="N2" s="311"/>
+      <c r="G2" s="283"/>
+      <c r="H2" s="283"/>
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
+      <c r="K2" s="284"/>
+      <c r="L2" s="310"/>
+      <c r="M2" s="310"/>
+      <c r="N2" s="310"/>
       <c r="O2" s="120"/>
       <c r="P2" s="120"/>
       <c r="Q2" s="120"/>
@@ -6537,113 +6705,113 @@
       <c r="T2" s="121"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="224" t="s">
+      <c r="A3" s="253" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="225"/>
-      <c r="C3" s="308">
+      <c r="B3" s="254"/>
+      <c r="C3" s="311">
         <v>100</v>
       </c>
-      <c r="D3" s="285"/>
+      <c r="D3" s="286"/>
       <c r="E3" s="122"/>
-      <c r="F3" s="281" t="s">
+      <c r="F3" s="282" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="282"/>
-      <c r="H3" s="282"/>
-      <c r="I3" s="282"/>
-      <c r="J3" s="282"/>
-      <c r="K3" s="283"/>
-      <c r="L3" s="284">
+      <c r="G3" s="283"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="283"/>
+      <c r="J3" s="283"/>
+      <c r="K3" s="284"/>
+      <c r="L3" s="285">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C3*FunctionList!E6/1000,- O6),"N/A")</f>
         <v>6</v>
       </c>
-      <c r="M3" s="285"/>
-      <c r="N3" s="285"/>
-      <c r="O3" s="285"/>
-      <c r="P3" s="285"/>
-      <c r="Q3" s="285"/>
-      <c r="R3" s="285"/>
-      <c r="S3" s="285"/>
-      <c r="T3" s="286"/>
+      <c r="M3" s="286"/>
+      <c r="N3" s="286"/>
+      <c r="O3" s="286"/>
+      <c r="P3" s="286"/>
+      <c r="Q3" s="286"/>
+      <c r="R3" s="286"/>
+      <c r="S3" s="286"/>
+      <c r="T3" s="287"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="224" t="s">
+      <c r="A4" s="253" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="225"/>
-      <c r="C4" s="309"/>
-      <c r="D4" s="309"/>
-      <c r="E4" s="309"/>
-      <c r="F4" s="310"/>
-      <c r="G4" s="310"/>
-      <c r="H4" s="310"/>
-      <c r="I4" s="310"/>
-      <c r="J4" s="310"/>
-      <c r="K4" s="310"/>
-      <c r="L4" s="309"/>
-      <c r="M4" s="309"/>
-      <c r="N4" s="309"/>
-      <c r="O4" s="309"/>
-      <c r="P4" s="309"/>
-      <c r="Q4" s="309"/>
-      <c r="R4" s="309"/>
-      <c r="S4" s="309"/>
-      <c r="T4" s="309"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="312"/>
+      <c r="D4" s="312"/>
+      <c r="E4" s="312"/>
+      <c r="F4" s="313"/>
+      <c r="G4" s="313"/>
+      <c r="H4" s="313"/>
+      <c r="I4" s="313"/>
+      <c r="J4" s="313"/>
+      <c r="K4" s="313"/>
+      <c r="L4" s="312"/>
+      <c r="M4" s="312"/>
+      <c r="N4" s="312"/>
+      <c r="O4" s="312"/>
+      <c r="P4" s="312"/>
+      <c r="Q4" s="312"/>
+      <c r="R4" s="312"/>
+      <c r="S4" s="312"/>
+      <c r="T4" s="312"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="246" t="s">
+      <c r="A5" s="248" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="248" t="s">
+      <c r="B5" s="249"/>
+      <c r="C5" s="250" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="237"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="248" t="s">
+      <c r="D5" s="239"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="250" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
-      <c r="I5" s="237"/>
-      <c r="J5" s="237"/>
-      <c r="K5" s="250"/>
-      <c r="L5" s="237" t="s">
+      <c r="G5" s="239"/>
+      <c r="H5" s="239"/>
+      <c r="I5" s="239"/>
+      <c r="J5" s="239"/>
+      <c r="K5" s="252"/>
+      <c r="L5" s="239" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="237"/>
-      <c r="N5" s="237"/>
-      <c r="O5" s="236" t="s">
+      <c r="M5" s="239"/>
+      <c r="N5" s="239"/>
+      <c r="O5" s="238" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="237"/>
-      <c r="Q5" s="237"/>
-      <c r="R5" s="237"/>
-      <c r="S5" s="237"/>
-      <c r="T5" s="238"/>
+      <c r="P5" s="239"/>
+      <c r="Q5" s="239"/>
+      <c r="R5" s="239"/>
+      <c r="S5" s="239"/>
+      <c r="T5" s="240"/>
     </row>
     <row r="6" spans="1:20" ht="15" thickBot="1">
-      <c r="A6" s="239">
+      <c r="A6" s="241">
         <f>COUNTIF(F31:HF31,"P")</f>
         <v>4</v>
       </c>
-      <c r="B6" s="240"/>
-      <c r="C6" s="241">
+      <c r="B6" s="242"/>
+      <c r="C6" s="243">
         <f>COUNTIF(F31:HF31,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="241">
+      <c r="D6" s="244"/>
+      <c r="E6" s="242"/>
+      <c r="F6" s="243">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="242"/>
-      <c r="H6" s="242"/>
-      <c r="I6" s="242"/>
-      <c r="J6" s="242"/>
-      <c r="K6" s="243"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="244"/>
+      <c r="K6" s="245"/>
       <c r="L6" s="66">
         <f>COUNTIF(E30:HF30,"N")</f>
         <v>4</v>
@@ -6656,15 +6824,15 @@
         <f>COUNTIF(E30:HF30,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="244">
+      <c r="O6" s="246">
         <f>COUNTA(E8:HI8)</f>
         <v>4</v>
       </c>
-      <c r="P6" s="242"/>
-      <c r="Q6" s="242"/>
-      <c r="R6" s="242"/>
-      <c r="S6" s="242"/>
-      <c r="T6" s="245"/>
+      <c r="P6" s="244"/>
+      <c r="Q6" s="244"/>
+      <c r="R6" s="244"/>
+      <c r="S6" s="244"/>
+      <c r="T6" s="247"/>
     </row>
     <row r="7" spans="1:20" ht="15" thickBot="1"/>
     <row r="8" spans="1:20" ht="37.200000000000003" thickTop="1" thickBot="1">
@@ -6811,10 +6979,10 @@
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
       <c r="C18" s="80"/>
-      <c r="D18" s="219" t="s">
+      <c r="D18" s="265" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="219"/>
+      <c r="E18" s="265"/>
       <c r="F18" s="110" t="s">
         <v>101</v>
       </c>
@@ -6977,11 +7145,11 @@
       <c r="A30" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="220" t="s">
+      <c r="B30" s="266" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="220"/>
-      <c r="D30" s="220"/>
+      <c r="C30" s="266"/>
+      <c r="D30" s="266"/>
       <c r="E30" s="107"/>
       <c r="F30" s="108" t="s">
         <v>53</v>
@@ -6998,11 +7166,11 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="95"/>
-      <c r="B31" s="221" t="s">
+      <c r="B31" s="267" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="221"/>
-      <c r="D31" s="221"/>
+      <c r="C31" s="267"/>
+      <c r="D31" s="267"/>
       <c r="E31" s="109"/>
       <c r="F31" s="110" t="s">
         <v>91</v>
@@ -7019,11 +7187,11 @@
     </row>
     <row r="32" spans="1:9" ht="14.25" customHeight="1">
       <c r="A32" s="95"/>
-      <c r="B32" s="222" t="s">
+      <c r="B32" s="268" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="222"/>
-      <c r="D32" s="222"/>
+      <c r="C32" s="268"/>
+      <c r="D32" s="268"/>
       <c r="E32" s="111"/>
       <c r="F32" s="112">
         <v>43468</v>
@@ -7040,11 +7208,11 @@
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1">
       <c r="A33" s="113"/>
-      <c r="B33" s="223" t="s">
+      <c r="B33" s="269" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="223"/>
-      <c r="D33" s="223"/>
+      <c r="C33" s="269"/>
+      <c r="D33" s="269"/>
       <c r="E33" s="114"/>
       <c r="F33" s="115"/>
       <c r="G33" s="115"/>
@@ -7054,13 +7222,11 @@
     <row r="34" spans="1:9" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:E5"/>
@@ -7077,11 +7243,13 @@
     <mergeCell ref="L1:T1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F30:I30" xr:uid="{20B68117-7AD7-4F54-8A55-B2FB1DCA6A99}">
@@ -7132,58 +7300,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="290" t="str">
+      <c r="B1" s="221"/>
+      <c r="C1" s="291" t="str">
         <f>FunctionList!E18</f>
         <v>FN08</v>
       </c>
-      <c r="D1" s="278"/>
+      <c r="D1" s="277"/>
       <c r="E1" s="118"/>
-      <c r="F1" s="253" t="s">
+      <c r="F1" s="222" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="254" t="str">
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="222"/>
+      <c r="L1" s="223" t="str">
         <f>FunctionList!D18</f>
         <v>Sửa danh mục sản phẩm</v>
       </c>
-      <c r="M1" s="255"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="255"/>
-      <c r="P1" s="255"/>
-      <c r="Q1" s="255"/>
-      <c r="R1" s="255"/>
-      <c r="S1" s="255"/>
-      <c r="T1" s="272"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="224"/>
+      <c r="O1" s="224"/>
+      <c r="P1" s="224"/>
+      <c r="Q1" s="224"/>
+      <c r="R1" s="224"/>
+      <c r="S1" s="224"/>
+      <c r="T1" s="271"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="224" t="s">
+      <c r="A2" s="253" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="225"/>
-      <c r="C2" s="287" t="s">
+      <c r="B2" s="254"/>
+      <c r="C2" s="288" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="288"/>
-      <c r="E2" s="289"/>
-      <c r="F2" s="281" t="s">
+      <c r="D2" s="289"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="282" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="282"/>
-      <c r="H2" s="282"/>
-      <c r="I2" s="282"/>
-      <c r="J2" s="282"/>
-      <c r="K2" s="283"/>
-      <c r="L2" s="288"/>
-      <c r="M2" s="288"/>
-      <c r="N2" s="288"/>
+      <c r="G2" s="283"/>
+      <c r="H2" s="283"/>
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
+      <c r="K2" s="284"/>
+      <c r="L2" s="289"/>
+      <c r="M2" s="289"/>
+      <c r="N2" s="289"/>
       <c r="O2" s="63"/>
       <c r="P2" s="63"/>
       <c r="Q2" s="63"/>
@@ -7192,113 +7360,113 @@
       <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="224" t="s">
+      <c r="A3" s="253" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="225"/>
-      <c r="C3" s="291">
+      <c r="B3" s="254"/>
+      <c r="C3" s="292">
         <v>100</v>
       </c>
-      <c r="D3" s="292"/>
+      <c r="D3" s="293"/>
       <c r="E3" s="65"/>
-      <c r="F3" s="281" t="s">
+      <c r="F3" s="282" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="282"/>
-      <c r="H3" s="282"/>
-      <c r="I3" s="282"/>
-      <c r="J3" s="282"/>
-      <c r="K3" s="283"/>
-      <c r="L3" s="284">
+      <c r="G3" s="283"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="283"/>
+      <c r="J3" s="283"/>
+      <c r="K3" s="284"/>
+      <c r="L3" s="285">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C3*FunctionList!E6/1000,- O6),"N/A")</f>
         <v>6</v>
       </c>
-      <c r="M3" s="285"/>
-      <c r="N3" s="285"/>
-      <c r="O3" s="285"/>
-      <c r="P3" s="285"/>
-      <c r="Q3" s="285"/>
-      <c r="R3" s="285"/>
-      <c r="S3" s="285"/>
-      <c r="T3" s="286"/>
+      <c r="M3" s="286"/>
+      <c r="N3" s="286"/>
+      <c r="O3" s="286"/>
+      <c r="P3" s="286"/>
+      <c r="Q3" s="286"/>
+      <c r="R3" s="286"/>
+      <c r="S3" s="286"/>
+      <c r="T3" s="287"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="224" t="s">
+      <c r="A4" s="253" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="225"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="235"/>
-      <c r="G4" s="235"/>
-      <c r="H4" s="235"/>
-      <c r="I4" s="235"/>
-      <c r="J4" s="235"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="234"/>
-      <c r="M4" s="234"/>
-      <c r="N4" s="234"/>
-      <c r="O4" s="234"/>
-      <c r="P4" s="234"/>
-      <c r="Q4" s="234"/>
-      <c r="R4" s="234"/>
-      <c r="S4" s="234"/>
-      <c r="T4" s="234"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
+      <c r="F4" s="264"/>
+      <c r="G4" s="264"/>
+      <c r="H4" s="264"/>
+      <c r="I4" s="264"/>
+      <c r="J4" s="264"/>
+      <c r="K4" s="264"/>
+      <c r="L4" s="263"/>
+      <c r="M4" s="263"/>
+      <c r="N4" s="263"/>
+      <c r="O4" s="263"/>
+      <c r="P4" s="263"/>
+      <c r="Q4" s="263"/>
+      <c r="R4" s="263"/>
+      <c r="S4" s="263"/>
+      <c r="T4" s="263"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="246" t="s">
+      <c r="A5" s="248" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="248" t="s">
+      <c r="B5" s="249"/>
+      <c r="C5" s="250" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="237"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="248" t="s">
+      <c r="D5" s="239"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="250" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
-      <c r="I5" s="237"/>
-      <c r="J5" s="237"/>
-      <c r="K5" s="250"/>
-      <c r="L5" s="237" t="s">
+      <c r="G5" s="239"/>
+      <c r="H5" s="239"/>
+      <c r="I5" s="239"/>
+      <c r="J5" s="239"/>
+      <c r="K5" s="252"/>
+      <c r="L5" s="239" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="237"/>
-      <c r="N5" s="237"/>
-      <c r="O5" s="236" t="s">
+      <c r="M5" s="239"/>
+      <c r="N5" s="239"/>
+      <c r="O5" s="238" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="237"/>
-      <c r="Q5" s="237"/>
-      <c r="R5" s="237"/>
-      <c r="S5" s="237"/>
-      <c r="T5" s="238"/>
+      <c r="P5" s="239"/>
+      <c r="Q5" s="239"/>
+      <c r="R5" s="239"/>
+      <c r="S5" s="239"/>
+      <c r="T5" s="240"/>
     </row>
     <row r="6" spans="1:20" ht="15" thickBot="1">
-      <c r="A6" s="239">
+      <c r="A6" s="241">
         <f>COUNTIF(F35:HF35,"P")</f>
         <v>4</v>
       </c>
-      <c r="B6" s="240"/>
-      <c r="C6" s="241">
+      <c r="B6" s="242"/>
+      <c r="C6" s="243">
         <f>COUNTIF(F35:HF35,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="241">
+      <c r="D6" s="244"/>
+      <c r="E6" s="242"/>
+      <c r="F6" s="243">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="242"/>
-      <c r="H6" s="242"/>
-      <c r="I6" s="242"/>
-      <c r="J6" s="242"/>
-      <c r="K6" s="243"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="244"/>
+      <c r="K6" s="245"/>
       <c r="L6" s="66">
         <f>COUNTIF(E34:HF34,"N")</f>
         <v>4</v>
@@ -7311,15 +7479,15 @@
         <f>COUNTIF(E34:HF34,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="244">
+      <c r="O6" s="246">
         <f>COUNTA(E8:HI8)</f>
         <v>4</v>
       </c>
-      <c r="P6" s="242"/>
-      <c r="Q6" s="242"/>
-      <c r="R6" s="242"/>
-      <c r="S6" s="242"/>
-      <c r="T6" s="245"/>
+      <c r="P6" s="244"/>
+      <c r="Q6" s="244"/>
+      <c r="R6" s="244"/>
+      <c r="S6" s="244"/>
+      <c r="T6" s="247"/>
     </row>
     <row r="7" spans="1:20" ht="15" thickBot="1"/>
     <row r="8" spans="1:20" ht="37.200000000000003" thickTop="1" thickBot="1">
@@ -7466,10 +7634,10 @@
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
       <c r="C18" s="80"/>
-      <c r="D18" s="219">
+      <c r="D18" s="265">
         <v>0.5</v>
       </c>
-      <c r="E18" s="219"/>
+      <c r="E18" s="265"/>
       <c r="F18" s="110" t="s">
         <v>101</v>
       </c>
@@ -7700,11 +7868,11 @@
       <c r="A34" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="220" t="s">
+      <c r="B34" s="266" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="220"/>
-      <c r="D34" s="220"/>
+      <c r="C34" s="266"/>
+      <c r="D34" s="266"/>
       <c r="E34" s="107"/>
       <c r="F34" s="108" t="s">
         <v>53</v>
@@ -7721,11 +7889,11 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="95"/>
-      <c r="B35" s="221" t="s">
+      <c r="B35" s="267" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="221"/>
-      <c r="D35" s="221"/>
+      <c r="C35" s="267"/>
+      <c r="D35" s="267"/>
       <c r="E35" s="109"/>
       <c r="F35" s="110" t="s">
         <v>91</v>
@@ -7742,11 +7910,11 @@
     </row>
     <row r="36" spans="1:9" ht="13.5" customHeight="1">
       <c r="A36" s="95"/>
-      <c r="B36" s="222" t="s">
+      <c r="B36" s="268" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="222"/>
-      <c r="D36" s="222"/>
+      <c r="C36" s="268"/>
+      <c r="D36" s="268"/>
       <c r="E36" s="111"/>
       <c r="F36" s="112">
         <v>43468</v>
@@ -7763,11 +7931,11 @@
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1">
       <c r="A37" s="113"/>
-      <c r="B37" s="223" t="s">
+      <c r="B37" s="269" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="223"/>
-      <c r="D37" s="223"/>
+      <c r="C37" s="269"/>
+      <c r="D37" s="269"/>
       <c r="E37" s="114"/>
       <c r="F37" s="115"/>
       <c r="G37" s="115"/>
@@ -7777,13 +7945,11 @@
     <row r="38" spans="1:9" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:E5"/>
@@ -7800,11 +7966,13 @@
     <mergeCell ref="L1:T1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F34:I34" xr:uid="{67BC5341-41C0-477A-8962-FFFAE5337B7D}">
@@ -7854,59 +8022,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="271"/>
-      <c r="C1" s="290" t="str">
+      <c r="B1" s="270"/>
+      <c r="C1" s="291" t="str">
         <f>FunctionList!E13</f>
         <v>FN03</v>
       </c>
-      <c r="D1" s="278"/>
+      <c r="D1" s="277"/>
       <c r="E1" s="118"/>
-      <c r="F1" s="253" t="s">
+      <c r="F1" s="222" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="254" t="str">
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="222"/>
+      <c r="L1" s="223" t="str">
         <f>FunctionList!D13</f>
         <v>Thêm mới tài khoản</v>
       </c>
-      <c r="M1" s="255"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="255"/>
-      <c r="P1" s="255"/>
-      <c r="Q1" s="255"/>
-      <c r="R1" s="255"/>
-      <c r="S1" s="255"/>
-      <c r="T1" s="256"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="224"/>
+      <c r="O1" s="224"/>
+      <c r="P1" s="224"/>
+      <c r="Q1" s="224"/>
+      <c r="R1" s="224"/>
+      <c r="S1" s="224"/>
+      <c r="T1" s="225"/>
       <c r="U1" s="119"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="224" t="s">
+      <c r="A2" s="253" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="225"/>
-      <c r="C2" s="287" t="s">
+      <c r="B2" s="254"/>
+      <c r="C2" s="288" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="288"/>
-      <c r="E2" s="289"/>
-      <c r="F2" s="281" t="s">
+      <c r="D2" s="289"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="282" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="282"/>
-      <c r="H2" s="282"/>
-      <c r="I2" s="282"/>
-      <c r="J2" s="282"/>
-      <c r="K2" s="283"/>
-      <c r="L2" s="288"/>
-      <c r="M2" s="288"/>
-      <c r="N2" s="288"/>
+      <c r="G2" s="283"/>
+      <c r="H2" s="283"/>
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
+      <c r="K2" s="284"/>
+      <c r="L2" s="289"/>
+      <c r="M2" s="289"/>
+      <c r="N2" s="289"/>
       <c r="O2" s="63"/>
       <c r="P2" s="63"/>
       <c r="Q2" s="63"/>
@@ -7915,113 +8083,113 @@
       <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="224" t="s">
+      <c r="A3" s="253" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="225"/>
-      <c r="C3" s="291">
+      <c r="B3" s="254"/>
+      <c r="C3" s="292">
         <v>100</v>
       </c>
-      <c r="D3" s="292"/>
+      <c r="D3" s="293"/>
       <c r="E3" s="65"/>
-      <c r="F3" s="281" t="s">
+      <c r="F3" s="282" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="282"/>
-      <c r="H3" s="282"/>
-      <c r="I3" s="282"/>
-      <c r="J3" s="282"/>
-      <c r="K3" s="283"/>
-      <c r="L3" s="284">
+      <c r="G3" s="283"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="283"/>
+      <c r="J3" s="283"/>
+      <c r="K3" s="284"/>
+      <c r="L3" s="285">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C3*FunctionList!E6/1000,- O6),"N/A")</f>
         <v>7</v>
       </c>
-      <c r="M3" s="285"/>
-      <c r="N3" s="285"/>
-      <c r="O3" s="285"/>
-      <c r="P3" s="285"/>
-      <c r="Q3" s="285"/>
-      <c r="R3" s="285"/>
-      <c r="S3" s="285"/>
-      <c r="T3" s="286"/>
+      <c r="M3" s="286"/>
+      <c r="N3" s="286"/>
+      <c r="O3" s="286"/>
+      <c r="P3" s="286"/>
+      <c r="Q3" s="286"/>
+      <c r="R3" s="286"/>
+      <c r="S3" s="286"/>
+      <c r="T3" s="287"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="224" t="s">
+      <c r="A4" s="253" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="225"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="235"/>
-      <c r="G4" s="235"/>
-      <c r="H4" s="235"/>
-      <c r="I4" s="235"/>
-      <c r="J4" s="235"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="234"/>
-      <c r="M4" s="234"/>
-      <c r="N4" s="234"/>
-      <c r="O4" s="234"/>
-      <c r="P4" s="234"/>
-      <c r="Q4" s="234"/>
-      <c r="R4" s="234"/>
-      <c r="S4" s="234"/>
-      <c r="T4" s="234"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
+      <c r="F4" s="264"/>
+      <c r="G4" s="264"/>
+      <c r="H4" s="264"/>
+      <c r="I4" s="264"/>
+      <c r="J4" s="264"/>
+      <c r="K4" s="264"/>
+      <c r="L4" s="263"/>
+      <c r="M4" s="263"/>
+      <c r="N4" s="263"/>
+      <c r="O4" s="263"/>
+      <c r="P4" s="263"/>
+      <c r="Q4" s="263"/>
+      <c r="R4" s="263"/>
+      <c r="S4" s="263"/>
+      <c r="T4" s="263"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="246" t="s">
+      <c r="A5" s="248" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="248" t="s">
+      <c r="B5" s="249"/>
+      <c r="C5" s="250" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="237"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="248" t="s">
+      <c r="D5" s="239"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="250" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
-      <c r="I5" s="237"/>
-      <c r="J5" s="237"/>
-      <c r="K5" s="250"/>
-      <c r="L5" s="237" t="s">
+      <c r="G5" s="239"/>
+      <c r="H5" s="239"/>
+      <c r="I5" s="239"/>
+      <c r="J5" s="239"/>
+      <c r="K5" s="252"/>
+      <c r="L5" s="239" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="237"/>
-      <c r="N5" s="237"/>
-      <c r="O5" s="236" t="s">
+      <c r="M5" s="239"/>
+      <c r="N5" s="239"/>
+      <c r="O5" s="238" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="237"/>
-      <c r="Q5" s="237"/>
-      <c r="R5" s="237"/>
-      <c r="S5" s="237"/>
-      <c r="T5" s="238"/>
+      <c r="P5" s="239"/>
+      <c r="Q5" s="239"/>
+      <c r="R5" s="239"/>
+      <c r="S5" s="239"/>
+      <c r="T5" s="240"/>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1">
-      <c r="A6" s="239">
+      <c r="A6" s="241">
         <f>COUNTIF(F51:HE51,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="240"/>
-      <c r="C6" s="241">
+      <c r="B6" s="242"/>
+      <c r="C6" s="243">
         <f>COUNTIF(F51:HE51,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="241">
+      <c r="D6" s="244"/>
+      <c r="E6" s="242"/>
+      <c r="F6" s="243">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="242"/>
-      <c r="H6" s="242"/>
-      <c r="I6" s="242"/>
-      <c r="J6" s="242"/>
-      <c r="K6" s="243"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="244"/>
+      <c r="K6" s="245"/>
       <c r="L6" s="66">
         <f>COUNTIF(E50:HE50,"N")</f>
         <v>3</v>
@@ -8034,15 +8202,15 @@
         <f>COUNTIF(E50:HE50,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="244">
+      <c r="O6" s="246">
         <f>COUNTA(E8:HH8)</f>
         <v>3</v>
       </c>
-      <c r="P6" s="242"/>
-      <c r="Q6" s="242"/>
-      <c r="R6" s="242"/>
-      <c r="S6" s="242"/>
-      <c r="T6" s="245"/>
+      <c r="P6" s="244"/>
+      <c r="Q6" s="244"/>
+      <c r="R6" s="244"/>
+      <c r="S6" s="244"/>
+      <c r="T6" s="247"/>
     </row>
     <row r="7" spans="1:21" ht="15" thickBot="1"/>
     <row r="8" spans="1:21" ht="37.200000000000003" thickTop="1" thickBot="1">
@@ -8603,11 +8771,11 @@
       <c r="A50" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="220" t="s">
+      <c r="B50" s="266" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="220"/>
-      <c r="D50" s="220"/>
+      <c r="C50" s="266"/>
+      <c r="D50" s="266"/>
       <c r="E50" s="187"/>
       <c r="F50" s="108" t="s">
         <v>53</v>
@@ -8621,11 +8789,11 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="95"/>
-      <c r="B51" s="221" t="s">
+      <c r="B51" s="267" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="221"/>
-      <c r="D51" s="221"/>
+      <c r="C51" s="267"/>
+      <c r="D51" s="267"/>
       <c r="E51" s="109"/>
       <c r="F51" s="110" t="s">
         <v>91</v>
@@ -8639,11 +8807,11 @@
     </row>
     <row r="52" spans="1:8" ht="13.5" customHeight="1">
       <c r="A52" s="95"/>
-      <c r="B52" s="222" t="s">
+      <c r="B52" s="268" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="222"/>
-      <c r="D52" s="222"/>
+      <c r="C52" s="268"/>
+      <c r="D52" s="268"/>
       <c r="E52" s="111"/>
       <c r="F52" s="112">
         <v>43468</v>
@@ -8657,11 +8825,11 @@
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1">
       <c r="A53" s="113"/>
-      <c r="B53" s="223" t="s">
+      <c r="B53" s="269" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="223"/>
-      <c r="D53" s="223"/>
+      <c r="C53" s="269"/>
+      <c r="D53" s="269"/>
       <c r="E53" s="114"/>
       <c r="F53" s="115"/>
       <c r="G53" s="115"/>
@@ -8670,6 +8838,25 @@
     <row r="54" spans="1:8" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:T4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:K1"/>
@@ -8678,25 +8865,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="L2:N2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:T4"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:H49" xr:uid="{3DC1F670-276C-411B-9F94-F225DA618B2F}">
@@ -8766,42 +8934,42 @@
       <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="202" t="s">
+      <c r="A4" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="202"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="203" t="str">
+      <c r="B4" s="203"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="204" t="str">
         <f>Cover!B4</f>
         <v>Quản lý shop online</v>
       </c>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="206"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="202" t="s">
+      <c r="A5" s="203" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="202"/>
-      <c r="C5" s="202"/>
-      <c r="D5" s="202"/>
-      <c r="E5" s="203" t="str">
+      <c r="B5" s="203"/>
+      <c r="C5" s="203"/>
+      <c r="D5" s="203"/>
+      <c r="E5" s="204" t="str">
         <f>Cover!B5</f>
         <v>SE108</v>
       </c>
-      <c r="F5" s="204"/>
-      <c r="G5" s="204"/>
-      <c r="H5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="206"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="206" t="s">
+      <c r="A6" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="207"/>
-      <c r="C6" s="207"/>
-      <c r="D6" s="208"/>
+      <c r="B6" s="208"/>
+      <c r="C6" s="208"/>
+      <c r="D6" s="209"/>
       <c r="E6" s="40">
         <v>100</v>
       </c>
@@ -8810,16 +8978,16 @@
       <c r="H6" s="42"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="198" t="s">
+      <c r="A7" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="198"/>
-      <c r="E7" s="199"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="200"/>
-      <c r="H7" s="201"/>
+      <c r="B7" s="199"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="201"/>
+      <c r="H7" s="202"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="43"/>
@@ -9515,17 +9683,17 @@
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="24.6">
-      <c r="A2" s="215" t="s">
+      <c r="A2" s="216" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="215"/>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="49"/>
@@ -9542,70 +9710,70 @@
       <c r="A4" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="209" t="str">
+      <c r="B4" s="210" t="str">
         <f>Cover!B4</f>
         <v>Quản lý shop online</v>
       </c>
-      <c r="C4" s="209"/>
-      <c r="D4" s="210" t="s">
+      <c r="C4" s="210"/>
+      <c r="D4" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="210"/>
-      <c r="F4" s="216"/>
-      <c r="G4" s="217"/>
-      <c r="H4" s="217"/>
-      <c r="I4" s="218"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="218"/>
+      <c r="H4" s="218"/>
+      <c r="I4" s="219"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="209" t="str">
+      <c r="B5" s="210" t="str">
         <f>Cover!B5</f>
         <v>SE108</v>
       </c>
-      <c r="C5" s="209"/>
-      <c r="D5" s="210" t="s">
+      <c r="C5" s="210"/>
+      <c r="D5" s="211" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="210"/>
-      <c r="F5" s="216"/>
-      <c r="G5" s="217"/>
-      <c r="H5" s="217"/>
-      <c r="I5" s="218"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="217"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="218"/>
+      <c r="I5" s="219"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="209" t="str">
+      <c r="B6" s="210" t="str">
         <f>B5&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>SE108_Test Report_vx.x</v>
       </c>
-      <c r="C6" s="209"/>
-      <c r="D6" s="210" t="s">
+      <c r="C6" s="210"/>
+      <c r="D6" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="210"/>
-      <c r="F6" s="211">
+      <c r="E6" s="211"/>
+      <c r="F6" s="212">
         <v>43468</v>
       </c>
-      <c r="G6" s="212"/>
-      <c r="H6" s="212"/>
-      <c r="I6" s="213"/>
+      <c r="G6" s="213"/>
+      <c r="H6" s="213"/>
+      <c r="I6" s="214"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="214"/>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="214"/>
-      <c r="I7" s="214"/>
+      <c r="B7" s="215"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="215"/>
+      <c r="E7" s="215"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="215"/>
+      <c r="I7" s="215"/>
     </row>
     <row r="9" spans="1:9" ht="26.4">
       <c r="A9" s="149" t="s">
@@ -10101,176 +10269,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="265" t="str">
+      <c r="B1" s="221"/>
+      <c r="C1" s="234" t="str">
         <f>FunctionList!E11</f>
         <v>FN01</v>
       </c>
-      <c r="D1" s="266"/>
+      <c r="D1" s="235"/>
       <c r="E1" s="118"/>
-      <c r="F1" s="253" t="s">
+      <c r="F1" s="222" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="254" t="str">
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="222"/>
+      <c r="L1" s="223" t="str">
         <f>FunctionList!D11</f>
         <v>Đăng nhập</v>
       </c>
-      <c r="M1" s="255"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="255"/>
-      <c r="P1" s="255"/>
-      <c r="Q1" s="255"/>
-      <c r="R1" s="255"/>
-      <c r="S1" s="255"/>
-      <c r="T1" s="256"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="224"/>
+      <c r="O1" s="224"/>
+      <c r="P1" s="224"/>
+      <c r="Q1" s="224"/>
+      <c r="R1" s="224"/>
+      <c r="S1" s="224"/>
+      <c r="T1" s="225"/>
       <c r="U1" s="119"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="257" t="s">
+      <c r="A2" s="226" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="267" t="s">
+      <c r="B2" s="227"/>
+      <c r="C2" s="236" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="268"/>
+      <c r="D2" s="237"/>
       <c r="E2" s="118"/>
-      <c r="F2" s="259" t="s">
+      <c r="F2" s="228" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="260"/>
-      <c r="J2" s="260"/>
-      <c r="K2" s="261"/>
-      <c r="L2" s="262" t="s">
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="231" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="263"/>
-      <c r="N2" s="263"/>
-      <c r="O2" s="263"/>
-      <c r="P2" s="263"/>
-      <c r="Q2" s="263"/>
-      <c r="R2" s="263"/>
-      <c r="S2" s="263"/>
-      <c r="T2" s="264"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232"/>
+      <c r="R2" s="232"/>
+      <c r="S2" s="232"/>
+      <c r="T2" s="233"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="224" t="s">
+      <c r="A3" s="253" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="225"/>
-      <c r="C3" s="226">
+      <c r="B3" s="254"/>
+      <c r="C3" s="255">
         <v>100</v>
       </c>
-      <c r="D3" s="227"/>
+      <c r="D3" s="256"/>
       <c r="E3" s="65"/>
-      <c r="F3" s="228" t="s">
+      <c r="F3" s="257" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="229"/>
-      <c r="H3" s="229"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="230"/>
-      <c r="L3" s="231">
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="260">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C3*FunctionList!E6/1000,- O6),"N/A")</f>
         <v>2</v>
       </c>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="232"/>
-      <c r="Q3" s="232"/>
-      <c r="R3" s="232"/>
-      <c r="S3" s="232"/>
-      <c r="T3" s="233"/>
+      <c r="M3" s="261"/>
+      <c r="N3" s="261"/>
+      <c r="O3" s="261"/>
+      <c r="P3" s="261"/>
+      <c r="Q3" s="261"/>
+      <c r="R3" s="261"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="224" t="s">
+      <c r="A4" s="253" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="225"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="235"/>
-      <c r="G4" s="235"/>
-      <c r="H4" s="235"/>
-      <c r="I4" s="235"/>
-      <c r="J4" s="235"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="234"/>
-      <c r="M4" s="234"/>
-      <c r="N4" s="234"/>
-      <c r="O4" s="234"/>
-      <c r="P4" s="234"/>
-      <c r="Q4" s="234"/>
-      <c r="R4" s="234"/>
-      <c r="S4" s="234"/>
-      <c r="T4" s="234"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
+      <c r="F4" s="264"/>
+      <c r="G4" s="264"/>
+      <c r="H4" s="264"/>
+      <c r="I4" s="264"/>
+      <c r="J4" s="264"/>
+      <c r="K4" s="264"/>
+      <c r="L4" s="263"/>
+      <c r="M4" s="263"/>
+      <c r="N4" s="263"/>
+      <c r="O4" s="263"/>
+      <c r="P4" s="263"/>
+      <c r="Q4" s="263"/>
+      <c r="R4" s="263"/>
+      <c r="S4" s="263"/>
+      <c r="T4" s="263"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="246" t="s">
+      <c r="A5" s="248" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="248" t="s">
+      <c r="B5" s="249"/>
+      <c r="C5" s="250" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="237"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="248" t="s">
+      <c r="D5" s="239"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="250" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
-      <c r="I5" s="237"/>
-      <c r="J5" s="237"/>
-      <c r="K5" s="250"/>
-      <c r="L5" s="237" t="s">
+      <c r="G5" s="239"/>
+      <c r="H5" s="239"/>
+      <c r="I5" s="239"/>
+      <c r="J5" s="239"/>
+      <c r="K5" s="252"/>
+      <c r="L5" s="239" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="237"/>
-      <c r="N5" s="237"/>
-      <c r="O5" s="236" t="s">
+      <c r="M5" s="239"/>
+      <c r="N5" s="239"/>
+      <c r="O5" s="238" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="237"/>
-      <c r="Q5" s="237"/>
-      <c r="R5" s="237"/>
-      <c r="S5" s="237"/>
-      <c r="T5" s="238"/>
+      <c r="P5" s="239"/>
+      <c r="Q5" s="239"/>
+      <c r="R5" s="239"/>
+      <c r="S5" s="239"/>
+      <c r="T5" s="240"/>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1">
-      <c r="A6" s="239">
+      <c r="A6" s="241">
         <f>COUNTIF(F38:HQ38,"P")</f>
         <v>8</v>
       </c>
-      <c r="B6" s="240"/>
-      <c r="C6" s="241">
+      <c r="B6" s="242"/>
+      <c r="C6" s="243">
         <f>COUNTIF(F38:HQ38,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="241">
+      <c r="D6" s="244"/>
+      <c r="E6" s="242"/>
+      <c r="F6" s="243">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="242"/>
-      <c r="H6" s="242"/>
-      <c r="I6" s="242"/>
-      <c r="J6" s="242"/>
-      <c r="K6" s="243"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="244"/>
+      <c r="K6" s="245"/>
       <c r="L6" s="66">
         <f>COUNTIF(E37:HJ37,"N")</f>
         <v>8</v>
@@ -10283,15 +10451,15 @@
         <f>COUNTIF(E37:HJ37,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="244">
+      <c r="O6" s="246">
         <f>COUNTA(E8:HM8)</f>
         <v>8</v>
       </c>
-      <c r="P6" s="242"/>
-      <c r="Q6" s="242"/>
-      <c r="R6" s="242"/>
-      <c r="S6" s="242"/>
-      <c r="T6" s="245"/>
+      <c r="P6" s="244"/>
+      <c r="Q6" s="244"/>
+      <c r="R6" s="244"/>
+      <c r="S6" s="244"/>
+      <c r="T6" s="247"/>
     </row>
     <row r="7" spans="1:21" ht="15" thickBot="1"/>
     <row r="8" spans="1:21" ht="37.200000000000003" thickTop="1" thickBot="1">
@@ -10479,10 +10647,10 @@
       <c r="A17" s="78"/>
       <c r="B17" s="79"/>
       <c r="C17" s="80"/>
-      <c r="D17" s="219" t="s">
+      <c r="D17" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="219"/>
+      <c r="E17" s="265"/>
       <c r="F17" s="110" t="s">
         <v>101</v>
       </c>
@@ -10851,11 +11019,11 @@
       <c r="A37" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="220" t="s">
+      <c r="B37" s="266" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="220"/>
-      <c r="D37" s="220"/>
+      <c r="C37" s="266"/>
+      <c r="D37" s="266"/>
       <c r="E37" s="107"/>
       <c r="F37" s="108" t="s">
         <v>53</v>
@@ -10884,11 +11052,11 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="95"/>
-      <c r="B38" s="221" t="s">
+      <c r="B38" s="267" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="221"/>
-      <c r="D38" s="221"/>
+      <c r="C38" s="267"/>
+      <c r="D38" s="267"/>
       <c r="E38" s="109"/>
       <c r="F38" s="110" t="s">
         <v>91</v>
@@ -10917,11 +11085,11 @@
     </row>
     <row r="39" spans="1:13" ht="12.75" customHeight="1">
       <c r="A39" s="95"/>
-      <c r="B39" s="222" t="s">
+      <c r="B39" s="268" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="222"/>
-      <c r="D39" s="222"/>
+      <c r="C39" s="268"/>
+      <c r="D39" s="268"/>
       <c r="E39" s="111"/>
       <c r="F39" s="123">
         <v>43467</v>
@@ -10950,11 +11118,11 @@
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A40" s="113"/>
-      <c r="B40" s="223" t="s">
+      <c r="B40" s="269" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="223"/>
-      <c r="D40" s="223"/>
+      <c r="C40" s="269"/>
+      <c r="D40" s="269"/>
       <c r="E40" s="114"/>
       <c r="F40" s="124"/>
       <c r="G40" s="124"/>
@@ -10968,14 +11136,17 @@
     <row r="41" spans="1:13" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:T4"/>
     <mergeCell ref="O5:T5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:E6"/>
@@ -10985,17 +11156,14 @@
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:K5"/>
     <mergeCell ref="L5:N5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:T4"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F38:M38" xr:uid="{10C9E3CE-725B-4F12-9EDA-833D9294882B}">
@@ -11046,175 +11214,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="271"/>
-      <c r="C1" s="273" t="str">
+      <c r="B1" s="270"/>
+      <c r="C1" s="272" t="str">
         <f>FunctionList!E12</f>
         <v>FN02</v>
       </c>
-      <c r="D1" s="274"/>
+      <c r="D1" s="273"/>
       <c r="E1" s="118"/>
-      <c r="F1" s="253" t="s">
+      <c r="F1" s="222" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="254" t="str">
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="222"/>
+      <c r="L1" s="223" t="str">
         <f>FunctionList!D12</f>
         <v>Thiếp lập CSDL</v>
       </c>
-      <c r="M1" s="255"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="255"/>
-      <c r="P1" s="255"/>
-      <c r="Q1" s="255"/>
-      <c r="R1" s="255"/>
-      <c r="S1" s="255"/>
-      <c r="T1" s="272"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="224"/>
+      <c r="O1" s="224"/>
+      <c r="P1" s="224"/>
+      <c r="Q1" s="224"/>
+      <c r="R1" s="224"/>
+      <c r="S1" s="224"/>
+      <c r="T1" s="271"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="274" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277" t="s">
+      <c r="B2" s="275"/>
+      <c r="C2" s="276" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="278"/>
+      <c r="D2" s="277"/>
       <c r="E2" s="118"/>
-      <c r="F2" s="259" t="s">
+      <c r="F2" s="228" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="260"/>
-      <c r="J2" s="260"/>
-      <c r="K2" s="261"/>
-      <c r="L2" s="267" t="s">
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="236" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="279"/>
-      <c r="N2" s="279"/>
-      <c r="O2" s="279"/>
-      <c r="P2" s="279"/>
-      <c r="Q2" s="279"/>
-      <c r="R2" s="279"/>
-      <c r="S2" s="279"/>
-      <c r="T2" s="280"/>
+      <c r="M2" s="278"/>
+      <c r="N2" s="278"/>
+      <c r="O2" s="278"/>
+      <c r="P2" s="278"/>
+      <c r="Q2" s="278"/>
+      <c r="R2" s="278"/>
+      <c r="S2" s="278"/>
+      <c r="T2" s="279"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="269" t="s">
+      <c r="A3" s="280" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="270"/>
-      <c r="C3" s="226">
+      <c r="B3" s="281"/>
+      <c r="C3" s="255">
         <v>100</v>
       </c>
-      <c r="D3" s="227"/>
+      <c r="D3" s="256"/>
       <c r="E3" s="65"/>
-      <c r="F3" s="228" t="s">
+      <c r="F3" s="257" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="229"/>
-      <c r="H3" s="229"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="230"/>
-      <c r="L3" s="231">
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="260">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C3*FunctionList!E6/1000,- O6),"N/A")</f>
         <v>5</v>
       </c>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="232"/>
-      <c r="Q3" s="232"/>
-      <c r="R3" s="232"/>
-      <c r="S3" s="232"/>
-      <c r="T3" s="233"/>
+      <c r="M3" s="261"/>
+      <c r="N3" s="261"/>
+      <c r="O3" s="261"/>
+      <c r="P3" s="261"/>
+      <c r="Q3" s="261"/>
+      <c r="R3" s="261"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="224" t="s">
+      <c r="A4" s="253" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="225"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="235"/>
-      <c r="G4" s="235"/>
-      <c r="H4" s="235"/>
-      <c r="I4" s="235"/>
-      <c r="J4" s="235"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="234"/>
-      <c r="M4" s="234"/>
-      <c r="N4" s="234"/>
-      <c r="O4" s="234"/>
-      <c r="P4" s="234"/>
-      <c r="Q4" s="234"/>
-      <c r="R4" s="234"/>
-      <c r="S4" s="234"/>
-      <c r="T4" s="234"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
+      <c r="F4" s="264"/>
+      <c r="G4" s="264"/>
+      <c r="H4" s="264"/>
+      <c r="I4" s="264"/>
+      <c r="J4" s="264"/>
+      <c r="K4" s="264"/>
+      <c r="L4" s="263"/>
+      <c r="M4" s="263"/>
+      <c r="N4" s="263"/>
+      <c r="O4" s="263"/>
+      <c r="P4" s="263"/>
+      <c r="Q4" s="263"/>
+      <c r="R4" s="263"/>
+      <c r="S4" s="263"/>
+      <c r="T4" s="263"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="246" t="s">
+      <c r="A5" s="248" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="248" t="s">
+      <c r="B5" s="249"/>
+      <c r="C5" s="250" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="237"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="248" t="s">
+      <c r="D5" s="239"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="250" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
-      <c r="I5" s="237"/>
-      <c r="J5" s="237"/>
-      <c r="K5" s="250"/>
-      <c r="L5" s="237" t="s">
+      <c r="G5" s="239"/>
+      <c r="H5" s="239"/>
+      <c r="I5" s="239"/>
+      <c r="J5" s="239"/>
+      <c r="K5" s="252"/>
+      <c r="L5" s="239" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="237"/>
-      <c r="N5" s="237"/>
-      <c r="O5" s="236" t="s">
+      <c r="M5" s="239"/>
+      <c r="N5" s="239"/>
+      <c r="O5" s="238" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="237"/>
-      <c r="Q5" s="237"/>
-      <c r="R5" s="237"/>
-      <c r="S5" s="237"/>
-      <c r="T5" s="238"/>
+      <c r="P5" s="239"/>
+      <c r="Q5" s="239"/>
+      <c r="R5" s="239"/>
+      <c r="S5" s="239"/>
+      <c r="T5" s="240"/>
     </row>
     <row r="6" spans="1:20" ht="15" thickBot="1">
-      <c r="A6" s="239">
+      <c r="A6" s="241">
         <f>COUNTIF($F$33:$HG$33,"P")</f>
         <v>5</v>
       </c>
-      <c r="B6" s="240"/>
-      <c r="C6" s="241">
+      <c r="B6" s="242"/>
+      <c r="C6" s="243">
         <f>COUNTIF(F33:HG33,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="241">
+      <c r="D6" s="244"/>
+      <c r="E6" s="242"/>
+      <c r="F6" s="243">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="242"/>
-      <c r="H6" s="242"/>
-      <c r="I6" s="242"/>
-      <c r="J6" s="242"/>
-      <c r="K6" s="243"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="244"/>
+      <c r="K6" s="245"/>
       <c r="L6" s="66">
         <f>COUNTIF(E32:HG32,"N")</f>
         <v>5</v>
@@ -11227,15 +11395,15 @@
         <f>COUNTIF($E$32:$HG$32,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="244">
+      <c r="O6" s="246">
         <f>COUNTA(E8:HJ8)</f>
         <v>5</v>
       </c>
-      <c r="P6" s="242"/>
-      <c r="Q6" s="242"/>
-      <c r="R6" s="242"/>
-      <c r="S6" s="242"/>
-      <c r="T6" s="245"/>
+      <c r="P6" s="244"/>
+      <c r="Q6" s="244"/>
+      <c r="R6" s="244"/>
+      <c r="S6" s="244"/>
+      <c r="T6" s="247"/>
     </row>
     <row r="7" spans="1:20" ht="15" thickBot="1"/>
     <row r="8" spans="1:20" ht="37.200000000000003" thickTop="1" thickBot="1">
@@ -11382,10 +11550,10 @@
       <c r="A17" s="78"/>
       <c r="B17" s="79"/>
       <c r="C17" s="80"/>
-      <c r="D17" s="219" t="s">
+      <c r="D17" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="219"/>
+      <c r="E17" s="265"/>
       <c r="F17" s="110" t="s">
         <v>101</v>
       </c>
@@ -11616,11 +11784,11 @@
       <c r="A32" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="220" t="s">
+      <c r="B32" s="266" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="220"/>
-      <c r="D32" s="220"/>
+      <c r="C32" s="266"/>
+      <c r="D32" s="266"/>
       <c r="E32" s="107"/>
       <c r="F32" s="108" t="s">
         <v>53</v>
@@ -11640,11 +11808,11 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="95"/>
-      <c r="B33" s="221" t="s">
+      <c r="B33" s="267" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="221"/>
-      <c r="D33" s="221"/>
+      <c r="C33" s="267"/>
+      <c r="D33" s="267"/>
       <c r="E33" s="109"/>
       <c r="F33" s="110" t="s">
         <v>91</v>
@@ -11664,11 +11832,11 @@
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="95"/>
-      <c r="B34" s="222" t="s">
+      <c r="B34" s="268" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="222"/>
-      <c r="D34" s="222"/>
+      <c r="C34" s="268"/>
+      <c r="D34" s="268"/>
       <c r="E34" s="111"/>
       <c r="F34" s="112">
         <v>43468</v>
@@ -11688,11 +11856,11 @@
     </row>
     <row r="35" spans="1:10" ht="15" thickBot="1">
       <c r="A35" s="113"/>
-      <c r="B35" s="223" t="s">
+      <c r="B35" s="269" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="223"/>
-      <c r="D35" s="223"/>
+      <c r="C35" s="269"/>
+      <c r="D35" s="269"/>
       <c r="E35" s="114"/>
       <c r="F35" s="115"/>
       <c r="G35" s="115"/>
@@ -11703,14 +11871,17 @@
     <row r="36" spans="1:10" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
     <mergeCell ref="F5:K5"/>
     <mergeCell ref="O5:T5"/>
     <mergeCell ref="C4:T4"/>
@@ -11720,17 +11891,14 @@
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:T3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F32:J32" xr:uid="{9F1C8E75-1B1D-45A0-92F5-75BABDDEE764}">
@@ -11781,59 +11949,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="271"/>
-      <c r="C1" s="290" t="str">
+      <c r="B1" s="270"/>
+      <c r="C1" s="291" t="str">
         <f>FunctionList!E13</f>
         <v>FN03</v>
       </c>
-      <c r="D1" s="278"/>
+      <c r="D1" s="277"/>
       <c r="E1" s="118"/>
-      <c r="F1" s="253" t="s">
+      <c r="F1" s="222" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="254" t="str">
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="222"/>
+      <c r="L1" s="223" t="str">
         <f>FunctionList!D13</f>
         <v>Thêm mới tài khoản</v>
       </c>
-      <c r="M1" s="255"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="255"/>
-      <c r="P1" s="255"/>
-      <c r="Q1" s="255"/>
-      <c r="R1" s="255"/>
-      <c r="S1" s="255"/>
-      <c r="T1" s="256"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="224"/>
+      <c r="O1" s="224"/>
+      <c r="P1" s="224"/>
+      <c r="Q1" s="224"/>
+      <c r="R1" s="224"/>
+      <c r="S1" s="224"/>
+      <c r="T1" s="225"/>
       <c r="U1" s="119"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="224" t="s">
+      <c r="A2" s="253" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="225"/>
-      <c r="C2" s="287" t="s">
+      <c r="B2" s="254"/>
+      <c r="C2" s="288" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="288"/>
-      <c r="E2" s="289"/>
-      <c r="F2" s="281" t="s">
+      <c r="D2" s="289"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="282" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="282"/>
-      <c r="H2" s="282"/>
-      <c r="I2" s="282"/>
-      <c r="J2" s="282"/>
-      <c r="K2" s="283"/>
-      <c r="L2" s="288"/>
-      <c r="M2" s="288"/>
-      <c r="N2" s="288"/>
+      <c r="G2" s="283"/>
+      <c r="H2" s="283"/>
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
+      <c r="K2" s="284"/>
+      <c r="L2" s="289"/>
+      <c r="M2" s="289"/>
+      <c r="N2" s="289"/>
       <c r="O2" s="63"/>
       <c r="P2" s="63"/>
       <c r="Q2" s="63"/>
@@ -11842,113 +12010,113 @@
       <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="224" t="s">
+      <c r="A3" s="253" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="225"/>
-      <c r="C3" s="291">
+      <c r="B3" s="254"/>
+      <c r="C3" s="292">
         <v>100</v>
       </c>
-      <c r="D3" s="292"/>
+      <c r="D3" s="293"/>
       <c r="E3" s="65"/>
-      <c r="F3" s="281" t="s">
+      <c r="F3" s="282" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="282"/>
-      <c r="H3" s="282"/>
-      <c r="I3" s="282"/>
-      <c r="J3" s="282"/>
-      <c r="K3" s="283"/>
-      <c r="L3" s="284">
+      <c r="G3" s="283"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="283"/>
+      <c r="J3" s="283"/>
+      <c r="K3" s="284"/>
+      <c r="L3" s="285">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C3*FunctionList!E6/1000,- O6),"N/A")</f>
         <v>7</v>
       </c>
-      <c r="M3" s="285"/>
-      <c r="N3" s="285"/>
-      <c r="O3" s="285"/>
-      <c r="P3" s="285"/>
-      <c r="Q3" s="285"/>
-      <c r="R3" s="285"/>
-      <c r="S3" s="285"/>
-      <c r="T3" s="286"/>
+      <c r="M3" s="286"/>
+      <c r="N3" s="286"/>
+      <c r="O3" s="286"/>
+      <c r="P3" s="286"/>
+      <c r="Q3" s="286"/>
+      <c r="R3" s="286"/>
+      <c r="S3" s="286"/>
+      <c r="T3" s="287"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="224" t="s">
+      <c r="A4" s="253" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="225"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="235"/>
-      <c r="G4" s="235"/>
-      <c r="H4" s="235"/>
-      <c r="I4" s="235"/>
-      <c r="J4" s="235"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="234"/>
-      <c r="M4" s="234"/>
-      <c r="N4" s="234"/>
-      <c r="O4" s="234"/>
-      <c r="P4" s="234"/>
-      <c r="Q4" s="234"/>
-      <c r="R4" s="234"/>
-      <c r="S4" s="234"/>
-      <c r="T4" s="234"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
+      <c r="F4" s="264"/>
+      <c r="G4" s="264"/>
+      <c r="H4" s="264"/>
+      <c r="I4" s="264"/>
+      <c r="J4" s="264"/>
+      <c r="K4" s="264"/>
+      <c r="L4" s="263"/>
+      <c r="M4" s="263"/>
+      <c r="N4" s="263"/>
+      <c r="O4" s="263"/>
+      <c r="P4" s="263"/>
+      <c r="Q4" s="263"/>
+      <c r="R4" s="263"/>
+      <c r="S4" s="263"/>
+      <c r="T4" s="263"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="246" t="s">
+      <c r="A5" s="248" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="248" t="s">
+      <c r="B5" s="249"/>
+      <c r="C5" s="250" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="237"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="248" t="s">
+      <c r="D5" s="239"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="250" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
-      <c r="I5" s="237"/>
-      <c r="J5" s="237"/>
-      <c r="K5" s="250"/>
-      <c r="L5" s="237" t="s">
+      <c r="G5" s="239"/>
+      <c r="H5" s="239"/>
+      <c r="I5" s="239"/>
+      <c r="J5" s="239"/>
+      <c r="K5" s="252"/>
+      <c r="L5" s="239" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="237"/>
-      <c r="N5" s="237"/>
-      <c r="O5" s="236" t="s">
+      <c r="M5" s="239"/>
+      <c r="N5" s="239"/>
+      <c r="O5" s="238" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="237"/>
-      <c r="Q5" s="237"/>
-      <c r="R5" s="237"/>
-      <c r="S5" s="237"/>
-      <c r="T5" s="238"/>
+      <c r="P5" s="239"/>
+      <c r="Q5" s="239"/>
+      <c r="R5" s="239"/>
+      <c r="S5" s="239"/>
+      <c r="T5" s="240"/>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1">
-      <c r="A6" s="239">
+      <c r="A6" s="241">
         <f>COUNTIF(F51:HE51,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="240"/>
-      <c r="C6" s="241">
+      <c r="B6" s="242"/>
+      <c r="C6" s="243">
         <f>COUNTIF(F51:HE51,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="241">
+      <c r="D6" s="244"/>
+      <c r="E6" s="242"/>
+      <c r="F6" s="243">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="242"/>
-      <c r="H6" s="242"/>
-      <c r="I6" s="242"/>
-      <c r="J6" s="242"/>
-      <c r="K6" s="243"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="244"/>
+      <c r="K6" s="245"/>
       <c r="L6" s="66">
         <f>COUNTIF(E50:HE50,"N")</f>
         <v>3</v>
@@ -11961,15 +12129,15 @@
         <f>COUNTIF(E50:HE50,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="244">
+      <c r="O6" s="246">
         <f>COUNTA(E8:HH8)</f>
         <v>3</v>
       </c>
-      <c r="P6" s="242"/>
-      <c r="Q6" s="242"/>
-      <c r="R6" s="242"/>
-      <c r="S6" s="242"/>
-      <c r="T6" s="245"/>
+      <c r="P6" s="244"/>
+      <c r="Q6" s="244"/>
+      <c r="R6" s="244"/>
+      <c r="S6" s="244"/>
+      <c r="T6" s="247"/>
     </row>
     <row r="7" spans="1:21" ht="15" thickBot="1"/>
     <row r="8" spans="1:21" ht="37.200000000000003" thickTop="1" thickBot="1">
@@ -12530,11 +12698,11 @@
       <c r="A50" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="220" t="s">
+      <c r="B50" s="266" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="220"/>
-      <c r="D50" s="220"/>
+      <c r="C50" s="266"/>
+      <c r="D50" s="266"/>
       <c r="E50" s="107"/>
       <c r="F50" s="108" t="s">
         <v>53</v>
@@ -12548,11 +12716,11 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="95"/>
-      <c r="B51" s="221" t="s">
+      <c r="B51" s="267" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="221"/>
-      <c r="D51" s="221"/>
+      <c r="C51" s="267"/>
+      <c r="D51" s="267"/>
       <c r="E51" s="109"/>
       <c r="F51" s="110" t="s">
         <v>91</v>
@@ -12566,11 +12734,11 @@
     </row>
     <row r="52" spans="1:8" ht="13.5" customHeight="1">
       <c r="A52" s="95"/>
-      <c r="B52" s="222" t="s">
+      <c r="B52" s="268" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="222"/>
-      <c r="D52" s="222"/>
+      <c r="C52" s="268"/>
+      <c r="D52" s="268"/>
       <c r="E52" s="111"/>
       <c r="F52" s="112">
         <v>43468</v>
@@ -12584,11 +12752,11 @@
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1">
       <c r="A53" s="113"/>
-      <c r="B53" s="223" t="s">
+      <c r="B53" s="269" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="223"/>
-      <c r="D53" s="223"/>
+      <c r="C53" s="269"/>
+      <c r="D53" s="269"/>
       <c r="E53" s="114"/>
       <c r="F53" s="115"/>
       <c r="G53" s="115"/>
@@ -12597,6 +12765,19 @@
     <row r="54" spans="1:8" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:T3"/>
     <mergeCell ref="A4:B4"/>
@@ -12611,19 +12792,6 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <dataValidations count="3">
@@ -12674,61 +12842,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="265" t="str">
+      <c r="B1" s="221"/>
+      <c r="C1" s="234" t="str">
         <f>FunctionList!E14</f>
         <v>FN04</v>
       </c>
-      <c r="D1" s="266"/>
+      <c r="D1" s="235"/>
       <c r="E1" s="118"/>
-      <c r="F1" s="253" t="s">
+      <c r="F1" s="222" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="254" t="str">
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="222"/>
+      <c r="L1" s="223" t="str">
         <f>FunctionList!D14</f>
         <v>Sửa tài khoản</v>
       </c>
-      <c r="M1" s="255"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="255"/>
-      <c r="P1" s="255"/>
-      <c r="Q1" s="255"/>
-      <c r="R1" s="255"/>
-      <c r="S1" s="255"/>
-      <c r="T1" s="256"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="224"/>
+      <c r="O1" s="224"/>
+      <c r="P1" s="224"/>
+      <c r="Q1" s="224"/>
+      <c r="R1" s="224"/>
+      <c r="S1" s="224"/>
+      <c r="T1" s="225"/>
       <c r="U1" s="119"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="224" t="s">
+      <c r="A2" s="253" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="225"/>
-      <c r="C2" s="287" t="s">
+      <c r="B2" s="254"/>
+      <c r="C2" s="288" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="288"/>
-      <c r="E2" s="289"/>
-      <c r="F2" s="281" t="s">
+      <c r="D2" s="289"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="282" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="282"/>
-      <c r="H2" s="282"/>
-      <c r="I2" s="282"/>
-      <c r="J2" s="282"/>
-      <c r="K2" s="283"/>
-      <c r="L2" s="288" t="s">
+      <c r="G2" s="283"/>
+      <c r="H2" s="283"/>
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
+      <c r="K2" s="284"/>
+      <c r="L2" s="289" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="288"/>
-      <c r="N2" s="288"/>
+      <c r="M2" s="289"/>
+      <c r="N2" s="289"/>
       <c r="O2" s="63"/>
       <c r="P2" s="63"/>
       <c r="Q2" s="63"/>
@@ -12737,113 +12905,113 @@
       <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="224" t="s">
+      <c r="A3" s="253" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="225"/>
-      <c r="C3" s="291">
+      <c r="B3" s="254"/>
+      <c r="C3" s="292">
         <v>100</v>
       </c>
-      <c r="D3" s="292"/>
+      <c r="D3" s="293"/>
       <c r="E3" s="65"/>
-      <c r="F3" s="281" t="s">
+      <c r="F3" s="282" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="282"/>
-      <c r="H3" s="282"/>
-      <c r="I3" s="282"/>
-      <c r="J3" s="282"/>
-      <c r="K3" s="283"/>
-      <c r="L3" s="284">
+      <c r="G3" s="283"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="283"/>
+      <c r="J3" s="283"/>
+      <c r="K3" s="284"/>
+      <c r="L3" s="285">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C3*FunctionList!E6/1000,- O6),"N/A")</f>
         <v>1</v>
       </c>
-      <c r="M3" s="285"/>
-      <c r="N3" s="285"/>
-      <c r="O3" s="285"/>
-      <c r="P3" s="285"/>
-      <c r="Q3" s="285"/>
-      <c r="R3" s="285"/>
-      <c r="S3" s="285"/>
-      <c r="T3" s="286"/>
+      <c r="M3" s="286"/>
+      <c r="N3" s="286"/>
+      <c r="O3" s="286"/>
+      <c r="P3" s="286"/>
+      <c r="Q3" s="286"/>
+      <c r="R3" s="286"/>
+      <c r="S3" s="286"/>
+      <c r="T3" s="287"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="224" t="s">
+      <c r="A4" s="253" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="225"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="235"/>
-      <c r="G4" s="235"/>
-      <c r="H4" s="235"/>
-      <c r="I4" s="235"/>
-      <c r="J4" s="235"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="234"/>
-      <c r="M4" s="234"/>
-      <c r="N4" s="234"/>
-      <c r="O4" s="234"/>
-      <c r="P4" s="234"/>
-      <c r="Q4" s="234"/>
-      <c r="R4" s="234"/>
-      <c r="S4" s="234"/>
-      <c r="T4" s="234"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
+      <c r="F4" s="264"/>
+      <c r="G4" s="264"/>
+      <c r="H4" s="264"/>
+      <c r="I4" s="264"/>
+      <c r="J4" s="264"/>
+      <c r="K4" s="264"/>
+      <c r="L4" s="263"/>
+      <c r="M4" s="263"/>
+      <c r="N4" s="263"/>
+      <c r="O4" s="263"/>
+      <c r="P4" s="263"/>
+      <c r="Q4" s="263"/>
+      <c r="R4" s="263"/>
+      <c r="S4" s="263"/>
+      <c r="T4" s="263"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="246" t="s">
+      <c r="A5" s="248" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="248" t="s">
+      <c r="B5" s="249"/>
+      <c r="C5" s="250" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="237"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="248" t="s">
+      <c r="D5" s="239"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="250" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
-      <c r="I5" s="237"/>
-      <c r="J5" s="237"/>
-      <c r="K5" s="250"/>
-      <c r="L5" s="237" t="s">
+      <c r="G5" s="239"/>
+      <c r="H5" s="239"/>
+      <c r="I5" s="239"/>
+      <c r="J5" s="239"/>
+      <c r="K5" s="252"/>
+      <c r="L5" s="239" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="237"/>
-      <c r="N5" s="237"/>
-      <c r="O5" s="236" t="s">
+      <c r="M5" s="239"/>
+      <c r="N5" s="239"/>
+      <c r="O5" s="238" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="237"/>
-      <c r="Q5" s="237"/>
-      <c r="R5" s="237"/>
-      <c r="S5" s="237"/>
-      <c r="T5" s="238"/>
+      <c r="P5" s="239"/>
+      <c r="Q5" s="239"/>
+      <c r="R5" s="239"/>
+      <c r="S5" s="239"/>
+      <c r="T5" s="240"/>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1">
-      <c r="A6" s="239">
+      <c r="A6" s="241">
         <f>COUNTIF(F44:HJ44,"P")</f>
         <v>0</v>
       </c>
-      <c r="B6" s="240"/>
-      <c r="C6" s="241">
+      <c r="B6" s="242"/>
+      <c r="C6" s="243">
         <f>COUNTIF(F44:HJ44,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="241">
+      <c r="D6" s="244"/>
+      <c r="E6" s="242"/>
+      <c r="F6" s="243">
         <f>SUM(O6,- A6,- C6)</f>
         <v>9</v>
       </c>
-      <c r="G6" s="242"/>
-      <c r="H6" s="242"/>
-      <c r="I6" s="242"/>
-      <c r="J6" s="242"/>
-      <c r="K6" s="243"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="244"/>
+      <c r="K6" s="245"/>
       <c r="L6" s="66">
         <f>COUNTIF(E43:HJ43,"N")</f>
         <v>0</v>
@@ -12856,15 +13024,15 @@
         <f>COUNTIF(E43:HJ43,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="244">
+      <c r="O6" s="246">
         <f>COUNTA(E8:HM8)</f>
         <v>9</v>
       </c>
-      <c r="P6" s="242"/>
-      <c r="Q6" s="242"/>
-      <c r="R6" s="242"/>
-      <c r="S6" s="242"/>
-      <c r="T6" s="245"/>
+      <c r="P6" s="244"/>
+      <c r="Q6" s="244"/>
+      <c r="R6" s="244"/>
+      <c r="S6" s="244"/>
+      <c r="T6" s="247"/>
     </row>
     <row r="7" spans="1:21" ht="15" thickBot="1"/>
     <row r="8" spans="1:21" ht="37.200000000000003" thickTop="1" thickBot="1">
@@ -13083,10 +13251,10 @@
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
       <c r="C18" s="80"/>
-      <c r="D18" s="219" t="s">
+      <c r="D18" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="219"/>
+      <c r="E18" s="265"/>
       <c r="F18" s="110" t="s">
         <v>101</v>
       </c>
@@ -13172,10 +13340,10 @@
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
       <c r="C22" s="80"/>
-      <c r="D22" s="219" t="s">
+      <c r="D22" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="219"/>
+      <c r="E22" s="265"/>
       <c r="F22" s="110" t="s">
         <v>101</v>
       </c>
@@ -13242,10 +13410,10 @@
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
       <c r="C25" s="80"/>
-      <c r="D25" s="219" t="s">
+      <c r="D25" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="219"/>
+      <c r="E25" s="265"/>
       <c r="F25" s="110" t="s">
         <v>101</v>
       </c>
@@ -13313,10 +13481,10 @@
       <c r="A28" s="78"/>
       <c r="B28" s="136"/>
       <c r="C28" s="137"/>
-      <c r="D28" s="219" t="s">
+      <c r="D28" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="219"/>
+      <c r="E28" s="265"/>
       <c r="F28" s="128" t="s">
         <v>101</v>
       </c>
@@ -13347,10 +13515,10 @@
       <c r="A29" s="78"/>
       <c r="B29" s="132"/>
       <c r="C29" s="133"/>
-      <c r="D29" s="219" t="s">
+      <c r="D29" s="265" t="s">
         <v>226</v>
       </c>
-      <c r="E29" s="219"/>
+      <c r="E29" s="265"/>
       <c r="F29" s="128"/>
       <c r="G29" s="128"/>
       <c r="H29" s="128"/>
@@ -13657,11 +13825,11 @@
       <c r="A44" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="302" t="s">
+      <c r="B44" s="303" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="303"/>
-      <c r="D44" s="304"/>
+      <c r="C44" s="304"/>
+      <c r="D44" s="305"/>
       <c r="E44" s="191"/>
       <c r="F44" s="108" t="s">
         <v>53</v>
@@ -13693,11 +13861,11 @@
     </row>
     <row r="45" spans="1:14" ht="11.25" customHeight="1">
       <c r="A45" s="95"/>
-      <c r="B45" s="299" t="s">
+      <c r="B45" s="300" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="300"/>
-      <c r="D45" s="301"/>
+      <c r="C45" s="301"/>
+      <c r="D45" s="302"/>
       <c r="E45" s="109"/>
       <c r="F45" s="110" t="s">
         <v>91</v>
@@ -13729,11 +13897,11 @@
     </row>
     <row r="46" spans="1:14" ht="52.2">
       <c r="A46" s="95"/>
-      <c r="B46" s="296" t="s">
+      <c r="B46" s="297" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="297"/>
-      <c r="D46" s="298"/>
+      <c r="C46" s="298"/>
+      <c r="D46" s="299"/>
       <c r="E46" s="111"/>
       <c r="F46" s="112">
         <v>43468</v>
@@ -13765,11 +13933,11 @@
     </row>
     <row r="47" spans="1:14" ht="15" thickBot="1">
       <c r="A47" s="113"/>
-      <c r="B47" s="293" t="s">
+      <c r="B47" s="294" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="294"/>
-      <c r="D47" s="295"/>
+      <c r="C47" s="295"/>
+      <c r="D47" s="296"/>
       <c r="E47" s="114"/>
       <c r="F47" s="115"/>
       <c r="G47" s="115"/>
@@ -13784,13 +13952,15 @@
     <row r="48" spans="1:14" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:E5"/>
@@ -13807,15 +13977,13 @@
     <mergeCell ref="L1:T1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <dataValidations count="3">
@@ -13867,58 +14035,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="290" t="str">
+      <c r="B1" s="221"/>
+      <c r="C1" s="291" t="str">
         <f>FunctionList!E16</f>
         <v>FN06</v>
       </c>
-      <c r="D1" s="278"/>
+      <c r="D1" s="277"/>
       <c r="E1" s="118"/>
-      <c r="F1" s="253" t="s">
+      <c r="F1" s="222" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="254" t="str">
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="222"/>
+      <c r="L1" s="223" t="str">
         <f>FunctionList!D16</f>
         <v>Kích hoạt tài khoản</v>
       </c>
-      <c r="M1" s="255"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="255"/>
-      <c r="P1" s="255"/>
-      <c r="Q1" s="255"/>
-      <c r="R1" s="255"/>
-      <c r="S1" s="255"/>
-      <c r="T1" s="272"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="224"/>
+      <c r="O1" s="224"/>
+      <c r="P1" s="224"/>
+      <c r="Q1" s="224"/>
+      <c r="R1" s="224"/>
+      <c r="S1" s="224"/>
+      <c r="T1" s="271"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="224" t="s">
+      <c r="A2" s="253" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="225"/>
-      <c r="C2" s="287" t="s">
+      <c r="B2" s="254"/>
+      <c r="C2" s="288" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="288"/>
-      <c r="E2" s="289"/>
-      <c r="F2" s="281" t="s">
+      <c r="D2" s="289"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="282" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="282"/>
-      <c r="H2" s="282"/>
-      <c r="I2" s="282"/>
-      <c r="J2" s="282"/>
-      <c r="K2" s="283"/>
-      <c r="L2" s="288"/>
-      <c r="M2" s="288"/>
-      <c r="N2" s="288"/>
+      <c r="G2" s="283"/>
+      <c r="H2" s="283"/>
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
+      <c r="K2" s="284"/>
+      <c r="L2" s="289"/>
+      <c r="M2" s="289"/>
+      <c r="N2" s="289"/>
       <c r="O2" s="63"/>
       <c r="P2" s="63"/>
       <c r="Q2" s="63"/>
@@ -13927,113 +14095,113 @@
       <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="224" t="s">
+      <c r="A3" s="253" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="225"/>
-      <c r="C3" s="291">
+      <c r="B3" s="254"/>
+      <c r="C3" s="292">
         <v>100</v>
       </c>
-      <c r="D3" s="292"/>
+      <c r="D3" s="293"/>
       <c r="E3" s="65"/>
-      <c r="F3" s="281" t="s">
+      <c r="F3" s="282" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="282"/>
-      <c r="H3" s="282"/>
-      <c r="I3" s="282"/>
-      <c r="J3" s="282"/>
-      <c r="K3" s="283"/>
-      <c r="L3" s="284">
+      <c r="G3" s="283"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="283"/>
+      <c r="J3" s="283"/>
+      <c r="K3" s="284"/>
+      <c r="L3" s="285">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C3*FunctionList!E6/1000,- O6),"N/A")</f>
         <v>5</v>
       </c>
-      <c r="M3" s="285"/>
-      <c r="N3" s="285"/>
-      <c r="O3" s="285"/>
-      <c r="P3" s="285"/>
-      <c r="Q3" s="285"/>
-      <c r="R3" s="285"/>
-      <c r="S3" s="285"/>
-      <c r="T3" s="286"/>
+      <c r="M3" s="286"/>
+      <c r="N3" s="286"/>
+      <c r="O3" s="286"/>
+      <c r="P3" s="286"/>
+      <c r="Q3" s="286"/>
+      <c r="R3" s="286"/>
+      <c r="S3" s="286"/>
+      <c r="T3" s="287"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="224" t="s">
+      <c r="A4" s="253" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="225"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="235"/>
-      <c r="G4" s="235"/>
-      <c r="H4" s="235"/>
-      <c r="I4" s="235"/>
-      <c r="J4" s="235"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="234"/>
-      <c r="M4" s="234"/>
-      <c r="N4" s="234"/>
-      <c r="O4" s="234"/>
-      <c r="P4" s="234"/>
-      <c r="Q4" s="234"/>
-      <c r="R4" s="234"/>
-      <c r="S4" s="234"/>
-      <c r="T4" s="234"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
+      <c r="F4" s="264"/>
+      <c r="G4" s="264"/>
+      <c r="H4" s="264"/>
+      <c r="I4" s="264"/>
+      <c r="J4" s="264"/>
+      <c r="K4" s="264"/>
+      <c r="L4" s="263"/>
+      <c r="M4" s="263"/>
+      <c r="N4" s="263"/>
+      <c r="O4" s="263"/>
+      <c r="P4" s="263"/>
+      <c r="Q4" s="263"/>
+      <c r="R4" s="263"/>
+      <c r="S4" s="263"/>
+      <c r="T4" s="263"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="246" t="s">
+      <c r="A5" s="248" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="248" t="s">
+      <c r="B5" s="249"/>
+      <c r="C5" s="250" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="237"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="248" t="s">
+      <c r="D5" s="239"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="250" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
-      <c r="I5" s="237"/>
-      <c r="J5" s="237"/>
-      <c r="K5" s="250"/>
-      <c r="L5" s="237" t="s">
+      <c r="G5" s="239"/>
+      <c r="H5" s="239"/>
+      <c r="I5" s="239"/>
+      <c r="J5" s="239"/>
+      <c r="K5" s="252"/>
+      <c r="L5" s="239" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="237"/>
-      <c r="N5" s="237"/>
-      <c r="O5" s="236" t="s">
+      <c r="M5" s="239"/>
+      <c r="N5" s="239"/>
+      <c r="O5" s="238" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="237"/>
-      <c r="Q5" s="237"/>
-      <c r="R5" s="237"/>
-      <c r="S5" s="237"/>
-      <c r="T5" s="238"/>
+      <c r="P5" s="239"/>
+      <c r="Q5" s="239"/>
+      <c r="R5" s="239"/>
+      <c r="S5" s="239"/>
+      <c r="T5" s="240"/>
     </row>
     <row r="6" spans="1:20" ht="15" thickBot="1">
-      <c r="A6" s="239">
+      <c r="A6" s="241">
         <f>COUNTIF(F43:HF43,"P")</f>
         <v>5</v>
       </c>
-      <c r="B6" s="240"/>
-      <c r="C6" s="241">
+      <c r="B6" s="242"/>
+      <c r="C6" s="243">
         <f>COUNTIF(F43:HF43,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="241">
+      <c r="D6" s="244"/>
+      <c r="E6" s="242"/>
+      <c r="F6" s="243">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="242"/>
-      <c r="H6" s="242"/>
-      <c r="I6" s="242"/>
-      <c r="J6" s="242"/>
-      <c r="K6" s="243"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="244"/>
+      <c r="K6" s="245"/>
       <c r="L6" s="66">
         <f>COUNTIF(E42:HF42,"N")</f>
         <v>5</v>
@@ -14046,15 +14214,15 @@
         <f>COUNTIF(E42:HF42,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="244">
+      <c r="O6" s="246">
         <f>COUNTA(E8:HI8)</f>
         <v>5</v>
       </c>
-      <c r="P6" s="242"/>
-      <c r="Q6" s="242"/>
-      <c r="R6" s="242"/>
-      <c r="S6" s="242"/>
-      <c r="T6" s="245"/>
+      <c r="P6" s="244"/>
+      <c r="Q6" s="244"/>
+      <c r="R6" s="244"/>
+      <c r="S6" s="244"/>
+      <c r="T6" s="247"/>
     </row>
     <row r="7" spans="1:20" ht="15" thickBot="1"/>
     <row r="8" spans="1:20" ht="37.200000000000003" thickTop="1" thickBot="1">
@@ -14203,10 +14371,10 @@
       <c r="A17" s="78"/>
       <c r="B17" s="79"/>
       <c r="C17" s="80"/>
-      <c r="D17" s="219" t="s">
+      <c r="D17" s="265" t="s">
         <v>116</v>
       </c>
-      <c r="E17" s="219"/>
+      <c r="E17" s="265"/>
       <c r="F17" s="127" t="s">
         <v>101</v>
       </c>
@@ -14603,11 +14771,11 @@
       <c r="A42" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="220" t="s">
+      <c r="B42" s="266" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="220"/>
-      <c r="D42" s="220"/>
+      <c r="C42" s="266"/>
+      <c r="D42" s="266"/>
       <c r="E42" s="107"/>
       <c r="F42" s="108" t="s">
         <v>53</v>
@@ -14627,11 +14795,11 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="95"/>
-      <c r="B43" s="221" t="s">
+      <c r="B43" s="267" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="221"/>
-      <c r="D43" s="221"/>
+      <c r="C43" s="267"/>
+      <c r="D43" s="267"/>
       <c r="E43" s="109"/>
       <c r="F43" s="110" t="s">
         <v>91</v>
@@ -14651,11 +14819,11 @@
     </row>
     <row r="44" spans="1:10" ht="13.5" customHeight="1">
       <c r="A44" s="95"/>
-      <c r="B44" s="222" t="s">
+      <c r="B44" s="268" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="222"/>
-      <c r="D44" s="222"/>
+      <c r="C44" s="268"/>
+      <c r="D44" s="268"/>
       <c r="E44" s="111"/>
       <c r="F44" s="112">
         <v>43468</v>
@@ -14675,11 +14843,11 @@
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1">
       <c r="A45" s="113"/>
-      <c r="B45" s="223" t="s">
+      <c r="B45" s="269" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="223"/>
-      <c r="D45" s="223"/>
+      <c r="C45" s="269"/>
+      <c r="D45" s="269"/>
       <c r="E45" s="114"/>
       <c r="F45" s="115"/>
       <c r="G45" s="115"/>
@@ -14690,13 +14858,11 @@
     <row r="46" spans="1:10" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:E5"/>
@@ -14713,11 +14879,13 @@
     <mergeCell ref="L1:T1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <dataValidations count="3">
@@ -14766,56 +14934,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="273" t="str">
+      <c r="B1" s="221"/>
+      <c r="C1" s="272" t="str">
         <f>FunctionList!E15</f>
         <v>FN05</v>
       </c>
-      <c r="D1" s="274"/>
+      <c r="D1" s="273"/>
       <c r="E1" s="118"/>
-      <c r="F1" s="253" t="s">
+      <c r="F1" s="222" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="254" t="str">
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="223" t="str">
         <f>FunctionList!D15</f>
         <v>Tìm kiếm tài khoản</v>
       </c>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="255"/>
-      <c r="P1" s="255"/>
-      <c r="Q1" s="255"/>
-      <c r="R1" s="272"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="224"/>
+      <c r="O1" s="224"/>
+      <c r="P1" s="224"/>
+      <c r="Q1" s="224"/>
+      <c r="R1" s="271"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="224" t="s">
+      <c r="A2" s="253" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="225"/>
-      <c r="C2" s="305" t="s">
+      <c r="B2" s="254"/>
+      <c r="C2" s="306" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="306"/>
-      <c r="E2" s="307"/>
-      <c r="F2" s="281" t="s">
+      <c r="D2" s="307"/>
+      <c r="E2" s="308"/>
+      <c r="F2" s="282" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="282"/>
-      <c r="H2" s="282"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="288" t="s">
+      <c r="G2" s="283"/>
+      <c r="H2" s="283"/>
+      <c r="I2" s="284"/>
+      <c r="J2" s="289" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="288"/>
-      <c r="L2" s="288"/>
+      <c r="K2" s="289"/>
+      <c r="L2" s="289"/>
       <c r="M2" s="63"/>
       <c r="N2" s="63"/>
       <c r="O2" s="63"/>
@@ -14824,105 +14992,105 @@
       <c r="R2" s="64"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="224" t="s">
+      <c r="A3" s="253" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="225"/>
-      <c r="C3" s="226">
+      <c r="B3" s="254"/>
+      <c r="C3" s="255">
         <v>100</v>
       </c>
-      <c r="D3" s="227"/>
+      <c r="D3" s="256"/>
       <c r="E3" s="117"/>
-      <c r="F3" s="281" t="s">
+      <c r="F3" s="282" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="282"/>
-      <c r="H3" s="282"/>
-      <c r="I3" s="283"/>
-      <c r="J3" s="284">
+      <c r="G3" s="283"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="284"/>
+      <c r="J3" s="285">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C3*FunctionList!E6/1000,- M6),"N/A")</f>
         <v>8</v>
       </c>
-      <c r="K3" s="285"/>
-      <c r="L3" s="285"/>
-      <c r="M3" s="285"/>
-      <c r="N3" s="285"/>
-      <c r="O3" s="285"/>
-      <c r="P3" s="285"/>
-      <c r="Q3" s="285"/>
-      <c r="R3" s="286"/>
+      <c r="K3" s="286"/>
+      <c r="L3" s="286"/>
+      <c r="M3" s="286"/>
+      <c r="N3" s="286"/>
+      <c r="O3" s="286"/>
+      <c r="P3" s="286"/>
+      <c r="Q3" s="286"/>
+      <c r="R3" s="287"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="224" t="s">
+      <c r="A4" s="253" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="225"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="235"/>
-      <c r="G4" s="235"/>
-      <c r="H4" s="235"/>
-      <c r="I4" s="235"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="234"/>
-      <c r="L4" s="234"/>
-      <c r="M4" s="234"/>
-      <c r="N4" s="234"/>
-      <c r="O4" s="234"/>
-      <c r="P4" s="234"/>
-      <c r="Q4" s="234"/>
-      <c r="R4" s="234"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
+      <c r="F4" s="264"/>
+      <c r="G4" s="264"/>
+      <c r="H4" s="264"/>
+      <c r="I4" s="264"/>
+      <c r="J4" s="263"/>
+      <c r="K4" s="263"/>
+      <c r="L4" s="263"/>
+      <c r="M4" s="263"/>
+      <c r="N4" s="263"/>
+      <c r="O4" s="263"/>
+      <c r="P4" s="263"/>
+      <c r="Q4" s="263"/>
+      <c r="R4" s="263"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="246" t="s">
+      <c r="A5" s="248" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="247"/>
-      <c r="C5" s="248" t="s">
+      <c r="B5" s="249"/>
+      <c r="C5" s="250" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="237"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="248" t="s">
+      <c r="D5" s="239"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="250" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
-      <c r="I5" s="250"/>
-      <c r="J5" s="237" t="s">
+      <c r="G5" s="239"/>
+      <c r="H5" s="239"/>
+      <c r="I5" s="252"/>
+      <c r="J5" s="239" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="237"/>
-      <c r="L5" s="237"/>
-      <c r="M5" s="236" t="s">
+      <c r="K5" s="239"/>
+      <c r="L5" s="239"/>
+      <c r="M5" s="238" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="237"/>
-      <c r="O5" s="237"/>
-      <c r="P5" s="237"/>
-      <c r="Q5" s="237"/>
-      <c r="R5" s="238"/>
+      <c r="N5" s="239"/>
+      <c r="O5" s="239"/>
+      <c r="P5" s="239"/>
+      <c r="Q5" s="239"/>
+      <c r="R5" s="240"/>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1">
-      <c r="A6" s="239">
+      <c r="A6" s="241">
         <f>COUNTIF(F29:HD29,"P")</f>
         <v>2</v>
       </c>
-      <c r="B6" s="240"/>
-      <c r="C6" s="241">
+      <c r="B6" s="242"/>
+      <c r="C6" s="243">
         <f>COUNTIF(F29:HD29,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="241">
+      <c r="D6" s="244"/>
+      <c r="E6" s="242"/>
+      <c r="F6" s="243">
         <f>SUM(M6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="242"/>
-      <c r="H6" s="242"/>
-      <c r="I6" s="243"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="245"/>
       <c r="J6" s="66">
         <f>COUNTIF(E28:HD28,"N")</f>
         <v>2</v>
@@ -14935,15 +15103,15 @@
         <f>COUNTIF(E28:HD28,"B")</f>
         <v>0</v>
       </c>
-      <c r="M6" s="244">
+      <c r="M6" s="246">
         <f>COUNTA(E8:HG8)</f>
         <v>2</v>
       </c>
-      <c r="N6" s="242"/>
-      <c r="O6" s="242"/>
-      <c r="P6" s="242"/>
-      <c r="Q6" s="242"/>
-      <c r="R6" s="245"/>
+      <c r="N6" s="244"/>
+      <c r="O6" s="244"/>
+      <c r="P6" s="244"/>
+      <c r="Q6" s="244"/>
+      <c r="R6" s="247"/>
     </row>
     <row r="7" spans="1:18" ht="15" thickBot="1"/>
     <row r="8" spans="1:18" ht="37.200000000000003" thickTop="1" thickBot="1">
@@ -15174,11 +15342,11 @@
       <c r="A28" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="220" t="s">
+      <c r="B28" s="266" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="220"/>
-      <c r="D28" s="220"/>
+      <c r="C28" s="266"/>
+      <c r="D28" s="266"/>
       <c r="E28" s="107"/>
       <c r="F28" s="108" t="s">
         <v>53</v>
@@ -15189,11 +15357,11 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="95"/>
-      <c r="B29" s="221" t="s">
+      <c r="B29" s="267" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="221"/>
-      <c r="D29" s="221"/>
+      <c r="C29" s="267"/>
+      <c r="D29" s="267"/>
       <c r="E29" s="109"/>
       <c r="F29" s="110" t="s">
         <v>91</v>
@@ -15204,11 +15372,11 @@
     </row>
     <row r="30" spans="1:7" ht="13.5" customHeight="1">
       <c r="A30" s="95"/>
-      <c r="B30" s="222" t="s">
+      <c r="B30" s="268" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="222"/>
-      <c r="D30" s="222"/>
+      <c r="C30" s="268"/>
+      <c r="D30" s="268"/>
       <c r="E30" s="111"/>
       <c r="F30" s="112">
         <v>43468</v>
@@ -15219,11 +15387,11 @@
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1">
       <c r="A31" s="113"/>
-      <c r="B31" s="223" t="s">
+      <c r="B31" s="269" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="223"/>
-      <c r="D31" s="223"/>
+      <c r="C31" s="269"/>
+      <c r="D31" s="269"/>
       <c r="E31" s="114"/>
       <c r="F31" s="115"/>
       <c r="G31" s="115"/>
@@ -15231,6 +15399,17 @@
     <row r="32" spans="1:7" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="M6:R6"/>
     <mergeCell ref="F1:I1"/>
@@ -15247,17 +15426,6 @@
     <mergeCell ref="J3:R3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:R4"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F28:G28" xr:uid="{E516B88F-32AA-4A5A-9BBC-7EC121A05672}">

--- a/Testcase/03-Testcase-1.xlsx
+++ b/Testcase/03-Testcase-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SE\HKI VII\tesing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A31FA8-32FF-447A-B820-CBFDAA9E5817}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7188ACA-42F4-496E-BC74-745E3126AD41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="794" firstSheet="4" activeTab="9" xr2:uid="{DF3F47F0-DBD9-4663-B187-A3CC9925D78A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="794" firstSheet="6" activeTab="10" xr2:uid="{DF3F47F0-DBD9-4663-B187-A3CC9925D78A}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,10 @@
     <sheet name="EditAccount" sheetId="10" r:id="rId8"/>
     <sheet name="ActivateAccount" sheetId="9" r:id="rId9"/>
     <sheet name="AddNewMerchandise" sheetId="15" r:id="rId10"/>
-    <sheet name="AlterAward&amp;Punishment" sheetId="12" r:id="rId11"/>
-    <sheet name="CalculateSalary" sheetId="13" r:id="rId12"/>
-    <sheet name="FindMerchandise" sheetId="16" r:id="rId13"/>
+    <sheet name="EditMerchandise" sheetId="18" r:id="rId11"/>
+    <sheet name="FindMerchandise" sheetId="16" r:id="rId12"/>
+    <sheet name="AlterAward&amp;Punishment" sheetId="12" r:id="rId13"/>
+    <sheet name="CalculateSalary" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -123,7 +124,7 @@
     <author>ANa</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{B2C60FFB-26B6-4F53-9107-42ED189B5047}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{9479B63B-4B72-4F76-9C54-8C6DDBD2E963}">
       <text>
         <r>
           <rPr>
@@ -137,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="1" shapeId="0" xr:uid="{901E2B6C-D10B-46FB-B7E8-252276215574}">
+    <comment ref="C9" authorId="1" shapeId="0" xr:uid="{034D9155-B74F-4B9B-B201-7986EEE2861A}">
       <text>
         <r>
           <rPr>
@@ -161,7 +162,7 @@
     <author>ANa</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{9479B63B-4B72-4F76-9C54-8C6DDBD2E963}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{87819115-50B2-42D7-9BEC-D3914F1F64B4}">
       <text>
         <r>
           <rPr>
@@ -175,7 +176,45 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="1" shapeId="0" xr:uid="{034D9155-B74F-4B9B-B201-7986EEE2861A}">
+    <comment ref="C9" authorId="1" shapeId="0" xr:uid="{3AFC1648-CDC3-4DBB-BE24-5077AC4B0C74}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Not mandatory</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Nguyen Hoang Anh</author>
+    <author>ANa</author>
+  </authors>
+  <commentList>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{B2C60FFB-26B6-4F53-9107-42ED189B5047}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Not mandatory
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="1" shapeId="0" xr:uid="{901E2B6C-D10B-46FB-B7E8-252276215574}">
       <text>
         <r>
           <rPr>
@@ -465,7 +504,7 @@
     <author>ANa</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{87819115-50B2-42D7-9BEC-D3914F1F64B4}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{F3A6BEEE-CEBF-44EC-A5E2-F8A792AE9E58}">
       <text>
         <r>
           <rPr>
@@ -479,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="1" shapeId="0" xr:uid="{3AFC1648-CDC3-4DBB-BE24-5077AC4B0C74}">
+    <comment ref="C9" authorId="1" shapeId="0" xr:uid="{FB6B0428-0089-4DC5-9823-2B0E947D50BB}">
       <text>
         <r>
           <rPr>
@@ -497,7 +536,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="297">
   <si>
     <t>UNIT TEST CASE</t>
   </si>
@@ -1365,6 +1404,30 @@
   </si>
   <si>
     <t>"The field Mô tả must be a string with a maximum length of 500"</t>
+  </si>
+  <si>
+    <t>"Edit mô tả"</t>
+  </si>
+  <si>
+    <t>"100"</t>
+  </si>
+  <si>
+    <t>"The Số lượng field is required"</t>
+  </si>
+  <si>
+    <t>"SamSung"</t>
+  </si>
+  <si>
+    <t>"/Img2.png"</t>
+  </si>
+  <si>
+    <t>"/img3.png"</t>
+  </si>
+  <si>
+    <t>"san pham abc"</t>
+  </si>
+  <si>
+    <t>"456"</t>
   </si>
 </sst>
 </file>
@@ -2994,7 +3057,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="314">
+  <cellXfs count="325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3491,6 +3554,39 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4571,13 +4667,13 @@
   <sheetData>
     <row r="2" spans="1:6" ht="31.8">
       <c r="A2" s="1"/>
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="206" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
@@ -4591,11 +4687,11 @@
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="196" t="s">
+      <c r="B4" s="207" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="196"/>
-      <c r="D4" s="196"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
       <c r="E4" s="6" t="s">
         <v>2</v>
       </c>
@@ -4607,26 +4703,26 @@
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="196" t="s">
+      <c r="B5" s="207" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="207"/>
       <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="197" t="s">
+      <c r="A6" s="208" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="198" t="str">
+      <c r="B6" s="209" t="str">
         <f>B5&amp;"_"&amp;"2019"&amp;"_"&amp;"v1.0"</f>
         <v>SE108_2019_v1.0</v>
       </c>
-      <c r="C6" s="198"/>
-      <c r="D6" s="198"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="209"/>
       <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
@@ -4635,10 +4731,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="197"/>
-      <c r="B7" s="198"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="198"/>
+      <c r="A7" s="208"/>
+      <c r="B7" s="209"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
       <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
@@ -4773,8 +4869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0780C922-9BBF-4508-97E6-886C6C3CD92D}">
   <dimension ref="A1:U77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N76" sqref="N76"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4801,61 +4897,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="231" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="234" t="str">
+      <c r="B1" s="232"/>
+      <c r="C1" s="245" t="str">
         <f>FunctionList!E14</f>
         <v>FN04</v>
       </c>
-      <c r="D1" s="235"/>
+      <c r="D1" s="246"/>
       <c r="E1" s="118"/>
-      <c r="F1" s="222" t="s">
+      <c r="F1" s="233" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="222"/>
-      <c r="L1" s="223" t="str">
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="234" t="str">
         <f>FunctionList!D14</f>
         <v>Sửa tài khoản</v>
       </c>
-      <c r="M1" s="224"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="224"/>
-      <c r="P1" s="224"/>
-      <c r="Q1" s="224"/>
-      <c r="R1" s="224"/>
-      <c r="S1" s="224"/>
-      <c r="T1" s="225"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="235"/>
+      <c r="O1" s="235"/>
+      <c r="P1" s="235"/>
+      <c r="Q1" s="235"/>
+      <c r="R1" s="235"/>
+      <c r="S1" s="235"/>
+      <c r="T1" s="236"/>
       <c r="U1" s="119"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="264" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="254"/>
-      <c r="C2" s="288" t="s">
+      <c r="B2" s="265"/>
+      <c r="C2" s="299" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="289"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="282" t="s">
+      <c r="D2" s="300"/>
+      <c r="E2" s="301"/>
+      <c r="F2" s="293" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="283"/>
-      <c r="H2" s="283"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="283"/>
-      <c r="K2" s="284"/>
-      <c r="L2" s="289" t="s">
+      <c r="G2" s="294"/>
+      <c r="H2" s="294"/>
+      <c r="I2" s="294"/>
+      <c r="J2" s="294"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="300" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="289"/>
-      <c r="N2" s="289"/>
+      <c r="M2" s="300"/>
+      <c r="N2" s="300"/>
       <c r="O2" s="63"/>
       <c r="P2" s="63"/>
       <c r="Q2" s="63"/>
@@ -4864,113 +4960,113 @@
       <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="264" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="254"/>
-      <c r="C3" s="292">
+      <c r="B3" s="265"/>
+      <c r="C3" s="303">
         <v>100</v>
       </c>
-      <c r="D3" s="293"/>
+      <c r="D3" s="304"/>
       <c r="E3" s="65"/>
-      <c r="F3" s="282" t="s">
+      <c r="F3" s="293" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="283"/>
-      <c r="H3" s="283"/>
-      <c r="I3" s="283"/>
-      <c r="J3" s="283"/>
-      <c r="K3" s="284"/>
-      <c r="L3" s="285">
+      <c r="G3" s="294"/>
+      <c r="H3" s="294"/>
+      <c r="I3" s="294"/>
+      <c r="J3" s="294"/>
+      <c r="K3" s="295"/>
+      <c r="L3" s="296">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C3*FunctionList!E6/1000,- O6),"N/A")</f>
         <v>1</v>
       </c>
-      <c r="M3" s="286"/>
-      <c r="N3" s="286"/>
-      <c r="O3" s="286"/>
-      <c r="P3" s="286"/>
-      <c r="Q3" s="286"/>
-      <c r="R3" s="286"/>
-      <c r="S3" s="286"/>
-      <c r="T3" s="287"/>
+      <c r="M3" s="297"/>
+      <c r="N3" s="297"/>
+      <c r="O3" s="297"/>
+      <c r="P3" s="297"/>
+      <c r="Q3" s="297"/>
+      <c r="R3" s="297"/>
+      <c r="S3" s="297"/>
+      <c r="T3" s="298"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="253" t="s">
+      <c r="A4" s="264" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="263"/>
-      <c r="D4" s="263"/>
-      <c r="E4" s="263"/>
-      <c r="F4" s="264"/>
-      <c r="G4" s="264"/>
-      <c r="H4" s="264"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="264"/>
-      <c r="K4" s="264"/>
-      <c r="L4" s="263"/>
-      <c r="M4" s="263"/>
-      <c r="N4" s="263"/>
-      <c r="O4" s="263"/>
-      <c r="P4" s="263"/>
-      <c r="Q4" s="263"/>
-      <c r="R4" s="263"/>
-      <c r="S4" s="263"/>
-      <c r="T4" s="263"/>
+      <c r="B4" s="265"/>
+      <c r="C4" s="274"/>
+      <c r="D4" s="274"/>
+      <c r="E4" s="274"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="275"/>
+      <c r="J4" s="275"/>
+      <c r="K4" s="275"/>
+      <c r="L4" s="274"/>
+      <c r="M4" s="274"/>
+      <c r="N4" s="274"/>
+      <c r="O4" s="274"/>
+      <c r="P4" s="274"/>
+      <c r="Q4" s="274"/>
+      <c r="R4" s="274"/>
+      <c r="S4" s="274"/>
+      <c r="T4" s="274"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="259" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="249"/>
-      <c r="C5" s="250" t="s">
+      <c r="B5" s="260"/>
+      <c r="C5" s="261" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="250" t="s">
+      <c r="D5" s="250"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="261" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="239"/>
-      <c r="H5" s="239"/>
-      <c r="I5" s="239"/>
-      <c r="J5" s="239"/>
-      <c r="K5" s="252"/>
-      <c r="L5" s="239" t="s">
+      <c r="G5" s="250"/>
+      <c r="H5" s="250"/>
+      <c r="I5" s="250"/>
+      <c r="J5" s="250"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="250" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="238" t="s">
+      <c r="M5" s="250"/>
+      <c r="N5" s="250"/>
+      <c r="O5" s="249" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="239"/>
-      <c r="Q5" s="239"/>
-      <c r="R5" s="239"/>
-      <c r="S5" s="239"/>
-      <c r="T5" s="240"/>
+      <c r="P5" s="250"/>
+      <c r="Q5" s="250"/>
+      <c r="R5" s="250"/>
+      <c r="S5" s="250"/>
+      <c r="T5" s="251"/>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1">
-      <c r="A6" s="241">
+      <c r="A6" s="252">
         <f>COUNTIF(F68:HJ68,"P")</f>
         <v>0</v>
       </c>
-      <c r="B6" s="242"/>
-      <c r="C6" s="243">
+      <c r="B6" s="253"/>
+      <c r="C6" s="254">
         <f>COUNTIF(F68:HJ68,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="244"/>
-      <c r="E6" s="242"/>
-      <c r="F6" s="243">
+      <c r="D6" s="255"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="254">
         <f>SUM(O6,- A6,- C6)</f>
         <v>9</v>
       </c>
-      <c r="G6" s="244"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="244"/>
-      <c r="J6" s="244"/>
-      <c r="K6" s="245"/>
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="255"/>
+      <c r="J6" s="255"/>
+      <c r="K6" s="256"/>
       <c r="L6" s="66">
         <f>COUNTIF(E66:HJ66,"N")</f>
         <v>0</v>
@@ -4983,15 +5079,15 @@
         <f>COUNTIF(E66:HJ66,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="246">
+      <c r="O6" s="257">
         <f>COUNTA(E8:HM8)</f>
         <v>9</v>
       </c>
-      <c r="P6" s="244"/>
-      <c r="Q6" s="244"/>
-      <c r="R6" s="244"/>
-      <c r="S6" s="244"/>
-      <c r="T6" s="247"/>
+      <c r="P6" s="255"/>
+      <c r="Q6" s="255"/>
+      <c r="R6" s="255"/>
+      <c r="S6" s="255"/>
+      <c r="T6" s="258"/>
     </row>
     <row r="7" spans="1:21" ht="15" thickBot="1"/>
     <row r="8" spans="1:21" ht="37.200000000000003" thickTop="1" thickBot="1">
@@ -5210,10 +5306,10 @@
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
       <c r="C18" s="80"/>
-      <c r="D18" s="265" t="s">
+      <c r="D18" s="276" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="265"/>
+      <c r="E18" s="276"/>
       <c r="F18" s="110" t="s">
         <v>101</v>
       </c>
@@ -5299,10 +5395,10 @@
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
       <c r="C22" s="80"/>
-      <c r="D22" s="265" t="s">
+      <c r="D22" s="276" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="309"/>
+      <c r="E22" s="320"/>
       <c r="F22" s="110" t="s">
         <v>101</v>
       </c>
@@ -5371,10 +5467,10 @@
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
       <c r="C25" s="80"/>
-      <c r="D25" s="265" t="s">
+      <c r="D25" s="276" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="265"/>
+      <c r="E25" s="276"/>
       <c r="F25" s="110" t="s">
         <v>101</v>
       </c>
@@ -6126,16 +6222,22 @@
       <c r="A58" s="95"/>
       <c r="B58" s="96"/>
       <c r="C58" s="100"/>
-      <c r="D58" s="98"/>
-      <c r="E58" s="99"/>
+      <c r="D58" s="98" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" s="101"/>
       <c r="F58" s="110"/>
       <c r="G58" s="110"/>
       <c r="H58" s="110"/>
       <c r="I58" s="110"/>
       <c r="J58" s="110"/>
       <c r="K58" s="110"/>
-      <c r="L58" s="110"/>
-      <c r="M58" s="110"/>
+      <c r="L58" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="M58" s="110" t="s">
+        <v>101</v>
+      </c>
       <c r="N58" s="110"/>
     </row>
     <row r="59" spans="1:14">
@@ -6428,12 +6530,12 @@
       <c r="G72" s="128" t="s">
         <v>101</v>
       </c>
-      <c r="H72" s="194"/>
-      <c r="I72" s="194"/>
-      <c r="J72" s="194"/>
-      <c r="K72" s="194"/>
-      <c r="L72" s="194"/>
-      <c r="M72" s="194"/>
+      <c r="H72" s="205"/>
+      <c r="I72" s="205"/>
+      <c r="J72" s="205"/>
+      <c r="K72" s="205"/>
+      <c r="L72" s="205"/>
+      <c r="M72" s="205"/>
       <c r="N72" s="128" t="s">
         <v>101</v>
       </c>
@@ -6597,7 +6699,7 @@
     <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I18 F18:H19 M9:M19 F9:L17 J18:L19 F20:M72 N9:N72" xr:uid="{F5D02F7C-4E5B-408B-A811-49F480D78479}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I18 F18:H19 M9:M19 F9:L17 J18:L19 N9:N72 F20:M72" xr:uid="{F5D02F7C-4E5B-408B-A811-49F480D78479}">
       <formula1>"O, "</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F74:N74" xr:uid="{D5D9A2BB-E709-440D-A0DF-7FB39E53300F}">
@@ -6614,6 +6716,2154 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B58DD7-DF61-434E-B1F4-345EEB1D4501}">
+  <dimension ref="A1:P77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" customWidth="1"/>
+    <col min="8" max="8" width="4.88671875" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" customWidth="1"/>
+    <col min="10" max="10" width="4.5546875" customWidth="1"/>
+    <col min="11" max="11" width="4.109375" customWidth="1"/>
+    <col min="12" max="13" width="3.88671875" customWidth="1"/>
+    <col min="14" max="14" width="3.33203125" customWidth="1"/>
+    <col min="15" max="15" width="3.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="231" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="232"/>
+      <c r="C1" s="245" t="str">
+        <f>FunctionList!E14</f>
+        <v>FN04</v>
+      </c>
+      <c r="D1" s="246"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="233" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="235"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="119"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="264" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="265"/>
+      <c r="C2" s="299" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="300"/>
+      <c r="E2" s="301"/>
+      <c r="F2" s="293" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="294"/>
+      <c r="H2" s="294"/>
+      <c r="I2" s="294"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="64"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="264" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="265"/>
+      <c r="C3" s="303">
+        <v>100</v>
+      </c>
+      <c r="D3" s="304"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="293" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="294"/>
+      <c r="H3" s="294"/>
+      <c r="I3" s="294"/>
+      <c r="J3" s="297"/>
+      <c r="K3" s="297"/>
+      <c r="L3" s="297"/>
+      <c r="M3" s="297"/>
+      <c r="N3" s="297"/>
+      <c r="O3" s="298"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="265"/>
+      <c r="C4" s="274"/>
+      <c r="D4" s="274"/>
+      <c r="E4" s="274"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="275"/>
+      <c r="J4" s="274"/>
+      <c r="K4" s="274"/>
+      <c r="L4" s="274"/>
+      <c r="M4" s="274"/>
+      <c r="N4" s="274"/>
+      <c r="O4" s="274"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="259" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="260"/>
+      <c r="C5" s="261" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="250"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="261" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="250"/>
+      <c r="H5" s="250"/>
+      <c r="I5" s="250"/>
+      <c r="J5" s="249" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="250"/>
+      <c r="L5" s="250"/>
+      <c r="M5" s="250"/>
+      <c r="N5" s="250"/>
+      <c r="O5" s="251"/>
+    </row>
+    <row r="6" spans="1:16" ht="15" thickBot="1">
+      <c r="A6" s="252">
+        <f>COUNTIF(F68:HE68,"P")</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="253"/>
+      <c r="C6" s="254">
+        <f>COUNTIF(F68:HE68,"F")</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="255"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="254">
+        <f>SUM(J6,- A6,- C6)</f>
+        <v>4</v>
+      </c>
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="255"/>
+      <c r="J6" s="257">
+        <f>COUNTA(E8:HH8)</f>
+        <v>4</v>
+      </c>
+      <c r="K6" s="255"/>
+      <c r="L6" s="255"/>
+      <c r="M6" s="255"/>
+      <c r="N6" s="255"/>
+      <c r="O6" s="258"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" thickBot="1"/>
+    <row r="8" spans="1:16" ht="37.200000000000003" thickTop="1" thickBot="1">
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.6">
+      <c r="A9" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="76"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="78"/>
+      <c r="B13" s="79" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="78"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="84"/>
+      <c r="F14" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="78"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="E15" s="84"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="78"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81" t="s">
+        <v>295</v>
+      </c>
+      <c r="E16" s="84"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="110" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="78"/>
+      <c r="B17" s="79" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="80"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="78"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="276" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="276"/>
+      <c r="F18" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="78"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="81" t="s">
+        <v>296</v>
+      </c>
+      <c r="E19" s="84"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="110" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="78"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="E20" s="84"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="78"/>
+      <c r="B21" s="79" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" s="80"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="78"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81" t="s">
+        <v>282</v>
+      </c>
+      <c r="E22" s="84"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="I22" s="110" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="78"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="276" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="320"/>
+      <c r="F23" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="78"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81" t="s">
+        <v>276</v>
+      </c>
+      <c r="E24" s="84"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="78"/>
+      <c r="B25" s="79" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="80"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="78"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="276" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="276"/>
+      <c r="F26" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="78"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="134" t="s">
+        <v>292</v>
+      </c>
+      <c r="E27" s="84"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" s="110" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="138"/>
+      <c r="B28" s="79" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="80"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="128"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="138"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="84"/>
+      <c r="F29" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="128"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="128"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="138"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="134" t="s">
+        <v>279</v>
+      </c>
+      <c r="E30" s="84"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="78"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="134" t="s">
+        <v>289</v>
+      </c>
+      <c r="E31" s="84"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31" s="128" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="78"/>
+      <c r="B32" s="132"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="128"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="78"/>
+      <c r="B33" s="132" t="s">
+        <v>261</v>
+      </c>
+      <c r="C33" s="133"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="128"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="78"/>
+      <c r="B34" s="132"/>
+      <c r="C34" s="133"/>
+      <c r="D34" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="84"/>
+      <c r="F34" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" s="128"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="128"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="78"/>
+      <c r="B35" s="132"/>
+      <c r="C35" s="133"/>
+      <c r="D35" s="134" t="s">
+        <v>293</v>
+      </c>
+      <c r="E35" s="84"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="128"/>
+      <c r="H35" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="I35" s="128" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="78"/>
+      <c r="B36" s="132"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="134" t="s">
+        <v>281</v>
+      </c>
+      <c r="E36" s="84"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="78"/>
+      <c r="B37" s="132" t="s">
+        <v>262</v>
+      </c>
+      <c r="C37" s="133"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="128"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="128"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="78"/>
+      <c r="B38" s="132"/>
+      <c r="C38" s="133"/>
+      <c r="D38" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="84"/>
+      <c r="F38" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" s="128"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="128"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="78"/>
+      <c r="B39" s="132"/>
+      <c r="C39" s="133"/>
+      <c r="D39" s="134" t="s">
+        <v>281</v>
+      </c>
+      <c r="E39" s="84"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="H39" s="128"/>
+      <c r="I39" s="128"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="78"/>
+      <c r="B40" s="132"/>
+      <c r="C40" s="133"/>
+      <c r="D40" s="134" t="s">
+        <v>294</v>
+      </c>
+      <c r="E40" s="84"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="I40" s="128" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="78"/>
+      <c r="B41" s="132" t="s">
+        <v>263</v>
+      </c>
+      <c r="C41" s="133"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="128"/>
+      <c r="G41" s="128"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="128"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="78"/>
+      <c r="B42" s="132"/>
+      <c r="C42" s="133"/>
+      <c r="D42" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="84"/>
+      <c r="F42" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="G42" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="H42" s="128"/>
+      <c r="I42" s="128"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="78"/>
+      <c r="B43" s="132"/>
+      <c r="C43" s="133"/>
+      <c r="D43" s="189">
+        <v>15000000</v>
+      </c>
+      <c r="E43" s="84"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="I43" s="128" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="78"/>
+      <c r="B44" s="132" t="s">
+        <v>264</v>
+      </c>
+      <c r="C44" s="133"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="128"/>
+      <c r="G44" s="128"/>
+      <c r="H44" s="128"/>
+      <c r="I44" s="128"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="78"/>
+      <c r="B45" s="132"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="84"/>
+      <c r="F45" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="G45" s="128"/>
+      <c r="H45" s="128"/>
+      <c r="I45" s="128"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="78"/>
+      <c r="B46" s="132"/>
+      <c r="C46" s="133"/>
+      <c r="D46" s="189">
+        <v>100000000</v>
+      </c>
+      <c r="E46" s="84"/>
+      <c r="F46" s="128"/>
+      <c r="G46" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="H46" s="128"/>
+      <c r="I46" s="128" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="78"/>
+      <c r="B47" s="132"/>
+      <c r="C47" s="133"/>
+      <c r="D47" s="189">
+        <v>1200000</v>
+      </c>
+      <c r="E47" s="84"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="I47" s="128"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="78"/>
+      <c r="B48" s="132" t="s">
+        <v>265</v>
+      </c>
+      <c r="C48" s="133"/>
+      <c r="D48" s="134"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="128"/>
+      <c r="G48" s="128"/>
+      <c r="H48" s="128"/>
+      <c r="I48" s="128"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="78"/>
+      <c r="B49" s="132"/>
+      <c r="C49" s="133"/>
+      <c r="D49" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="84"/>
+      <c r="F49" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="H49" s="128"/>
+      <c r="I49" s="128"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="78"/>
+      <c r="B50" s="132"/>
+      <c r="C50" s="133"/>
+      <c r="D50" s="134" t="s">
+        <v>290</v>
+      </c>
+      <c r="E50" s="84"/>
+      <c r="F50" s="128"/>
+      <c r="G50" s="128"/>
+      <c r="H50" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="I50" s="128" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="78"/>
+      <c r="B51" s="132" t="s">
+        <v>266</v>
+      </c>
+      <c r="C51" s="133"/>
+      <c r="D51" s="134"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="128"/>
+      <c r="G51" s="128"/>
+      <c r="H51" s="128"/>
+      <c r="I51" s="128"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="78"/>
+      <c r="B52" s="132"/>
+      <c r="C52" s="133"/>
+      <c r="D52" s="134" t="s">
+        <v>254</v>
+      </c>
+      <c r="E52" s="84"/>
+      <c r="F52" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="G52" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="H52" s="128"/>
+      <c r="I52" s="128"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="78"/>
+      <c r="B53" s="132"/>
+      <c r="C53" s="133"/>
+      <c r="D53" s="134" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="84"/>
+      <c r="F53" s="128"/>
+      <c r="G53" s="128"/>
+      <c r="H53" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="I53" s="128" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="78"/>
+      <c r="B54" s="132" t="s">
+        <v>230</v>
+      </c>
+      <c r="C54" s="133"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="128"/>
+      <c r="G54" s="128"/>
+      <c r="H54" s="128"/>
+      <c r="I54" s="128"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="78"/>
+      <c r="B55" s="132"/>
+      <c r="C55" s="133"/>
+      <c r="D55" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="84"/>
+      <c r="F55" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="G55" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="H55" s="128"/>
+      <c r="I55" s="128"/>
+    </row>
+    <row r="56" spans="1:9" ht="15" thickBot="1">
+      <c r="A56" s="95"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="87" t="s">
+        <v>272</v>
+      </c>
+      <c r="E56" s="88"/>
+      <c r="F56" s="129"/>
+      <c r="G56" s="129"/>
+      <c r="H56" s="129" t="s">
+        <v>101</v>
+      </c>
+      <c r="I56" s="129" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A57" s="95"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="88"/>
+      <c r="F57" s="129"/>
+      <c r="G57" s="129"/>
+      <c r="H57" s="129"/>
+      <c r="I57" s="129"/>
+    </row>
+    <row r="58" spans="1:9" ht="15" thickTop="1">
+      <c r="A58" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="93"/>
+      <c r="E58" s="94"/>
+      <c r="F58" s="127"/>
+      <c r="G58" s="127"/>
+      <c r="H58" s="127"/>
+      <c r="I58" s="127"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="95"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="98"/>
+      <c r="E59" s="99"/>
+      <c r="F59" s="110"/>
+      <c r="G59" s="110"/>
+      <c r="H59" s="110"/>
+      <c r="I59" s="110"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="95"/>
+      <c r="B60" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="97"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="101"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="110"/>
+      <c r="H60" s="110"/>
+      <c r="I60" s="110"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="95"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="100"/>
+      <c r="D61" s="98"/>
+      <c r="E61" s="101"/>
+      <c r="F61" s="110"/>
+      <c r="G61" s="110"/>
+      <c r="H61" s="110"/>
+      <c r="I61" s="110"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="95"/>
+      <c r="B62" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="100"/>
+      <c r="D62" s="98"/>
+      <c r="E62" s="101"/>
+      <c r="F62" s="110"/>
+      <c r="G62" s="110"/>
+      <c r="H62" s="110"/>
+      <c r="I62" s="110"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="95"/>
+      <c r="B63" s="96"/>
+      <c r="C63" s="100"/>
+      <c r="D63" s="98" t="s">
+        <v>117</v>
+      </c>
+      <c r="E63" s="101"/>
+      <c r="F63" s="110"/>
+      <c r="G63" s="110"/>
+      <c r="H63" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="I63" s="110"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="95"/>
+      <c r="B64" s="102"/>
+      <c r="C64" s="130"/>
+      <c r="D64" s="104" t="s">
+        <v>286</v>
+      </c>
+      <c r="E64" s="131"/>
+      <c r="F64" s="128"/>
+      <c r="G64" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="H64" s="128"/>
+      <c r="I64" s="128"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="95"/>
+      <c r="B65" s="102"/>
+      <c r="C65" s="130"/>
+      <c r="D65" s="104" t="s">
+        <v>287</v>
+      </c>
+      <c r="E65" s="131"/>
+      <c r="F65" s="128"/>
+      <c r="G65" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="H65" s="128"/>
+      <c r="I65" s="128"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="95"/>
+      <c r="B66" s="102"/>
+      <c r="C66" s="130"/>
+      <c r="D66" s="104" t="s">
+        <v>288</v>
+      </c>
+      <c r="E66" s="131"/>
+      <c r="F66" s="128"/>
+      <c r="G66" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="H66" s="128"/>
+      <c r="I66" s="128"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="95"/>
+      <c r="B67" s="102"/>
+      <c r="C67" s="130"/>
+      <c r="D67" s="104" t="s">
+        <v>274</v>
+      </c>
+      <c r="E67" s="131"/>
+      <c r="F67" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="G67" s="128"/>
+      <c r="H67" s="128"/>
+      <c r="I67" s="128"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="95"/>
+      <c r="B68" s="102"/>
+      <c r="C68" s="130"/>
+      <c r="D68" s="104" t="s">
+        <v>275</v>
+      </c>
+      <c r="E68" s="131"/>
+      <c r="F68" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="G68" s="128"/>
+      <c r="H68" s="128"/>
+      <c r="I68" s="128"/>
+    </row>
+    <row r="69" spans="1:9" ht="11.25" customHeight="1">
+      <c r="A69" s="95"/>
+      <c r="B69" s="102"/>
+      <c r="C69" s="130"/>
+      <c r="D69" s="104" t="s">
+        <v>291</v>
+      </c>
+      <c r="E69" s="131"/>
+      <c r="F69" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="G69" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="H69" s="128"/>
+      <c r="I69" s="128"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="95"/>
+      <c r="B70" s="102"/>
+      <c r="C70" s="130"/>
+      <c r="D70" s="104" t="s">
+        <v>283</v>
+      </c>
+      <c r="E70" s="131"/>
+      <c r="F70" s="128"/>
+      <c r="G70" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="H70" s="128"/>
+      <c r="I70" s="128"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="95"/>
+      <c r="B71" s="102"/>
+      <c r="C71" s="130"/>
+      <c r="D71" s="104" t="s">
+        <v>285</v>
+      </c>
+      <c r="E71" s="131"/>
+      <c r="F71" s="128"/>
+      <c r="G71" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="H71" s="128"/>
+      <c r="I71" s="128" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15" thickBot="1">
+      <c r="A72" s="95"/>
+      <c r="B72" s="102"/>
+      <c r="C72" s="103"/>
+      <c r="D72" s="104" t="s">
+        <v>280</v>
+      </c>
+      <c r="E72" s="105"/>
+      <c r="F72" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="G72" s="128"/>
+      <c r="H72" s="205"/>
+      <c r="I72" s="205"/>
+    </row>
+    <row r="73" spans="1:9" ht="15" thickTop="1">
+      <c r="A73" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="202" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="203"/>
+      <c r="D73" s="204"/>
+      <c r="E73" s="194"/>
+      <c r="F73" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="G73" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="H73" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="I73" s="108" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="95"/>
+      <c r="B74" s="199" t="s">
+        <v>90</v>
+      </c>
+      <c r="C74" s="200"/>
+      <c r="D74" s="201"/>
+      <c r="E74" s="109"/>
+      <c r="F74" s="110" t="s">
+        <v>91</v>
+      </c>
+      <c r="G74" s="110" t="s">
+        <v>91</v>
+      </c>
+      <c r="H74" s="110" t="s">
+        <v>91</v>
+      </c>
+      <c r="I74" s="110" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="52.2">
+      <c r="A75" s="95"/>
+      <c r="B75" s="197" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="198"/>
+      <c r="D75" s="198"/>
+      <c r="E75" s="111"/>
+      <c r="F75" s="112">
+        <v>43468</v>
+      </c>
+      <c r="G75" s="112">
+        <v>43468</v>
+      </c>
+      <c r="H75" s="112">
+        <v>43468</v>
+      </c>
+      <c r="I75" s="112">
+        <v>43468</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15" thickBot="1">
+      <c r="A76" s="113"/>
+      <c r="B76" s="195" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="196"/>
+      <c r="D76" s="196"/>
+      <c r="E76" s="114"/>
+      <c r="F76" s="115"/>
+      <c r="G76" s="115"/>
+      <c r="H76" s="115"/>
+      <c r="I76" s="115"/>
+    </row>
+    <row r="77" spans="1:9" ht="15" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:I2"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F73:I73" xr:uid="{39298C94-86F9-45D3-AB0D-ACA88CABDB5F}">
+      <formula1>"N,A,B, "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F74:I74" xr:uid="{3D6E156D-FA35-4ADE-8F3D-AB87C04B4492}">
+      <formula1>"P,F, "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:I72" xr:uid="{50352163-1755-42E0-A929-A069AD3049BA}">
+      <formula1>"O, "</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5165FA15-CC46-40B0-8B50-C77CFB285AC3}">
+  <dimension ref="A1:U54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" customWidth="1"/>
+    <col min="8" max="8" width="4.88671875" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" customWidth="1"/>
+    <col min="10" max="10" width="4.88671875" customWidth="1"/>
+    <col min="11" max="11" width="5.33203125" customWidth="1"/>
+    <col min="12" max="12" width="4.88671875" customWidth="1"/>
+    <col min="13" max="13" width="4.44140625" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" customWidth="1"/>
+    <col min="15" max="15" width="4.5546875" customWidth="1"/>
+    <col min="16" max="16" width="4.109375" customWidth="1"/>
+    <col min="17" max="18" width="3.88671875" customWidth="1"/>
+    <col min="19" max="19" width="3.33203125" customWidth="1"/>
+    <col min="20" max="20" width="3.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="231" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="281"/>
+      <c r="C1" s="302" t="str">
+        <f>FunctionList!E13</f>
+        <v>FN03</v>
+      </c>
+      <c r="D1" s="288"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="233" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="234" t="str">
+        <f>FunctionList!D13</f>
+        <v>Thêm mới tài khoản</v>
+      </c>
+      <c r="M1" s="235"/>
+      <c r="N1" s="235"/>
+      <c r="O1" s="235"/>
+      <c r="P1" s="235"/>
+      <c r="Q1" s="235"/>
+      <c r="R1" s="235"/>
+      <c r="S1" s="235"/>
+      <c r="T1" s="236"/>
+      <c r="U1" s="119"/>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="264" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="265"/>
+      <c r="C2" s="299" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="300"/>
+      <c r="E2" s="301"/>
+      <c r="F2" s="293" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="294"/>
+      <c r="H2" s="294"/>
+      <c r="I2" s="294"/>
+      <c r="J2" s="294"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="300"/>
+      <c r="M2" s="300"/>
+      <c r="N2" s="300"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="64"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="264" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="265"/>
+      <c r="C3" s="303">
+        <v>100</v>
+      </c>
+      <c r="D3" s="304"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="293" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="294"/>
+      <c r="H3" s="294"/>
+      <c r="I3" s="294"/>
+      <c r="J3" s="294"/>
+      <c r="K3" s="295"/>
+      <c r="L3" s="296">
+        <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C3*FunctionList!E6/1000,- O6),"N/A")</f>
+        <v>7</v>
+      </c>
+      <c r="M3" s="297"/>
+      <c r="N3" s="297"/>
+      <c r="O3" s="297"/>
+      <c r="P3" s="297"/>
+      <c r="Q3" s="297"/>
+      <c r="R3" s="297"/>
+      <c r="S3" s="297"/>
+      <c r="T3" s="298"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="265"/>
+      <c r="C4" s="274"/>
+      <c r="D4" s="274"/>
+      <c r="E4" s="274"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="275"/>
+      <c r="J4" s="275"/>
+      <c r="K4" s="275"/>
+      <c r="L4" s="274"/>
+      <c r="M4" s="274"/>
+      <c r="N4" s="274"/>
+      <c r="O4" s="274"/>
+      <c r="P4" s="274"/>
+      <c r="Q4" s="274"/>
+      <c r="R4" s="274"/>
+      <c r="S4" s="274"/>
+      <c r="T4" s="274"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="259" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="260"/>
+      <c r="C5" s="261" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="250"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="261" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="250"/>
+      <c r="H5" s="250"/>
+      <c r="I5" s="250"/>
+      <c r="J5" s="250"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="250" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="250"/>
+      <c r="N5" s="250"/>
+      <c r="O5" s="249" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="250"/>
+      <c r="Q5" s="250"/>
+      <c r="R5" s="250"/>
+      <c r="S5" s="250"/>
+      <c r="T5" s="251"/>
+    </row>
+    <row r="6" spans="1:21" ht="15" thickBot="1">
+      <c r="A6" s="252">
+        <f>COUNTIF(F51:HE51,"P")</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="253"/>
+      <c r="C6" s="254">
+        <f>COUNTIF(F51:HE51,"F")</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="255"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="254">
+        <f>SUM(O6,- A6,- C6)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="255"/>
+      <c r="J6" s="255"/>
+      <c r="K6" s="256"/>
+      <c r="L6" s="66">
+        <f>COUNTIF(E50:HE50,"N")</f>
+        <v>3</v>
+      </c>
+      <c r="M6" s="66">
+        <f>COUNTIF(E50:HE50,"A")</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="66">
+        <f>COUNTIF(E50:HE50,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="257">
+        <f>COUNTA(E8:HH8)</f>
+        <v>3</v>
+      </c>
+      <c r="P6" s="255"/>
+      <c r="Q6" s="255"/>
+      <c r="R6" s="255"/>
+      <c r="S6" s="255"/>
+      <c r="T6" s="258"/>
+    </row>
+    <row r="7" spans="1:21" ht="15" thickBot="1"/>
+    <row r="8" spans="1:21" ht="37.200000000000003" thickTop="1" thickBot="1">
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="76"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="78"/>
+      <c r="B13" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="78"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="84"/>
+      <c r="F14" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="78"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" s="84"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="110"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="78"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="84"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="78"/>
+      <c r="B17" s="79" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="80"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="78"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="84"/>
+      <c r="F18" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="78"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="81" t="s">
+        <v>223</v>
+      </c>
+      <c r="E19" s="84"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="110" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="78"/>
+      <c r="B20" s="79" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="80"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="78"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="84"/>
+      <c r="F21" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="78"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="84"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="110" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="78"/>
+      <c r="B23" s="79" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="80"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="78"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="188" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="84"/>
+      <c r="F24" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="78"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="81" t="s">
+        <v>226</v>
+      </c>
+      <c r="E25" s="84"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="110" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="78"/>
+      <c r="B26" s="79" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="78"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="84"/>
+      <c r="F27" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="78"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="81" t="s">
+        <v>234</v>
+      </c>
+      <c r="E28" s="84"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="110" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="78"/>
+      <c r="B29" s="79" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" s="80"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="78"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="84"/>
+      <c r="F30" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="78"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="81" t="s">
+        <v>236</v>
+      </c>
+      <c r="E31" s="84"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="78"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81" t="s">
+        <v>235</v>
+      </c>
+      <c r="E32" s="84"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="H32" s="110"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="78"/>
+      <c r="B33" s="79" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" s="80"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="78"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="84"/>
+      <c r="F34" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="78"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="81" t="s">
+        <v>237</v>
+      </c>
+      <c r="E35" s="84"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" s="110"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="78"/>
+      <c r="B36" s="132"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="E36" s="84"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="78"/>
+      <c r="B37" s="132"/>
+      <c r="C37" s="133"/>
+      <c r="D37" s="134" t="s">
+        <v>239</v>
+      </c>
+      <c r="E37" s="84"/>
+      <c r="F37" s="128"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="128"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" thickBot="1">
+      <c r="A38" s="78"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="87" t="s">
+        <v>240</v>
+      </c>
+      <c r="E38" s="88"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="129"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" thickTop="1">
+      <c r="A39" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="92"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="127"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="95"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="98" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" s="99"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" s="110"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="95"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="98" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="99"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="110" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="95"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="98" t="s">
+        <v>241</v>
+      </c>
+      <c r="E42" s="99"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="95"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="98" t="s">
+        <v>242</v>
+      </c>
+      <c r="E43" s="99"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="110"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="95"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="98" t="s">
+        <v>243</v>
+      </c>
+      <c r="E44" s="101"/>
+      <c r="F44" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="95"/>
+      <c r="B45" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="100"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="110"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="95"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="110"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="95"/>
+      <c r="B47" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="100"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="101"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="110"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="95"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="98" t="s">
+        <v>244</v>
+      </c>
+      <c r="E48" s="101"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="H48" s="110"/>
+    </row>
+    <row r="49" spans="1:8" ht="15" thickBot="1">
+      <c r="A49" s="95"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="128"/>
+      <c r="G49" s="128"/>
+      <c r="H49" s="128"/>
+    </row>
+    <row r="50" spans="1:8" ht="15" thickTop="1">
+      <c r="A50" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="277" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="277"/>
+      <c r="D50" s="277"/>
+      <c r="E50" s="187"/>
+      <c r="F50" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="G50" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" s="108" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="95"/>
+      <c r="B51" s="278" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="278"/>
+      <c r="D51" s="278"/>
+      <c r="E51" s="109"/>
+      <c r="F51" s="110" t="s">
+        <v>91</v>
+      </c>
+      <c r="G51" s="110" t="s">
+        <v>91</v>
+      </c>
+      <c r="H51" s="110" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A52" s="95"/>
+      <c r="B52" s="279" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="279"/>
+      <c r="D52" s="279"/>
+      <c r="E52" s="111"/>
+      <c r="F52" s="112">
+        <v>43468</v>
+      </c>
+      <c r="G52" s="112">
+        <v>43468</v>
+      </c>
+      <c r="H52" s="112">
+        <v>43468</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15" thickBot="1">
+      <c r="A53" s="113"/>
+      <c r="B53" s="280" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="280"/>
+      <c r="D53" s="280"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="115"/>
+      <c r="G53" s="115"/>
+      <c r="H53" s="115"/>
+    </row>
+    <row r="54" spans="1:8" ht="15" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:T4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:N2"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:H49" xr:uid="{3DC1F670-276C-411B-9F94-F225DA618B2F}">
+      <formula1>"O, "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F51:H51" xr:uid="{A9567989-8BB9-48AD-8487-AB289AA44956}">
+      <formula1>"P,F, "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F50:H50" xr:uid="{B4C69DEF-5A91-403F-A059-D6B6B1B57C5A}">
+      <formula1>"N,A,B, "</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93427BC1-7EF5-4940-B393-95896A77D5C4}">
   <dimension ref="A1:T34"/>
   <sheetViews>
@@ -6645,58 +8895,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="231" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="291" t="str">
+      <c r="B1" s="232"/>
+      <c r="C1" s="302" t="str">
         <f>FunctionList!E17</f>
         <v>FN07</v>
       </c>
-      <c r="D1" s="277"/>
+      <c r="D1" s="288"/>
       <c r="E1" s="118"/>
-      <c r="F1" s="222" t="s">
+      <c r="F1" s="233" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="222"/>
-      <c r="L1" s="223" t="str">
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="234" t="str">
         <f>FunctionList!D17</f>
         <v>Thêm danh mục sản phẩm</v>
       </c>
-      <c r="M1" s="224"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="224"/>
-      <c r="P1" s="224"/>
-      <c r="Q1" s="224"/>
-      <c r="R1" s="224"/>
-      <c r="S1" s="224"/>
-      <c r="T1" s="271"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="235"/>
+      <c r="O1" s="235"/>
+      <c r="P1" s="235"/>
+      <c r="Q1" s="235"/>
+      <c r="R1" s="235"/>
+      <c r="S1" s="235"/>
+      <c r="T1" s="282"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="264" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="254"/>
-      <c r="C2" s="288" t="s">
+      <c r="B2" s="265"/>
+      <c r="C2" s="299" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="289"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="282" t="s">
+      <c r="D2" s="300"/>
+      <c r="E2" s="301"/>
+      <c r="F2" s="293" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="283"/>
-      <c r="H2" s="283"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="283"/>
-      <c r="K2" s="284"/>
-      <c r="L2" s="310"/>
-      <c r="M2" s="310"/>
-      <c r="N2" s="310"/>
+      <c r="G2" s="294"/>
+      <c r="H2" s="294"/>
+      <c r="I2" s="294"/>
+      <c r="J2" s="294"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="321"/>
+      <c r="M2" s="321"/>
+      <c r="N2" s="321"/>
       <c r="O2" s="120"/>
       <c r="P2" s="120"/>
       <c r="Q2" s="120"/>
@@ -6705,113 +8955,113 @@
       <c r="T2" s="121"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="264" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="254"/>
-      <c r="C3" s="311">
+      <c r="B3" s="265"/>
+      <c r="C3" s="322">
         <v>100</v>
       </c>
-      <c r="D3" s="286"/>
+      <c r="D3" s="297"/>
       <c r="E3" s="122"/>
-      <c r="F3" s="282" t="s">
+      <c r="F3" s="293" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="283"/>
-      <c r="H3" s="283"/>
-      <c r="I3" s="283"/>
-      <c r="J3" s="283"/>
-      <c r="K3" s="284"/>
-      <c r="L3" s="285">
+      <c r="G3" s="294"/>
+      <c r="H3" s="294"/>
+      <c r="I3" s="294"/>
+      <c r="J3" s="294"/>
+      <c r="K3" s="295"/>
+      <c r="L3" s="296">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C3*FunctionList!E6/1000,- O6),"N/A")</f>
         <v>6</v>
       </c>
-      <c r="M3" s="286"/>
-      <c r="N3" s="286"/>
-      <c r="O3" s="286"/>
-      <c r="P3" s="286"/>
-      <c r="Q3" s="286"/>
-      <c r="R3" s="286"/>
-      <c r="S3" s="286"/>
-      <c r="T3" s="287"/>
+      <c r="M3" s="297"/>
+      <c r="N3" s="297"/>
+      <c r="O3" s="297"/>
+      <c r="P3" s="297"/>
+      <c r="Q3" s="297"/>
+      <c r="R3" s="297"/>
+      <c r="S3" s="297"/>
+      <c r="T3" s="298"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="253" t="s">
+      <c r="A4" s="264" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="312"/>
-      <c r="D4" s="312"/>
-      <c r="E4" s="312"/>
-      <c r="F4" s="313"/>
-      <c r="G4" s="313"/>
-      <c r="H4" s="313"/>
-      <c r="I4" s="313"/>
-      <c r="J4" s="313"/>
-      <c r="K4" s="313"/>
-      <c r="L4" s="312"/>
-      <c r="M4" s="312"/>
-      <c r="N4" s="312"/>
-      <c r="O4" s="312"/>
-      <c r="P4" s="312"/>
-      <c r="Q4" s="312"/>
-      <c r="R4" s="312"/>
-      <c r="S4" s="312"/>
-      <c r="T4" s="312"/>
+      <c r="B4" s="265"/>
+      <c r="C4" s="323"/>
+      <c r="D4" s="323"/>
+      <c r="E4" s="323"/>
+      <c r="F4" s="324"/>
+      <c r="G4" s="324"/>
+      <c r="H4" s="324"/>
+      <c r="I4" s="324"/>
+      <c r="J4" s="324"/>
+      <c r="K4" s="324"/>
+      <c r="L4" s="323"/>
+      <c r="M4" s="323"/>
+      <c r="N4" s="323"/>
+      <c r="O4" s="323"/>
+      <c r="P4" s="323"/>
+      <c r="Q4" s="323"/>
+      <c r="R4" s="323"/>
+      <c r="S4" s="323"/>
+      <c r="T4" s="323"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="259" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="249"/>
-      <c r="C5" s="250" t="s">
+      <c r="B5" s="260"/>
+      <c r="C5" s="261" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="250" t="s">
+      <c r="D5" s="250"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="261" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="239"/>
-      <c r="H5" s="239"/>
-      <c r="I5" s="239"/>
-      <c r="J5" s="239"/>
-      <c r="K5" s="252"/>
-      <c r="L5" s="239" t="s">
+      <c r="G5" s="250"/>
+      <c r="H5" s="250"/>
+      <c r="I5" s="250"/>
+      <c r="J5" s="250"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="250" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="238" t="s">
+      <c r="M5" s="250"/>
+      <c r="N5" s="250"/>
+      <c r="O5" s="249" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="239"/>
-      <c r="Q5" s="239"/>
-      <c r="R5" s="239"/>
-      <c r="S5" s="239"/>
-      <c r="T5" s="240"/>
+      <c r="P5" s="250"/>
+      <c r="Q5" s="250"/>
+      <c r="R5" s="250"/>
+      <c r="S5" s="250"/>
+      <c r="T5" s="251"/>
     </row>
     <row r="6" spans="1:20" ht="15" thickBot="1">
-      <c r="A6" s="241">
+      <c r="A6" s="252">
         <f>COUNTIF(F31:HF31,"P")</f>
         <v>4</v>
       </c>
-      <c r="B6" s="242"/>
-      <c r="C6" s="243">
+      <c r="B6" s="253"/>
+      <c r="C6" s="254">
         <f>COUNTIF(F31:HF31,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="244"/>
-      <c r="E6" s="242"/>
-      <c r="F6" s="243">
+      <c r="D6" s="255"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="254">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="244"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="244"/>
-      <c r="J6" s="244"/>
-      <c r="K6" s="245"/>
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="255"/>
+      <c r="J6" s="255"/>
+      <c r="K6" s="256"/>
       <c r="L6" s="66">
         <f>COUNTIF(E30:HF30,"N")</f>
         <v>4</v>
@@ -6824,15 +9074,15 @@
         <f>COUNTIF(E30:HF30,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="246">
+      <c r="O6" s="257">
         <f>COUNTA(E8:HI8)</f>
         <v>4</v>
       </c>
-      <c r="P6" s="244"/>
-      <c r="Q6" s="244"/>
-      <c r="R6" s="244"/>
-      <c r="S6" s="244"/>
-      <c r="T6" s="247"/>
+      <c r="P6" s="255"/>
+      <c r="Q6" s="255"/>
+      <c r="R6" s="255"/>
+      <c r="S6" s="255"/>
+      <c r="T6" s="258"/>
     </row>
     <row r="7" spans="1:20" ht="15" thickBot="1"/>
     <row r="8" spans="1:20" ht="37.200000000000003" thickTop="1" thickBot="1">
@@ -6979,10 +9229,10 @@
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
       <c r="C18" s="80"/>
-      <c r="D18" s="265" t="s">
+      <c r="D18" s="276" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="265"/>
+      <c r="E18" s="276"/>
       <c r="F18" s="110" t="s">
         <v>101</v>
       </c>
@@ -7145,11 +9395,11 @@
       <c r="A30" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="266" t="s">
+      <c r="B30" s="277" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="266"/>
-      <c r="D30" s="266"/>
+      <c r="C30" s="277"/>
+      <c r="D30" s="277"/>
       <c r="E30" s="107"/>
       <c r="F30" s="108" t="s">
         <v>53</v>
@@ -7166,11 +9416,11 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="95"/>
-      <c r="B31" s="267" t="s">
+      <c r="B31" s="278" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="267"/>
-      <c r="D31" s="267"/>
+      <c r="C31" s="278"/>
+      <c r="D31" s="278"/>
       <c r="E31" s="109"/>
       <c r="F31" s="110" t="s">
         <v>91</v>
@@ -7187,11 +9437,11 @@
     </row>
     <row r="32" spans="1:9" ht="14.25" customHeight="1">
       <c r="A32" s="95"/>
-      <c r="B32" s="268" t="s">
+      <c r="B32" s="279" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="268"/>
-      <c r="D32" s="268"/>
+      <c r="C32" s="279"/>
+      <c r="D32" s="279"/>
       <c r="E32" s="111"/>
       <c r="F32" s="112">
         <v>43468</v>
@@ -7208,11 +9458,11 @@
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1">
       <c r="A33" s="113"/>
-      <c r="B33" s="269" t="s">
+      <c r="B33" s="280" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="269"/>
-      <c r="D33" s="269"/>
+      <c r="C33" s="280"/>
+      <c r="D33" s="280"/>
       <c r="E33" s="114"/>
       <c r="F33" s="115"/>
       <c r="G33" s="115"/>
@@ -7268,7 +9518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7FAAC0-1672-4B1E-87F9-0B635B04E116}">
   <dimension ref="A1:T38"/>
   <sheetViews>
@@ -7300,58 +9550,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="231" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="291" t="str">
+      <c r="B1" s="232"/>
+      <c r="C1" s="302" t="str">
         <f>FunctionList!E18</f>
         <v>FN08</v>
       </c>
-      <c r="D1" s="277"/>
+      <c r="D1" s="288"/>
       <c r="E1" s="118"/>
-      <c r="F1" s="222" t="s">
+      <c r="F1" s="233" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="222"/>
-      <c r="L1" s="223" t="str">
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="234" t="str">
         <f>FunctionList!D18</f>
         <v>Sửa danh mục sản phẩm</v>
       </c>
-      <c r="M1" s="224"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="224"/>
-      <c r="P1" s="224"/>
-      <c r="Q1" s="224"/>
-      <c r="R1" s="224"/>
-      <c r="S1" s="224"/>
-      <c r="T1" s="271"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="235"/>
+      <c r="O1" s="235"/>
+      <c r="P1" s="235"/>
+      <c r="Q1" s="235"/>
+      <c r="R1" s="235"/>
+      <c r="S1" s="235"/>
+      <c r="T1" s="282"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="264" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="254"/>
-      <c r="C2" s="288" t="s">
+      <c r="B2" s="265"/>
+      <c r="C2" s="299" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="289"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="282" t="s">
+      <c r="D2" s="300"/>
+      <c r="E2" s="301"/>
+      <c r="F2" s="293" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="283"/>
-      <c r="H2" s="283"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="283"/>
-      <c r="K2" s="284"/>
-      <c r="L2" s="289"/>
-      <c r="M2" s="289"/>
-      <c r="N2" s="289"/>
+      <c r="G2" s="294"/>
+      <c r="H2" s="294"/>
+      <c r="I2" s="294"/>
+      <c r="J2" s="294"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="300"/>
+      <c r="M2" s="300"/>
+      <c r="N2" s="300"/>
       <c r="O2" s="63"/>
       <c r="P2" s="63"/>
       <c r="Q2" s="63"/>
@@ -7360,113 +9610,113 @@
       <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="264" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="254"/>
-      <c r="C3" s="292">
+      <c r="B3" s="265"/>
+      <c r="C3" s="303">
         <v>100</v>
       </c>
-      <c r="D3" s="293"/>
+      <c r="D3" s="304"/>
       <c r="E3" s="65"/>
-      <c r="F3" s="282" t="s">
+      <c r="F3" s="293" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="283"/>
-      <c r="H3" s="283"/>
-      <c r="I3" s="283"/>
-      <c r="J3" s="283"/>
-      <c r="K3" s="284"/>
-      <c r="L3" s="285">
+      <c r="G3" s="294"/>
+      <c r="H3" s="294"/>
+      <c r="I3" s="294"/>
+      <c r="J3" s="294"/>
+      <c r="K3" s="295"/>
+      <c r="L3" s="296">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C3*FunctionList!E6/1000,- O6),"N/A")</f>
         <v>6</v>
       </c>
-      <c r="M3" s="286"/>
-      <c r="N3" s="286"/>
-      <c r="O3" s="286"/>
-      <c r="P3" s="286"/>
-      <c r="Q3" s="286"/>
-      <c r="R3" s="286"/>
-      <c r="S3" s="286"/>
-      <c r="T3" s="287"/>
+      <c r="M3" s="297"/>
+      <c r="N3" s="297"/>
+      <c r="O3" s="297"/>
+      <c r="P3" s="297"/>
+      <c r="Q3" s="297"/>
+      <c r="R3" s="297"/>
+      <c r="S3" s="297"/>
+      <c r="T3" s="298"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="253" t="s">
+      <c r="A4" s="264" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="263"/>
-      <c r="D4" s="263"/>
-      <c r="E4" s="263"/>
-      <c r="F4" s="264"/>
-      <c r="G4" s="264"/>
-      <c r="H4" s="264"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="264"/>
-      <c r="K4" s="264"/>
-      <c r="L4" s="263"/>
-      <c r="M4" s="263"/>
-      <c r="N4" s="263"/>
-      <c r="O4" s="263"/>
-      <c r="P4" s="263"/>
-      <c r="Q4" s="263"/>
-      <c r="R4" s="263"/>
-      <c r="S4" s="263"/>
-      <c r="T4" s="263"/>
+      <c r="B4" s="265"/>
+      <c r="C4" s="274"/>
+      <c r="D4" s="274"/>
+      <c r="E4" s="274"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="275"/>
+      <c r="J4" s="275"/>
+      <c r="K4" s="275"/>
+      <c r="L4" s="274"/>
+      <c r="M4" s="274"/>
+      <c r="N4" s="274"/>
+      <c r="O4" s="274"/>
+      <c r="P4" s="274"/>
+      <c r="Q4" s="274"/>
+      <c r="R4" s="274"/>
+      <c r="S4" s="274"/>
+      <c r="T4" s="274"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="259" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="249"/>
-      <c r="C5" s="250" t="s">
+      <c r="B5" s="260"/>
+      <c r="C5" s="261" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="250" t="s">
+      <c r="D5" s="250"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="261" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="239"/>
-      <c r="H5" s="239"/>
-      <c r="I5" s="239"/>
-      <c r="J5" s="239"/>
-      <c r="K5" s="252"/>
-      <c r="L5" s="239" t="s">
+      <c r="G5" s="250"/>
+      <c r="H5" s="250"/>
+      <c r="I5" s="250"/>
+      <c r="J5" s="250"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="250" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="238" t="s">
+      <c r="M5" s="250"/>
+      <c r="N5" s="250"/>
+      <c r="O5" s="249" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="239"/>
-      <c r="Q5" s="239"/>
-      <c r="R5" s="239"/>
-      <c r="S5" s="239"/>
-      <c r="T5" s="240"/>
+      <c r="P5" s="250"/>
+      <c r="Q5" s="250"/>
+      <c r="R5" s="250"/>
+      <c r="S5" s="250"/>
+      <c r="T5" s="251"/>
     </row>
     <row r="6" spans="1:20" ht="15" thickBot="1">
-      <c r="A6" s="241">
+      <c r="A6" s="252">
         <f>COUNTIF(F35:HF35,"P")</f>
         <v>4</v>
       </c>
-      <c r="B6" s="242"/>
-      <c r="C6" s="243">
+      <c r="B6" s="253"/>
+      <c r="C6" s="254">
         <f>COUNTIF(F35:HF35,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="244"/>
-      <c r="E6" s="242"/>
-      <c r="F6" s="243">
+      <c r="D6" s="255"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="254">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="244"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="244"/>
-      <c r="J6" s="244"/>
-      <c r="K6" s="245"/>
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="255"/>
+      <c r="J6" s="255"/>
+      <c r="K6" s="256"/>
       <c r="L6" s="66">
         <f>COUNTIF(E34:HF34,"N")</f>
         <v>4</v>
@@ -7479,15 +9729,15 @@
         <f>COUNTIF(E34:HF34,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="246">
+      <c r="O6" s="257">
         <f>COUNTA(E8:HI8)</f>
         <v>4</v>
       </c>
-      <c r="P6" s="244"/>
-      <c r="Q6" s="244"/>
-      <c r="R6" s="244"/>
-      <c r="S6" s="244"/>
-      <c r="T6" s="247"/>
+      <c r="P6" s="255"/>
+      <c r="Q6" s="255"/>
+      <c r="R6" s="255"/>
+      <c r="S6" s="255"/>
+      <c r="T6" s="258"/>
     </row>
     <row r="7" spans="1:20" ht="15" thickBot="1"/>
     <row r="8" spans="1:20" ht="37.200000000000003" thickTop="1" thickBot="1">
@@ -7634,10 +9884,10 @@
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
       <c r="C18" s="80"/>
-      <c r="D18" s="265">
+      <c r="D18" s="276">
         <v>0.5</v>
       </c>
-      <c r="E18" s="265"/>
+      <c r="E18" s="276"/>
       <c r="F18" s="110" t="s">
         <v>101</v>
       </c>
@@ -7868,11 +10118,11 @@
       <c r="A34" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="266" t="s">
+      <c r="B34" s="277" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="266"/>
-      <c r="D34" s="266"/>
+      <c r="C34" s="277"/>
+      <c r="D34" s="277"/>
       <c r="E34" s="107"/>
       <c r="F34" s="108" t="s">
         <v>53</v>
@@ -7889,11 +10139,11 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="95"/>
-      <c r="B35" s="267" t="s">
+      <c r="B35" s="278" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="267"/>
-      <c r="D35" s="267"/>
+      <c r="C35" s="278"/>
+      <c r="D35" s="278"/>
       <c r="E35" s="109"/>
       <c r="F35" s="110" t="s">
         <v>91</v>
@@ -7910,11 +10160,11 @@
     </row>
     <row r="36" spans="1:9" ht="13.5" customHeight="1">
       <c r="A36" s="95"/>
-      <c r="B36" s="268" t="s">
+      <c r="B36" s="279" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="268"/>
-      <c r="D36" s="268"/>
+      <c r="C36" s="279"/>
+      <c r="D36" s="279"/>
       <c r="E36" s="111"/>
       <c r="F36" s="112">
         <v>43468</v>
@@ -7931,11 +10181,11 @@
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1">
       <c r="A37" s="113"/>
-      <c r="B37" s="269" t="s">
+      <c r="B37" s="280" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="269"/>
-      <c r="D37" s="269"/>
+      <c r="C37" s="280"/>
+      <c r="D37" s="280"/>
       <c r="E37" s="114"/>
       <c r="F37" s="115"/>
       <c r="G37" s="115"/>
@@ -7990,904 +10240,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5165FA15-CC46-40B0-8B50-C77CFB285AC3}">
-  <dimension ref="A1:U54"/>
-  <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="9.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" customWidth="1"/>
-    <col min="8" max="8" width="4.88671875" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" customWidth="1"/>
-    <col min="10" max="10" width="4.88671875" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" customWidth="1"/>
-    <col min="12" max="12" width="4.88671875" customWidth="1"/>
-    <col min="13" max="13" width="4.44140625" customWidth="1"/>
-    <col min="14" max="14" width="4.6640625" customWidth="1"/>
-    <col min="15" max="15" width="4.5546875" customWidth="1"/>
-    <col min="16" max="16" width="4.109375" customWidth="1"/>
-    <col min="17" max="18" width="3.88671875" customWidth="1"/>
-    <col min="19" max="19" width="3.33203125" customWidth="1"/>
-    <col min="20" max="20" width="3.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="220" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="291" t="str">
-        <f>FunctionList!E13</f>
-        <v>FN03</v>
-      </c>
-      <c r="D1" s="277"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="222" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="222"/>
-      <c r="L1" s="223" t="str">
-        <f>FunctionList!D13</f>
-        <v>Thêm mới tài khoản</v>
-      </c>
-      <c r="M1" s="224"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="224"/>
-      <c r="P1" s="224"/>
-      <c r="Q1" s="224"/>
-      <c r="R1" s="224"/>
-      <c r="S1" s="224"/>
-      <c r="T1" s="225"/>
-      <c r="U1" s="119"/>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="253" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="254"/>
-      <c r="C2" s="288" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="289"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="282" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="283"/>
-      <c r="H2" s="283"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="283"/>
-      <c r="K2" s="284"/>
-      <c r="L2" s="289"/>
-      <c r="M2" s="289"/>
-      <c r="N2" s="289"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="64"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="253" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="254"/>
-      <c r="C3" s="292">
-        <v>100</v>
-      </c>
-      <c r="D3" s="293"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="282" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="283"/>
-      <c r="H3" s="283"/>
-      <c r="I3" s="283"/>
-      <c r="J3" s="283"/>
-      <c r="K3" s="284"/>
-      <c r="L3" s="285">
-        <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C3*FunctionList!E6/1000,- O6),"N/A")</f>
-        <v>7</v>
-      </c>
-      <c r="M3" s="286"/>
-      <c r="N3" s="286"/>
-      <c r="O3" s="286"/>
-      <c r="P3" s="286"/>
-      <c r="Q3" s="286"/>
-      <c r="R3" s="286"/>
-      <c r="S3" s="286"/>
-      <c r="T3" s="287"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="253" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="263"/>
-      <c r="D4" s="263"/>
-      <c r="E4" s="263"/>
-      <c r="F4" s="264"/>
-      <c r="G4" s="264"/>
-      <c r="H4" s="264"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="264"/>
-      <c r="K4" s="264"/>
-      <c r="L4" s="263"/>
-      <c r="M4" s="263"/>
-      <c r="N4" s="263"/>
-      <c r="O4" s="263"/>
-      <c r="P4" s="263"/>
-      <c r="Q4" s="263"/>
-      <c r="R4" s="263"/>
-      <c r="S4" s="263"/>
-      <c r="T4" s="263"/>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="248" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="249"/>
-      <c r="C5" s="250" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="250" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="239"/>
-      <c r="H5" s="239"/>
-      <c r="I5" s="239"/>
-      <c r="J5" s="239"/>
-      <c r="K5" s="252"/>
-      <c r="L5" s="239" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="238" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5" s="239"/>
-      <c r="Q5" s="239"/>
-      <c r="R5" s="239"/>
-      <c r="S5" s="239"/>
-      <c r="T5" s="240"/>
-    </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1">
-      <c r="A6" s="241">
-        <f>COUNTIF(F51:HE51,"P")</f>
-        <v>3</v>
-      </c>
-      <c r="B6" s="242"/>
-      <c r="C6" s="243">
-        <f>COUNTIF(F51:HE51,"F")</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="244"/>
-      <c r="E6" s="242"/>
-      <c r="F6" s="243">
-        <f>SUM(O6,- A6,- C6)</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="244"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="244"/>
-      <c r="J6" s="244"/>
-      <c r="K6" s="245"/>
-      <c r="L6" s="66">
-        <f>COUNTIF(E50:HE50,"N")</f>
-        <v>3</v>
-      </c>
-      <c r="M6" s="66">
-        <f>COUNTIF(E50:HE50,"A")</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="66">
-        <f>COUNTIF(E50:HE50,"B")</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="246">
-        <f>COUNTA(E8:HH8)</f>
-        <v>3</v>
-      </c>
-      <c r="P6" s="244"/>
-      <c r="Q6" s="244"/>
-      <c r="R6" s="244"/>
-      <c r="S6" s="244"/>
-      <c r="T6" s="247"/>
-    </row>
-    <row r="7" spans="1:21" ht="15" thickBot="1"/>
-    <row r="8" spans="1:21" ht="37.200000000000003" thickTop="1" thickBot="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="71" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="73" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="78"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="81" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="76"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="78"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="78"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="78"/>
-      <c r="B13" s="79" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="78"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="84"/>
-      <c r="F14" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="78"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81" t="s">
-        <v>233</v>
-      </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="110"/>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="78"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="84"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="78"/>
-      <c r="B17" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="78"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="84"/>
-      <c r="F18" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="78"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="81" t="s">
-        <v>223</v>
-      </c>
-      <c r="E19" s="84"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="H19" s="110" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="78"/>
-      <c r="B20" s="79" t="s">
-        <v>198</v>
-      </c>
-      <c r="C20" s="80"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="78"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="84"/>
-      <c r="F21" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="78"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="81" t="s">
-        <v>202</v>
-      </c>
-      <c r="E22" s="84"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" s="110" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="78"/>
-      <c r="B23" s="79" t="s">
-        <v>199</v>
-      </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="78"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="188" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="84"/>
-      <c r="F24" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="78"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="81" t="s">
-        <v>226</v>
-      </c>
-      <c r="E25" s="84"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="H25" s="110" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="78"/>
-      <c r="B26" s="79" t="s">
-        <v>230</v>
-      </c>
-      <c r="C26" s="80"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="78"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="84"/>
-      <c r="F27" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="78"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="81" t="s">
-        <v>234</v>
-      </c>
-      <c r="E28" s="84"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="H28" s="110" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="78"/>
-      <c r="B29" s="79" t="s">
-        <v>231</v>
-      </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="78"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="84"/>
-      <c r="F30" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="78"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="81" t="s">
-        <v>236</v>
-      </c>
-      <c r="E31" s="84"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="78"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="81" t="s">
-        <v>235</v>
-      </c>
-      <c r="E32" s="84"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="H32" s="110"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="78"/>
-      <c r="B33" s="79" t="s">
-        <v>232</v>
-      </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="78"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="84"/>
-      <c r="F34" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="78"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="81" t="s">
-        <v>237</v>
-      </c>
-      <c r="E35" s="84"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="H35" s="110"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="78"/>
-      <c r="B36" s="132"/>
-      <c r="C36" s="133"/>
-      <c r="D36" s="134" t="s">
-        <v>238</v>
-      </c>
-      <c r="E36" s="84"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="78"/>
-      <c r="B37" s="132"/>
-      <c r="C37" s="133"/>
-      <c r="D37" s="134" t="s">
-        <v>239</v>
-      </c>
-      <c r="E37" s="84"/>
-      <c r="F37" s="128"/>
-      <c r="G37" s="128"/>
-      <c r="H37" s="128"/>
-    </row>
-    <row r="38" spans="1:8" ht="15" thickBot="1">
-      <c r="A38" s="78"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="87" t="s">
-        <v>240</v>
-      </c>
-      <c r="E38" s="88"/>
-      <c r="F38" s="129"/>
-      <c r="G38" s="129"/>
-      <c r="H38" s="129"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" thickTop="1">
-      <c r="A39" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="91" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="92"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="127"/>
-      <c r="H39" s="127"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="95"/>
-      <c r="B40" s="96"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="98" t="s">
-        <v>114</v>
-      </c>
-      <c r="E40" s="99"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="H40" s="110"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="95"/>
-      <c r="B41" s="96"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="98" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" s="99"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="110" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="95"/>
-      <c r="B42" s="96"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="98" t="s">
-        <v>241</v>
-      </c>
-      <c r="E42" s="99"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="110"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="95"/>
-      <c r="B43" s="96"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="98" t="s">
-        <v>242</v>
-      </c>
-      <c r="E43" s="99"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="110"/>
-      <c r="H43" s="110"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="95"/>
-      <c r="B44" s="96"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="98" t="s">
-        <v>243</v>
-      </c>
-      <c r="E44" s="101"/>
-      <c r="F44" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="95"/>
-      <c r="B45" s="96" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="100"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="110"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="95"/>
-      <c r="B46" s="96"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="98"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="95"/>
-      <c r="B47" s="96" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="100"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="110"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="95"/>
-      <c r="B48" s="96"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="98" t="s">
-        <v>244</v>
-      </c>
-      <c r="E48" s="101"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="H48" s="110"/>
-    </row>
-    <row r="49" spans="1:8" ht="15" thickBot="1">
-      <c r="A49" s="95"/>
-      <c r="B49" s="102"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="128"/>
-      <c r="G49" s="128"/>
-      <c r="H49" s="128"/>
-    </row>
-    <row r="50" spans="1:8" ht="15" thickTop="1">
-      <c r="A50" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="266" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="266"/>
-      <c r="D50" s="266"/>
-      <c r="E50" s="187"/>
-      <c r="F50" s="108" t="s">
-        <v>53</v>
-      </c>
-      <c r="G50" s="108" t="s">
-        <v>53</v>
-      </c>
-      <c r="H50" s="108" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="95"/>
-      <c r="B51" s="267" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="267"/>
-      <c r="D51" s="267"/>
-      <c r="E51" s="109"/>
-      <c r="F51" s="110" t="s">
-        <v>91</v>
-      </c>
-      <c r="G51" s="110" t="s">
-        <v>91</v>
-      </c>
-      <c r="H51" s="110" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A52" s="95"/>
-      <c r="B52" s="268" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="268"/>
-      <c r="D52" s="268"/>
-      <c r="E52" s="111"/>
-      <c r="F52" s="112">
-        <v>43468</v>
-      </c>
-      <c r="G52" s="112">
-        <v>43468</v>
-      </c>
-      <c r="H52" s="112">
-        <v>43468</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15" thickBot="1">
-      <c r="A53" s="113"/>
-      <c r="B53" s="269" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="269"/>
-      <c r="D53" s="269"/>
-      <c r="E53" s="114"/>
-      <c r="F53" s="115"/>
-      <c r="G53" s="115"/>
-      <c r="H53" s="115"/>
-    </row>
-    <row r="54" spans="1:8" ht="15" thickTop="1"/>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:T4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:N2"/>
-  </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:H49" xr:uid="{3DC1F670-276C-411B-9F94-F225DA618B2F}">
-      <formula1>"O, "</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F51:H51" xr:uid="{A9567989-8BB9-48AD-8487-AB289AA44956}">
-      <formula1>"P,F, "</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F50:H50" xr:uid="{B4C69DEF-5A91-403F-A059-D6B6B1B57C5A}">
-      <formula1>"N,A,B, "</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AFDBDC-9AA8-4DC5-8DC6-1A9F5F7869F5}">
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8934,42 +10292,42 @@
       <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="203" t="s">
+      <c r="A4" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="203"/>
-      <c r="C4" s="203"/>
-      <c r="D4" s="203"/>
-      <c r="E4" s="204" t="str">
+      <c r="B4" s="214"/>
+      <c r="C4" s="214"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215" t="str">
         <f>Cover!B4</f>
         <v>Quản lý shop online</v>
       </c>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="206"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="203" t="s">
+      <c r="A5" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="203"/>
-      <c r="C5" s="203"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="204" t="str">
+      <c r="B5" s="214"/>
+      <c r="C5" s="214"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="215" t="str">
         <f>Cover!B5</f>
         <v>SE108</v>
       </c>
-      <c r="F5" s="205"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="206"/>
+      <c r="F5" s="216"/>
+      <c r="G5" s="216"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="207" t="s">
+      <c r="A6" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="208"/>
-      <c r="C6" s="208"/>
-      <c r="D6" s="209"/>
+      <c r="B6" s="219"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="220"/>
       <c r="E6" s="40">
         <v>100</v>
       </c>
@@ -8978,16 +10336,16 @@
       <c r="H6" s="42"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="199" t="s">
+      <c r="A7" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="199"/>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
-      <c r="E7" s="200"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="202"/>
+      <c r="B7" s="210"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="213"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="43"/>
@@ -9683,17 +11041,17 @@
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="24.6">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="227" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="227"/>
+      <c r="I2" s="227"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="49"/>
@@ -9710,70 +11068,70 @@
       <c r="A4" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="210" t="str">
+      <c r="B4" s="221" t="str">
         <f>Cover!B4</f>
         <v>Quản lý shop online</v>
       </c>
-      <c r="C4" s="210"/>
-      <c r="D4" s="211" t="s">
+      <c r="C4" s="221"/>
+      <c r="D4" s="222" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="211"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="218"/>
-      <c r="H4" s="218"/>
-      <c r="I4" s="219"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="228"/>
+      <c r="G4" s="229"/>
+      <c r="H4" s="229"/>
+      <c r="I4" s="230"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="210" t="str">
+      <c r="B5" s="221" t="str">
         <f>Cover!B5</f>
         <v>SE108</v>
       </c>
-      <c r="C5" s="210"/>
-      <c r="D5" s="211" t="s">
+      <c r="C5" s="221"/>
+      <c r="D5" s="222" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="211"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="218"/>
-      <c r="H5" s="218"/>
-      <c r="I5" s="219"/>
+      <c r="E5" s="222"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="229"/>
+      <c r="H5" s="229"/>
+      <c r="I5" s="230"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="210" t="str">
+      <c r="B6" s="221" t="str">
         <f>B5&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>SE108_Test Report_vx.x</v>
       </c>
-      <c r="C6" s="210"/>
-      <c r="D6" s="211" t="s">
+      <c r="C6" s="221"/>
+      <c r="D6" s="222" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="211"/>
-      <c r="F6" s="212">
+      <c r="E6" s="222"/>
+      <c r="F6" s="223">
         <v>43468</v>
       </c>
-      <c r="G6" s="213"/>
-      <c r="H6" s="213"/>
-      <c r="I6" s="214"/>
+      <c r="G6" s="224"/>
+      <c r="H6" s="224"/>
+      <c r="I6" s="225"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="215"/>
-      <c r="C7" s="215"/>
-      <c r="D7" s="215"/>
-      <c r="E7" s="215"/>
-      <c r="F7" s="215"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="215"/>
-      <c r="I7" s="215"/>
+      <c r="B7" s="226"/>
+      <c r="C7" s="226"/>
+      <c r="D7" s="226"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="226"/>
+      <c r="I7" s="226"/>
     </row>
     <row r="9" spans="1:9" ht="26.4">
       <c r="A9" s="149" t="s">
@@ -10269,176 +11627,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="231" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="234" t="str">
+      <c r="B1" s="232"/>
+      <c r="C1" s="245" t="str">
         <f>FunctionList!E11</f>
         <v>FN01</v>
       </c>
-      <c r="D1" s="235"/>
+      <c r="D1" s="246"/>
       <c r="E1" s="118"/>
-      <c r="F1" s="222" t="s">
+      <c r="F1" s="233" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="222"/>
-      <c r="L1" s="223" t="str">
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="234" t="str">
         <f>FunctionList!D11</f>
         <v>Đăng nhập</v>
       </c>
-      <c r="M1" s="224"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="224"/>
-      <c r="P1" s="224"/>
-      <c r="Q1" s="224"/>
-      <c r="R1" s="224"/>
-      <c r="S1" s="224"/>
-      <c r="T1" s="225"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="235"/>
+      <c r="O1" s="235"/>
+      <c r="P1" s="235"/>
+      <c r="Q1" s="235"/>
+      <c r="R1" s="235"/>
+      <c r="S1" s="235"/>
+      <c r="T1" s="236"/>
       <c r="U1" s="119"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="226" t="s">
+      <c r="A2" s="237" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="227"/>
-      <c r="C2" s="236" t="s">
+      <c r="B2" s="238"/>
+      <c r="C2" s="247" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="237"/>
+      <c r="D2" s="248"/>
       <c r="E2" s="118"/>
-      <c r="F2" s="228" t="s">
+      <c r="F2" s="239" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="230"/>
-      <c r="L2" s="231" t="s">
+      <c r="G2" s="240"/>
+      <c r="H2" s="240"/>
+      <c r="I2" s="240"/>
+      <c r="J2" s="240"/>
+      <c r="K2" s="241"/>
+      <c r="L2" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
-      <c r="Q2" s="232"/>
-      <c r="R2" s="232"/>
-      <c r="S2" s="232"/>
-      <c r="T2" s="233"/>
+      <c r="M2" s="243"/>
+      <c r="N2" s="243"/>
+      <c r="O2" s="243"/>
+      <c r="P2" s="243"/>
+      <c r="Q2" s="243"/>
+      <c r="R2" s="243"/>
+      <c r="S2" s="243"/>
+      <c r="T2" s="244"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="264" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="254"/>
-      <c r="C3" s="255">
+      <c r="B3" s="265"/>
+      <c r="C3" s="266">
         <v>100</v>
       </c>
-      <c r="D3" s="256"/>
+      <c r="D3" s="267"/>
       <c r="E3" s="65"/>
-      <c r="F3" s="257" t="s">
+      <c r="F3" s="268" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="259"/>
-      <c r="L3" s="260">
+      <c r="G3" s="269"/>
+      <c r="H3" s="269"/>
+      <c r="I3" s="269"/>
+      <c r="J3" s="269"/>
+      <c r="K3" s="270"/>
+      <c r="L3" s="271">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C3*FunctionList!E6/1000,- O6),"N/A")</f>
         <v>2</v>
       </c>
-      <c r="M3" s="261"/>
-      <c r="N3" s="261"/>
-      <c r="O3" s="261"/>
-      <c r="P3" s="261"/>
-      <c r="Q3" s="261"/>
-      <c r="R3" s="261"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="262"/>
+      <c r="M3" s="272"/>
+      <c r="N3" s="272"/>
+      <c r="O3" s="272"/>
+      <c r="P3" s="272"/>
+      <c r="Q3" s="272"/>
+      <c r="R3" s="272"/>
+      <c r="S3" s="272"/>
+      <c r="T3" s="273"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="253" t="s">
+      <c r="A4" s="264" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="263"/>
-      <c r="D4" s="263"/>
-      <c r="E4" s="263"/>
-      <c r="F4" s="264"/>
-      <c r="G4" s="264"/>
-      <c r="H4" s="264"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="264"/>
-      <c r="K4" s="264"/>
-      <c r="L4" s="263"/>
-      <c r="M4" s="263"/>
-      <c r="N4" s="263"/>
-      <c r="O4" s="263"/>
-      <c r="P4" s="263"/>
-      <c r="Q4" s="263"/>
-      <c r="R4" s="263"/>
-      <c r="S4" s="263"/>
-      <c r="T4" s="263"/>
+      <c r="B4" s="265"/>
+      <c r="C4" s="274"/>
+      <c r="D4" s="274"/>
+      <c r="E4" s="274"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="275"/>
+      <c r="J4" s="275"/>
+      <c r="K4" s="275"/>
+      <c r="L4" s="274"/>
+      <c r="M4" s="274"/>
+      <c r="N4" s="274"/>
+      <c r="O4" s="274"/>
+      <c r="P4" s="274"/>
+      <c r="Q4" s="274"/>
+      <c r="R4" s="274"/>
+      <c r="S4" s="274"/>
+      <c r="T4" s="274"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="259" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="249"/>
-      <c r="C5" s="250" t="s">
+      <c r="B5" s="260"/>
+      <c r="C5" s="261" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="250" t="s">
+      <c r="D5" s="250"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="261" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="239"/>
-      <c r="H5" s="239"/>
-      <c r="I5" s="239"/>
-      <c r="J5" s="239"/>
-      <c r="K5" s="252"/>
-      <c r="L5" s="239" t="s">
+      <c r="G5" s="250"/>
+      <c r="H5" s="250"/>
+      <c r="I5" s="250"/>
+      <c r="J5" s="250"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="250" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="238" t="s">
+      <c r="M5" s="250"/>
+      <c r="N5" s="250"/>
+      <c r="O5" s="249" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="239"/>
-      <c r="Q5" s="239"/>
-      <c r="R5" s="239"/>
-      <c r="S5" s="239"/>
-      <c r="T5" s="240"/>
+      <c r="P5" s="250"/>
+      <c r="Q5" s="250"/>
+      <c r="R5" s="250"/>
+      <c r="S5" s="250"/>
+      <c r="T5" s="251"/>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1">
-      <c r="A6" s="241">
+      <c r="A6" s="252">
         <f>COUNTIF(F38:HQ38,"P")</f>
         <v>8</v>
       </c>
-      <c r="B6" s="242"/>
-      <c r="C6" s="243">
+      <c r="B6" s="253"/>
+      <c r="C6" s="254">
         <f>COUNTIF(F38:HQ38,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="244"/>
-      <c r="E6" s="242"/>
-      <c r="F6" s="243">
+      <c r="D6" s="255"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="254">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="244"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="244"/>
-      <c r="J6" s="244"/>
-      <c r="K6" s="245"/>
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="255"/>
+      <c r="J6" s="255"/>
+      <c r="K6" s="256"/>
       <c r="L6" s="66">
         <f>COUNTIF(E37:HJ37,"N")</f>
         <v>8</v>
@@ -10451,15 +11809,15 @@
         <f>COUNTIF(E37:HJ37,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="246">
+      <c r="O6" s="257">
         <f>COUNTA(E8:HM8)</f>
         <v>8</v>
       </c>
-      <c r="P6" s="244"/>
-      <c r="Q6" s="244"/>
-      <c r="R6" s="244"/>
-      <c r="S6" s="244"/>
-      <c r="T6" s="247"/>
+      <c r="P6" s="255"/>
+      <c r="Q6" s="255"/>
+      <c r="R6" s="255"/>
+      <c r="S6" s="255"/>
+      <c r="T6" s="258"/>
     </row>
     <row r="7" spans="1:21" ht="15" thickBot="1"/>
     <row r="8" spans="1:21" ht="37.200000000000003" thickTop="1" thickBot="1">
@@ -10647,10 +12005,10 @@
       <c r="A17" s="78"/>
       <c r="B17" s="79"/>
       <c r="C17" s="80"/>
-      <c r="D17" s="265" t="s">
+      <c r="D17" s="276" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="265"/>
+      <c r="E17" s="276"/>
       <c r="F17" s="110" t="s">
         <v>101</v>
       </c>
@@ -11019,11 +12377,11 @@
       <c r="A37" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="266" t="s">
+      <c r="B37" s="277" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="266"/>
-      <c r="D37" s="266"/>
+      <c r="C37" s="277"/>
+      <c r="D37" s="277"/>
       <c r="E37" s="107"/>
       <c r="F37" s="108" t="s">
         <v>53</v>
@@ -11052,11 +12410,11 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="95"/>
-      <c r="B38" s="267" t="s">
+      <c r="B38" s="278" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="267"/>
-      <c r="D38" s="267"/>
+      <c r="C38" s="278"/>
+      <c r="D38" s="278"/>
       <c r="E38" s="109"/>
       <c r="F38" s="110" t="s">
         <v>91</v>
@@ -11085,11 +12443,11 @@
     </row>
     <row r="39" spans="1:13" ht="12.75" customHeight="1">
       <c r="A39" s="95"/>
-      <c r="B39" s="268" t="s">
+      <c r="B39" s="279" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="268"/>
-      <c r="D39" s="268"/>
+      <c r="C39" s="279"/>
+      <c r="D39" s="279"/>
       <c r="E39" s="111"/>
       <c r="F39" s="123">
         <v>43467</v>
@@ -11118,11 +12476,11 @@
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A40" s="113"/>
-      <c r="B40" s="269" t="s">
+      <c r="B40" s="280" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="269"/>
-      <c r="D40" s="269"/>
+      <c r="C40" s="280"/>
+      <c r="D40" s="280"/>
       <c r="E40" s="114"/>
       <c r="F40" s="124"/>
       <c r="G40" s="124"/>
@@ -11214,175 +12572,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="231" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="272" t="str">
+      <c r="B1" s="281"/>
+      <c r="C1" s="283" t="str">
         <f>FunctionList!E12</f>
         <v>FN02</v>
       </c>
-      <c r="D1" s="273"/>
+      <c r="D1" s="284"/>
       <c r="E1" s="118"/>
-      <c r="F1" s="222" t="s">
+      <c r="F1" s="233" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="222"/>
-      <c r="L1" s="223" t="str">
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="234" t="str">
         <f>FunctionList!D12</f>
         <v>Thiếp lập CSDL</v>
       </c>
-      <c r="M1" s="224"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="224"/>
-      <c r="P1" s="224"/>
-      <c r="Q1" s="224"/>
-      <c r="R1" s="224"/>
-      <c r="S1" s="224"/>
-      <c r="T1" s="271"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="235"/>
+      <c r="O1" s="235"/>
+      <c r="P1" s="235"/>
+      <c r="Q1" s="235"/>
+      <c r="R1" s="235"/>
+      <c r="S1" s="235"/>
+      <c r="T1" s="282"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="274" t="s">
+      <c r="A2" s="285" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="275"/>
-      <c r="C2" s="276" t="s">
+      <c r="B2" s="286"/>
+      <c r="C2" s="287" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="277"/>
+      <c r="D2" s="288"/>
       <c r="E2" s="118"/>
-      <c r="F2" s="228" t="s">
+      <c r="F2" s="239" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="230"/>
-      <c r="L2" s="236" t="s">
+      <c r="G2" s="240"/>
+      <c r="H2" s="240"/>
+      <c r="I2" s="240"/>
+      <c r="J2" s="240"/>
+      <c r="K2" s="241"/>
+      <c r="L2" s="247" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="278"/>
-      <c r="N2" s="278"/>
-      <c r="O2" s="278"/>
-      <c r="P2" s="278"/>
-      <c r="Q2" s="278"/>
-      <c r="R2" s="278"/>
-      <c r="S2" s="278"/>
-      <c r="T2" s="279"/>
+      <c r="M2" s="289"/>
+      <c r="N2" s="289"/>
+      <c r="O2" s="289"/>
+      <c r="P2" s="289"/>
+      <c r="Q2" s="289"/>
+      <c r="R2" s="289"/>
+      <c r="S2" s="289"/>
+      <c r="T2" s="290"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="280" t="s">
+      <c r="A3" s="291" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="281"/>
-      <c r="C3" s="255">
+      <c r="B3" s="292"/>
+      <c r="C3" s="266">
         <v>100</v>
       </c>
-      <c r="D3" s="256"/>
+      <c r="D3" s="267"/>
       <c r="E3" s="65"/>
-      <c r="F3" s="257" t="s">
+      <c r="F3" s="268" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="259"/>
-      <c r="L3" s="260">
+      <c r="G3" s="269"/>
+      <c r="H3" s="269"/>
+      <c r="I3" s="269"/>
+      <c r="J3" s="269"/>
+      <c r="K3" s="270"/>
+      <c r="L3" s="271">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C3*FunctionList!E6/1000,- O6),"N/A")</f>
         <v>5</v>
       </c>
-      <c r="M3" s="261"/>
-      <c r="N3" s="261"/>
-      <c r="O3" s="261"/>
-      <c r="P3" s="261"/>
-      <c r="Q3" s="261"/>
-      <c r="R3" s="261"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="262"/>
+      <c r="M3" s="272"/>
+      <c r="N3" s="272"/>
+      <c r="O3" s="272"/>
+      <c r="P3" s="272"/>
+      <c r="Q3" s="272"/>
+      <c r="R3" s="272"/>
+      <c r="S3" s="272"/>
+      <c r="T3" s="273"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="253" t="s">
+      <c r="A4" s="264" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="263"/>
-      <c r="D4" s="263"/>
-      <c r="E4" s="263"/>
-      <c r="F4" s="264"/>
-      <c r="G4" s="264"/>
-      <c r="H4" s="264"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="264"/>
-      <c r="K4" s="264"/>
-      <c r="L4" s="263"/>
-      <c r="M4" s="263"/>
-      <c r="N4" s="263"/>
-      <c r="O4" s="263"/>
-      <c r="P4" s="263"/>
-      <c r="Q4" s="263"/>
-      <c r="R4" s="263"/>
-      <c r="S4" s="263"/>
-      <c r="T4" s="263"/>
+      <c r="B4" s="265"/>
+      <c r="C4" s="274"/>
+      <c r="D4" s="274"/>
+      <c r="E4" s="274"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="275"/>
+      <c r="J4" s="275"/>
+      <c r="K4" s="275"/>
+      <c r="L4" s="274"/>
+      <c r="M4" s="274"/>
+      <c r="N4" s="274"/>
+      <c r="O4" s="274"/>
+      <c r="P4" s="274"/>
+      <c r="Q4" s="274"/>
+      <c r="R4" s="274"/>
+      <c r="S4" s="274"/>
+      <c r="T4" s="274"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="259" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="249"/>
-      <c r="C5" s="250" t="s">
+      <c r="B5" s="260"/>
+      <c r="C5" s="261" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="250" t="s">
+      <c r="D5" s="250"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="261" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="239"/>
-      <c r="H5" s="239"/>
-      <c r="I5" s="239"/>
-      <c r="J5" s="239"/>
-      <c r="K5" s="252"/>
-      <c r="L5" s="239" t="s">
+      <c r="G5" s="250"/>
+      <c r="H5" s="250"/>
+      <c r="I5" s="250"/>
+      <c r="J5" s="250"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="250" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="238" t="s">
+      <c r="M5" s="250"/>
+      <c r="N5" s="250"/>
+      <c r="O5" s="249" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="239"/>
-      <c r="Q5" s="239"/>
-      <c r="R5" s="239"/>
-      <c r="S5" s="239"/>
-      <c r="T5" s="240"/>
+      <c r="P5" s="250"/>
+      <c r="Q5" s="250"/>
+      <c r="R5" s="250"/>
+      <c r="S5" s="250"/>
+      <c r="T5" s="251"/>
     </row>
     <row r="6" spans="1:20" ht="15" thickBot="1">
-      <c r="A6" s="241">
+      <c r="A6" s="252">
         <f>COUNTIF($F$33:$HG$33,"P")</f>
         <v>5</v>
       </c>
-      <c r="B6" s="242"/>
-      <c r="C6" s="243">
+      <c r="B6" s="253"/>
+      <c r="C6" s="254">
         <f>COUNTIF(F33:HG33,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="244"/>
-      <c r="E6" s="242"/>
-      <c r="F6" s="243">
+      <c r="D6" s="255"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="254">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="244"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="244"/>
-      <c r="J6" s="244"/>
-      <c r="K6" s="245"/>
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="255"/>
+      <c r="J6" s="255"/>
+      <c r="K6" s="256"/>
       <c r="L6" s="66">
         <f>COUNTIF(E32:HG32,"N")</f>
         <v>5</v>
@@ -11395,15 +12753,15 @@
         <f>COUNTIF($E$32:$HG$32,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="246">
+      <c r="O6" s="257">
         <f>COUNTA(E8:HJ8)</f>
         <v>5</v>
       </c>
-      <c r="P6" s="244"/>
-      <c r="Q6" s="244"/>
-      <c r="R6" s="244"/>
-      <c r="S6" s="244"/>
-      <c r="T6" s="247"/>
+      <c r="P6" s="255"/>
+      <c r="Q6" s="255"/>
+      <c r="R6" s="255"/>
+      <c r="S6" s="255"/>
+      <c r="T6" s="258"/>
     </row>
     <row r="7" spans="1:20" ht="15" thickBot="1"/>
     <row r="8" spans="1:20" ht="37.200000000000003" thickTop="1" thickBot="1">
@@ -11550,10 +12908,10 @@
       <c r="A17" s="78"/>
       <c r="B17" s="79"/>
       <c r="C17" s="80"/>
-      <c r="D17" s="265" t="s">
+      <c r="D17" s="276" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="265"/>
+      <c r="E17" s="276"/>
       <c r="F17" s="110" t="s">
         <v>101</v>
       </c>
@@ -11784,11 +13142,11 @@
       <c r="A32" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="266" t="s">
+      <c r="B32" s="277" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="266"/>
-      <c r="D32" s="266"/>
+      <c r="C32" s="277"/>
+      <c r="D32" s="277"/>
       <c r="E32" s="107"/>
       <c r="F32" s="108" t="s">
         <v>53</v>
@@ -11808,11 +13166,11 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="95"/>
-      <c r="B33" s="267" t="s">
+      <c r="B33" s="278" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="267"/>
-      <c r="D33" s="267"/>
+      <c r="C33" s="278"/>
+      <c r="D33" s="278"/>
       <c r="E33" s="109"/>
       <c r="F33" s="110" t="s">
         <v>91</v>
@@ -11832,11 +13190,11 @@
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="95"/>
-      <c r="B34" s="268" t="s">
+      <c r="B34" s="279" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="268"/>
-      <c r="D34" s="268"/>
+      <c r="C34" s="279"/>
+      <c r="D34" s="279"/>
       <c r="E34" s="111"/>
       <c r="F34" s="112">
         <v>43468</v>
@@ -11856,11 +13214,11 @@
     </row>
     <row r="35" spans="1:10" ht="15" thickBot="1">
       <c r="A35" s="113"/>
-      <c r="B35" s="269" t="s">
+      <c r="B35" s="280" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="269"/>
-      <c r="D35" s="269"/>
+      <c r="C35" s="280"/>
+      <c r="D35" s="280"/>
       <c r="E35" s="114"/>
       <c r="F35" s="115"/>
       <c r="G35" s="115"/>
@@ -11949,59 +13307,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="231" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="291" t="str">
+      <c r="B1" s="281"/>
+      <c r="C1" s="302" t="str">
         <f>FunctionList!E13</f>
         <v>FN03</v>
       </c>
-      <c r="D1" s="277"/>
+      <c r="D1" s="288"/>
       <c r="E1" s="118"/>
-      <c r="F1" s="222" t="s">
+      <c r="F1" s="233" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="222"/>
-      <c r="L1" s="223" t="str">
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="234" t="str">
         <f>FunctionList!D13</f>
         <v>Thêm mới tài khoản</v>
       </c>
-      <c r="M1" s="224"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="224"/>
-      <c r="P1" s="224"/>
-      <c r="Q1" s="224"/>
-      <c r="R1" s="224"/>
-      <c r="S1" s="224"/>
-      <c r="T1" s="225"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="235"/>
+      <c r="O1" s="235"/>
+      <c r="P1" s="235"/>
+      <c r="Q1" s="235"/>
+      <c r="R1" s="235"/>
+      <c r="S1" s="235"/>
+      <c r="T1" s="236"/>
       <c r="U1" s="119"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="264" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="254"/>
-      <c r="C2" s="288" t="s">
+      <c r="B2" s="265"/>
+      <c r="C2" s="299" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="289"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="282" t="s">
+      <c r="D2" s="300"/>
+      <c r="E2" s="301"/>
+      <c r="F2" s="293" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="283"/>
-      <c r="H2" s="283"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="283"/>
-      <c r="K2" s="284"/>
-      <c r="L2" s="289"/>
-      <c r="M2" s="289"/>
-      <c r="N2" s="289"/>
+      <c r="G2" s="294"/>
+      <c r="H2" s="294"/>
+      <c r="I2" s="294"/>
+      <c r="J2" s="294"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="300"/>
+      <c r="M2" s="300"/>
+      <c r="N2" s="300"/>
       <c r="O2" s="63"/>
       <c r="P2" s="63"/>
       <c r="Q2" s="63"/>
@@ -12010,113 +13368,113 @@
       <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="264" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="254"/>
-      <c r="C3" s="292">
+      <c r="B3" s="265"/>
+      <c r="C3" s="303">
         <v>100</v>
       </c>
-      <c r="D3" s="293"/>
+      <c r="D3" s="304"/>
       <c r="E3" s="65"/>
-      <c r="F3" s="282" t="s">
+      <c r="F3" s="293" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="283"/>
-      <c r="H3" s="283"/>
-      <c r="I3" s="283"/>
-      <c r="J3" s="283"/>
-      <c r="K3" s="284"/>
-      <c r="L3" s="285">
+      <c r="G3" s="294"/>
+      <c r="H3" s="294"/>
+      <c r="I3" s="294"/>
+      <c r="J3" s="294"/>
+      <c r="K3" s="295"/>
+      <c r="L3" s="296">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C3*FunctionList!E6/1000,- O6),"N/A")</f>
         <v>7</v>
       </c>
-      <c r="M3" s="286"/>
-      <c r="N3" s="286"/>
-      <c r="O3" s="286"/>
-      <c r="P3" s="286"/>
-      <c r="Q3" s="286"/>
-      <c r="R3" s="286"/>
-      <c r="S3" s="286"/>
-      <c r="T3" s="287"/>
+      <c r="M3" s="297"/>
+      <c r="N3" s="297"/>
+      <c r="O3" s="297"/>
+      <c r="P3" s="297"/>
+      <c r="Q3" s="297"/>
+      <c r="R3" s="297"/>
+      <c r="S3" s="297"/>
+      <c r="T3" s="298"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="253" t="s">
+      <c r="A4" s="264" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="263"/>
-      <c r="D4" s="263"/>
-      <c r="E4" s="263"/>
-      <c r="F4" s="264"/>
-      <c r="G4" s="264"/>
-      <c r="H4" s="264"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="264"/>
-      <c r="K4" s="264"/>
-      <c r="L4" s="263"/>
-      <c r="M4" s="263"/>
-      <c r="N4" s="263"/>
-      <c r="O4" s="263"/>
-      <c r="P4" s="263"/>
-      <c r="Q4" s="263"/>
-      <c r="R4" s="263"/>
-      <c r="S4" s="263"/>
-      <c r="T4" s="263"/>
+      <c r="B4" s="265"/>
+      <c r="C4" s="274"/>
+      <c r="D4" s="274"/>
+      <c r="E4" s="274"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="275"/>
+      <c r="J4" s="275"/>
+      <c r="K4" s="275"/>
+      <c r="L4" s="274"/>
+      <c r="M4" s="274"/>
+      <c r="N4" s="274"/>
+      <c r="O4" s="274"/>
+      <c r="P4" s="274"/>
+      <c r="Q4" s="274"/>
+      <c r="R4" s="274"/>
+      <c r="S4" s="274"/>
+      <c r="T4" s="274"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="259" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="249"/>
-      <c r="C5" s="250" t="s">
+      <c r="B5" s="260"/>
+      <c r="C5" s="261" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="250" t="s">
+      <c r="D5" s="250"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="261" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="239"/>
-      <c r="H5" s="239"/>
-      <c r="I5" s="239"/>
-      <c r="J5" s="239"/>
-      <c r="K5" s="252"/>
-      <c r="L5" s="239" t="s">
+      <c r="G5" s="250"/>
+      <c r="H5" s="250"/>
+      <c r="I5" s="250"/>
+      <c r="J5" s="250"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="250" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="238" t="s">
+      <c r="M5" s="250"/>
+      <c r="N5" s="250"/>
+      <c r="O5" s="249" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="239"/>
-      <c r="Q5" s="239"/>
-      <c r="R5" s="239"/>
-      <c r="S5" s="239"/>
-      <c r="T5" s="240"/>
+      <c r="P5" s="250"/>
+      <c r="Q5" s="250"/>
+      <c r="R5" s="250"/>
+      <c r="S5" s="250"/>
+      <c r="T5" s="251"/>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1">
-      <c r="A6" s="241">
+      <c r="A6" s="252">
         <f>COUNTIF(F51:HE51,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="242"/>
-      <c r="C6" s="243">
+      <c r="B6" s="253"/>
+      <c r="C6" s="254">
         <f>COUNTIF(F51:HE51,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="244"/>
-      <c r="E6" s="242"/>
-      <c r="F6" s="243">
+      <c r="D6" s="255"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="254">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="244"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="244"/>
-      <c r="J6" s="244"/>
-      <c r="K6" s="245"/>
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="255"/>
+      <c r="J6" s="255"/>
+      <c r="K6" s="256"/>
       <c r="L6" s="66">
         <f>COUNTIF(E50:HE50,"N")</f>
         <v>3</v>
@@ -12129,15 +13487,15 @@
         <f>COUNTIF(E50:HE50,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="246">
+      <c r="O6" s="257">
         <f>COUNTA(E8:HH8)</f>
         <v>3</v>
       </c>
-      <c r="P6" s="244"/>
-      <c r="Q6" s="244"/>
-      <c r="R6" s="244"/>
-      <c r="S6" s="244"/>
-      <c r="T6" s="247"/>
+      <c r="P6" s="255"/>
+      <c r="Q6" s="255"/>
+      <c r="R6" s="255"/>
+      <c r="S6" s="255"/>
+      <c r="T6" s="258"/>
     </row>
     <row r="7" spans="1:21" ht="15" thickBot="1"/>
     <row r="8" spans="1:21" ht="37.200000000000003" thickTop="1" thickBot="1">
@@ -12698,11 +14056,11 @@
       <c r="A50" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="266" t="s">
+      <c r="B50" s="277" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="266"/>
-      <c r="D50" s="266"/>
+      <c r="C50" s="277"/>
+      <c r="D50" s="277"/>
       <c r="E50" s="107"/>
       <c r="F50" s="108" t="s">
         <v>53</v>
@@ -12716,11 +14074,11 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="95"/>
-      <c r="B51" s="267" t="s">
+      <c r="B51" s="278" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="267"/>
-      <c r="D51" s="267"/>
+      <c r="C51" s="278"/>
+      <c r="D51" s="278"/>
       <c r="E51" s="109"/>
       <c r="F51" s="110" t="s">
         <v>91</v>
@@ -12734,11 +14092,11 @@
     </row>
     <row r="52" spans="1:8" ht="13.5" customHeight="1">
       <c r="A52" s="95"/>
-      <c r="B52" s="268" t="s">
+      <c r="B52" s="279" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="268"/>
-      <c r="D52" s="268"/>
+      <c r="C52" s="279"/>
+      <c r="D52" s="279"/>
       <c r="E52" s="111"/>
       <c r="F52" s="112">
         <v>43468</v>
@@ -12752,11 +14110,11 @@
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1">
       <c r="A53" s="113"/>
-      <c r="B53" s="269" t="s">
+      <c r="B53" s="280" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="269"/>
-      <c r="D53" s="269"/>
+      <c r="C53" s="280"/>
+      <c r="D53" s="280"/>
       <c r="E53" s="114"/>
       <c r="F53" s="115"/>
       <c r="G53" s="115"/>
@@ -12814,7 +14172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BBD74E-DA6E-481A-9820-E5CDCD5DC59D}">
   <dimension ref="A1:U48"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
@@ -12842,61 +14200,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="231" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="234" t="str">
+      <c r="B1" s="232"/>
+      <c r="C1" s="245" t="str">
         <f>FunctionList!E14</f>
         <v>FN04</v>
       </c>
-      <c r="D1" s="235"/>
+      <c r="D1" s="246"/>
       <c r="E1" s="118"/>
-      <c r="F1" s="222" t="s">
+      <c r="F1" s="233" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="222"/>
-      <c r="L1" s="223" t="str">
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="234" t="str">
         <f>FunctionList!D14</f>
         <v>Sửa tài khoản</v>
       </c>
-      <c r="M1" s="224"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="224"/>
-      <c r="P1" s="224"/>
-      <c r="Q1" s="224"/>
-      <c r="R1" s="224"/>
-      <c r="S1" s="224"/>
-      <c r="T1" s="225"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="235"/>
+      <c r="O1" s="235"/>
+      <c r="P1" s="235"/>
+      <c r="Q1" s="235"/>
+      <c r="R1" s="235"/>
+      <c r="S1" s="235"/>
+      <c r="T1" s="236"/>
       <c r="U1" s="119"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="264" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="254"/>
-      <c r="C2" s="288" t="s">
+      <c r="B2" s="265"/>
+      <c r="C2" s="299" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="289"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="282" t="s">
+      <c r="D2" s="300"/>
+      <c r="E2" s="301"/>
+      <c r="F2" s="293" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="283"/>
-      <c r="H2" s="283"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="283"/>
-      <c r="K2" s="284"/>
-      <c r="L2" s="289" t="s">
+      <c r="G2" s="294"/>
+      <c r="H2" s="294"/>
+      <c r="I2" s="294"/>
+      <c r="J2" s="294"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="300" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="289"/>
-      <c r="N2" s="289"/>
+      <c r="M2" s="300"/>
+      <c r="N2" s="300"/>
       <c r="O2" s="63"/>
       <c r="P2" s="63"/>
       <c r="Q2" s="63"/>
@@ -12905,113 +14263,113 @@
       <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="264" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="254"/>
-      <c r="C3" s="292">
+      <c r="B3" s="265"/>
+      <c r="C3" s="303">
         <v>100</v>
       </c>
-      <c r="D3" s="293"/>
+      <c r="D3" s="304"/>
       <c r="E3" s="65"/>
-      <c r="F3" s="282" t="s">
+      <c r="F3" s="293" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="283"/>
-      <c r="H3" s="283"/>
-      <c r="I3" s="283"/>
-      <c r="J3" s="283"/>
-      <c r="K3" s="284"/>
-      <c r="L3" s="285">
+      <c r="G3" s="294"/>
+      <c r="H3" s="294"/>
+      <c r="I3" s="294"/>
+      <c r="J3" s="294"/>
+      <c r="K3" s="295"/>
+      <c r="L3" s="296">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C3*FunctionList!E6/1000,- O6),"N/A")</f>
         <v>1</v>
       </c>
-      <c r="M3" s="286"/>
-      <c r="N3" s="286"/>
-      <c r="O3" s="286"/>
-      <c r="P3" s="286"/>
-      <c r="Q3" s="286"/>
-      <c r="R3" s="286"/>
-      <c r="S3" s="286"/>
-      <c r="T3" s="287"/>
+      <c r="M3" s="297"/>
+      <c r="N3" s="297"/>
+      <c r="O3" s="297"/>
+      <c r="P3" s="297"/>
+      <c r="Q3" s="297"/>
+      <c r="R3" s="297"/>
+      <c r="S3" s="297"/>
+      <c r="T3" s="298"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="253" t="s">
+      <c r="A4" s="264" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="263"/>
-      <c r="D4" s="263"/>
-      <c r="E4" s="263"/>
-      <c r="F4" s="264"/>
-      <c r="G4" s="264"/>
-      <c r="H4" s="264"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="264"/>
-      <c r="K4" s="264"/>
-      <c r="L4" s="263"/>
-      <c r="M4" s="263"/>
-      <c r="N4" s="263"/>
-      <c r="O4" s="263"/>
-      <c r="P4" s="263"/>
-      <c r="Q4" s="263"/>
-      <c r="R4" s="263"/>
-      <c r="S4" s="263"/>
-      <c r="T4" s="263"/>
+      <c r="B4" s="265"/>
+      <c r="C4" s="274"/>
+      <c r="D4" s="274"/>
+      <c r="E4" s="274"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="275"/>
+      <c r="J4" s="275"/>
+      <c r="K4" s="275"/>
+      <c r="L4" s="274"/>
+      <c r="M4" s="274"/>
+      <c r="N4" s="274"/>
+      <c r="O4" s="274"/>
+      <c r="P4" s="274"/>
+      <c r="Q4" s="274"/>
+      <c r="R4" s="274"/>
+      <c r="S4" s="274"/>
+      <c r="T4" s="274"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="259" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="249"/>
-      <c r="C5" s="250" t="s">
+      <c r="B5" s="260"/>
+      <c r="C5" s="261" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="250" t="s">
+      <c r="D5" s="250"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="261" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="239"/>
-      <c r="H5" s="239"/>
-      <c r="I5" s="239"/>
-      <c r="J5" s="239"/>
-      <c r="K5" s="252"/>
-      <c r="L5" s="239" t="s">
+      <c r="G5" s="250"/>
+      <c r="H5" s="250"/>
+      <c r="I5" s="250"/>
+      <c r="J5" s="250"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="250" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="238" t="s">
+      <c r="M5" s="250"/>
+      <c r="N5" s="250"/>
+      <c r="O5" s="249" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="239"/>
-      <c r="Q5" s="239"/>
-      <c r="R5" s="239"/>
-      <c r="S5" s="239"/>
-      <c r="T5" s="240"/>
+      <c r="P5" s="250"/>
+      <c r="Q5" s="250"/>
+      <c r="R5" s="250"/>
+      <c r="S5" s="250"/>
+      <c r="T5" s="251"/>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1">
-      <c r="A6" s="241">
+      <c r="A6" s="252">
         <f>COUNTIF(F44:HJ44,"P")</f>
         <v>0</v>
       </c>
-      <c r="B6" s="242"/>
-      <c r="C6" s="243">
+      <c r="B6" s="253"/>
+      <c r="C6" s="254">
         <f>COUNTIF(F44:HJ44,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="244"/>
-      <c r="E6" s="242"/>
-      <c r="F6" s="243">
+      <c r="D6" s="255"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="254">
         <f>SUM(O6,- A6,- C6)</f>
         <v>9</v>
       </c>
-      <c r="G6" s="244"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="244"/>
-      <c r="J6" s="244"/>
-      <c r="K6" s="245"/>
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="255"/>
+      <c r="J6" s="255"/>
+      <c r="K6" s="256"/>
       <c r="L6" s="66">
         <f>COUNTIF(E43:HJ43,"N")</f>
         <v>0</v>
@@ -13024,15 +14382,15 @@
         <f>COUNTIF(E43:HJ43,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="246">
+      <c r="O6" s="257">
         <f>COUNTA(E8:HM8)</f>
         <v>9</v>
       </c>
-      <c r="P6" s="244"/>
-      <c r="Q6" s="244"/>
-      <c r="R6" s="244"/>
-      <c r="S6" s="244"/>
-      <c r="T6" s="247"/>
+      <c r="P6" s="255"/>
+      <c r="Q6" s="255"/>
+      <c r="R6" s="255"/>
+      <c r="S6" s="255"/>
+      <c r="T6" s="258"/>
     </row>
     <row r="7" spans="1:21" ht="15" thickBot="1"/>
     <row r="8" spans="1:21" ht="37.200000000000003" thickTop="1" thickBot="1">
@@ -13251,10 +14609,10 @@
       <c r="A18" s="78"/>
       <c r="B18" s="79"/>
       <c r="C18" s="80"/>
-      <c r="D18" s="265" t="s">
+      <c r="D18" s="276" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="265"/>
+      <c r="E18" s="276"/>
       <c r="F18" s="110" t="s">
         <v>101</v>
       </c>
@@ -13340,10 +14698,10 @@
       <c r="A22" s="78"/>
       <c r="B22" s="79"/>
       <c r="C22" s="80"/>
-      <c r="D22" s="265" t="s">
+      <c r="D22" s="276" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="265"/>
+      <c r="E22" s="276"/>
       <c r="F22" s="110" t="s">
         <v>101</v>
       </c>
@@ -13410,10 +14768,10 @@
       <c r="A25" s="78"/>
       <c r="B25" s="79"/>
       <c r="C25" s="80"/>
-      <c r="D25" s="265" t="s">
+      <c r="D25" s="276" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="265"/>
+      <c r="E25" s="276"/>
       <c r="F25" s="110" t="s">
         <v>101</v>
       </c>
@@ -13481,10 +14839,10 @@
       <c r="A28" s="78"/>
       <c r="B28" s="136"/>
       <c r="C28" s="137"/>
-      <c r="D28" s="265" t="s">
+      <c r="D28" s="276" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="265"/>
+      <c r="E28" s="276"/>
       <c r="F28" s="128" t="s">
         <v>101</v>
       </c>
@@ -13515,10 +14873,10 @@
       <c r="A29" s="78"/>
       <c r="B29" s="132"/>
       <c r="C29" s="133"/>
-      <c r="D29" s="265" t="s">
+      <c r="D29" s="276" t="s">
         <v>226</v>
       </c>
-      <c r="E29" s="265"/>
+      <c r="E29" s="276"/>
       <c r="F29" s="128"/>
       <c r="G29" s="128"/>
       <c r="H29" s="128"/>
@@ -13825,11 +15183,11 @@
       <c r="A44" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="303" t="s">
+      <c r="B44" s="314" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="304"/>
-      <c r="D44" s="305"/>
+      <c r="C44" s="315"/>
+      <c r="D44" s="316"/>
       <c r="E44" s="191"/>
       <c r="F44" s="108" t="s">
         <v>53</v>
@@ -13861,11 +15219,11 @@
     </row>
     <row r="45" spans="1:14" ht="11.25" customHeight="1">
       <c r="A45" s="95"/>
-      <c r="B45" s="300" t="s">
+      <c r="B45" s="311" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="301"/>
-      <c r="D45" s="302"/>
+      <c r="C45" s="312"/>
+      <c r="D45" s="313"/>
       <c r="E45" s="109"/>
       <c r="F45" s="110" t="s">
         <v>91</v>
@@ -13897,11 +15255,11 @@
     </row>
     <row r="46" spans="1:14" ht="52.2">
       <c r="A46" s="95"/>
-      <c r="B46" s="297" t="s">
+      <c r="B46" s="308" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="298"/>
-      <c r="D46" s="299"/>
+      <c r="C46" s="309"/>
+      <c r="D46" s="310"/>
       <c r="E46" s="111"/>
       <c r="F46" s="112">
         <v>43468</v>
@@ -13933,11 +15291,11 @@
     </row>
     <row r="47" spans="1:14" ht="15" thickBot="1">
       <c r="A47" s="113"/>
-      <c r="B47" s="294" t="s">
+      <c r="B47" s="305" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="295"/>
-      <c r="D47" s="296"/>
+      <c r="C47" s="306"/>
+      <c r="D47" s="307"/>
       <c r="E47" s="114"/>
       <c r="F47" s="115"/>
       <c r="G47" s="115"/>
@@ -14007,7 +15365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9ECAD73-D34B-4D85-86C5-332CCC7B5A31}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -14035,58 +15393,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="231" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="291" t="str">
+      <c r="B1" s="232"/>
+      <c r="C1" s="302" t="str">
         <f>FunctionList!E16</f>
         <v>FN06</v>
       </c>
-      <c r="D1" s="277"/>
+      <c r="D1" s="288"/>
       <c r="E1" s="118"/>
-      <c r="F1" s="222" t="s">
+      <c r="F1" s="233" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="222"/>
-      <c r="L1" s="223" t="str">
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="234" t="str">
         <f>FunctionList!D16</f>
         <v>Kích hoạt tài khoản</v>
       </c>
-      <c r="M1" s="224"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="224"/>
-      <c r="P1" s="224"/>
-      <c r="Q1" s="224"/>
-      <c r="R1" s="224"/>
-      <c r="S1" s="224"/>
-      <c r="T1" s="271"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="235"/>
+      <c r="O1" s="235"/>
+      <c r="P1" s="235"/>
+      <c r="Q1" s="235"/>
+      <c r="R1" s="235"/>
+      <c r="S1" s="235"/>
+      <c r="T1" s="282"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="264" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="254"/>
-      <c r="C2" s="288" t="s">
+      <c r="B2" s="265"/>
+      <c r="C2" s="299" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="289"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="282" t="s">
+      <c r="D2" s="300"/>
+      <c r="E2" s="301"/>
+      <c r="F2" s="293" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="283"/>
-      <c r="H2" s="283"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="283"/>
-      <c r="K2" s="284"/>
-      <c r="L2" s="289"/>
-      <c r="M2" s="289"/>
-      <c r="N2" s="289"/>
+      <c r="G2" s="294"/>
+      <c r="H2" s="294"/>
+      <c r="I2" s="294"/>
+      <c r="J2" s="294"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="300"/>
+      <c r="M2" s="300"/>
+      <c r="N2" s="300"/>
       <c r="O2" s="63"/>
       <c r="P2" s="63"/>
       <c r="Q2" s="63"/>
@@ -14095,113 +15453,113 @@
       <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="264" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="254"/>
-      <c r="C3" s="292">
+      <c r="B3" s="265"/>
+      <c r="C3" s="303">
         <v>100</v>
       </c>
-      <c r="D3" s="293"/>
+      <c r="D3" s="304"/>
       <c r="E3" s="65"/>
-      <c r="F3" s="282" t="s">
+      <c r="F3" s="293" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="283"/>
-      <c r="H3" s="283"/>
-      <c r="I3" s="283"/>
-      <c r="J3" s="283"/>
-      <c r="K3" s="284"/>
-      <c r="L3" s="285">
+      <c r="G3" s="294"/>
+      <c r="H3" s="294"/>
+      <c r="I3" s="294"/>
+      <c r="J3" s="294"/>
+      <c r="K3" s="295"/>
+      <c r="L3" s="296">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C3*FunctionList!E6/1000,- O6),"N/A")</f>
         <v>5</v>
       </c>
-      <c r="M3" s="286"/>
-      <c r="N3" s="286"/>
-      <c r="O3" s="286"/>
-      <c r="P3" s="286"/>
-      <c r="Q3" s="286"/>
-      <c r="R3" s="286"/>
-      <c r="S3" s="286"/>
-      <c r="T3" s="287"/>
+      <c r="M3" s="297"/>
+      <c r="N3" s="297"/>
+      <c r="O3" s="297"/>
+      <c r="P3" s="297"/>
+      <c r="Q3" s="297"/>
+      <c r="R3" s="297"/>
+      <c r="S3" s="297"/>
+      <c r="T3" s="298"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="253" t="s">
+      <c r="A4" s="264" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="263"/>
-      <c r="D4" s="263"/>
-      <c r="E4" s="263"/>
-      <c r="F4" s="264"/>
-      <c r="G4" s="264"/>
-      <c r="H4" s="264"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="264"/>
-      <c r="K4" s="264"/>
-      <c r="L4" s="263"/>
-      <c r="M4" s="263"/>
-      <c r="N4" s="263"/>
-      <c r="O4" s="263"/>
-      <c r="P4" s="263"/>
-      <c r="Q4" s="263"/>
-      <c r="R4" s="263"/>
-      <c r="S4" s="263"/>
-      <c r="T4" s="263"/>
+      <c r="B4" s="265"/>
+      <c r="C4" s="274"/>
+      <c r="D4" s="274"/>
+      <c r="E4" s="274"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="275"/>
+      <c r="J4" s="275"/>
+      <c r="K4" s="275"/>
+      <c r="L4" s="274"/>
+      <c r="M4" s="274"/>
+      <c r="N4" s="274"/>
+      <c r="O4" s="274"/>
+      <c r="P4" s="274"/>
+      <c r="Q4" s="274"/>
+      <c r="R4" s="274"/>
+      <c r="S4" s="274"/>
+      <c r="T4" s="274"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="259" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="249"/>
-      <c r="C5" s="250" t="s">
+      <c r="B5" s="260"/>
+      <c r="C5" s="261" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="250" t="s">
+      <c r="D5" s="250"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="261" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="239"/>
-      <c r="H5" s="239"/>
-      <c r="I5" s="239"/>
-      <c r="J5" s="239"/>
-      <c r="K5" s="252"/>
-      <c r="L5" s="239" t="s">
+      <c r="G5" s="250"/>
+      <c r="H5" s="250"/>
+      <c r="I5" s="250"/>
+      <c r="J5" s="250"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="250" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="238" t="s">
+      <c r="M5" s="250"/>
+      <c r="N5" s="250"/>
+      <c r="O5" s="249" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="239"/>
-      <c r="Q5" s="239"/>
-      <c r="R5" s="239"/>
-      <c r="S5" s="239"/>
-      <c r="T5" s="240"/>
+      <c r="P5" s="250"/>
+      <c r="Q5" s="250"/>
+      <c r="R5" s="250"/>
+      <c r="S5" s="250"/>
+      <c r="T5" s="251"/>
     </row>
     <row r="6" spans="1:20" ht="15" thickBot="1">
-      <c r="A6" s="241">
+      <c r="A6" s="252">
         <f>COUNTIF(F43:HF43,"P")</f>
         <v>5</v>
       </c>
-      <c r="B6" s="242"/>
-      <c r="C6" s="243">
+      <c r="B6" s="253"/>
+      <c r="C6" s="254">
         <f>COUNTIF(F43:HF43,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="244"/>
-      <c r="E6" s="242"/>
-      <c r="F6" s="243">
+      <c r="D6" s="255"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="254">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="244"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="244"/>
-      <c r="J6" s="244"/>
-      <c r="K6" s="245"/>
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="255"/>
+      <c r="J6" s="255"/>
+      <c r="K6" s="256"/>
       <c r="L6" s="66">
         <f>COUNTIF(E42:HF42,"N")</f>
         <v>5</v>
@@ -14214,15 +15572,15 @@
         <f>COUNTIF(E42:HF42,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="246">
+      <c r="O6" s="257">
         <f>COUNTA(E8:HI8)</f>
         <v>5</v>
       </c>
-      <c r="P6" s="244"/>
-      <c r="Q6" s="244"/>
-      <c r="R6" s="244"/>
-      <c r="S6" s="244"/>
-      <c r="T6" s="247"/>
+      <c r="P6" s="255"/>
+      <c r="Q6" s="255"/>
+      <c r="R6" s="255"/>
+      <c r="S6" s="255"/>
+      <c r="T6" s="258"/>
     </row>
     <row r="7" spans="1:20" ht="15" thickBot="1"/>
     <row r="8" spans="1:20" ht="37.200000000000003" thickTop="1" thickBot="1">
@@ -14371,10 +15729,10 @@
       <c r="A17" s="78"/>
       <c r="B17" s="79"/>
       <c r="C17" s="80"/>
-      <c r="D17" s="265" t="s">
+      <c r="D17" s="276" t="s">
         <v>116</v>
       </c>
-      <c r="E17" s="265"/>
+      <c r="E17" s="276"/>
       <c r="F17" s="127" t="s">
         <v>101</v>
       </c>
@@ -14771,11 +16129,11 @@
       <c r="A42" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="266" t="s">
+      <c r="B42" s="277" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="266"/>
-      <c r="D42" s="266"/>
+      <c r="C42" s="277"/>
+      <c r="D42" s="277"/>
       <c r="E42" s="107"/>
       <c r="F42" s="108" t="s">
         <v>53</v>
@@ -14795,11 +16153,11 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="95"/>
-      <c r="B43" s="267" t="s">
+      <c r="B43" s="278" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="267"/>
-      <c r="D43" s="267"/>
+      <c r="C43" s="278"/>
+      <c r="D43" s="278"/>
       <c r="E43" s="109"/>
       <c r="F43" s="110" t="s">
         <v>91</v>
@@ -14819,11 +16177,11 @@
     </row>
     <row r="44" spans="1:10" ht="13.5" customHeight="1">
       <c r="A44" s="95"/>
-      <c r="B44" s="268" t="s">
+      <c r="B44" s="279" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="268"/>
-      <c r="D44" s="268"/>
+      <c r="C44" s="279"/>
+      <c r="D44" s="279"/>
       <c r="E44" s="111"/>
       <c r="F44" s="112">
         <v>43468</v>
@@ -14843,11 +16201,11 @@
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1">
       <c r="A45" s="113"/>
-      <c r="B45" s="269" t="s">
+      <c r="B45" s="280" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="269"/>
-      <c r="D45" s="269"/>
+      <c r="C45" s="280"/>
+      <c r="D45" s="280"/>
       <c r="E45" s="114"/>
       <c r="F45" s="115"/>
       <c r="G45" s="115"/>
@@ -14934,56 +16292,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="231" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="272" t="str">
+      <c r="B1" s="232"/>
+      <c r="C1" s="283" t="str">
         <f>FunctionList!E15</f>
         <v>FN05</v>
       </c>
-      <c r="D1" s="273"/>
+      <c r="D1" s="284"/>
       <c r="E1" s="118"/>
-      <c r="F1" s="222" t="s">
+      <c r="F1" s="233" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="223" t="str">
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="234" t="str">
         <f>FunctionList!D15</f>
         <v>Tìm kiếm tài khoản</v>
       </c>
-      <c r="K1" s="224"/>
-      <c r="L1" s="224"/>
-      <c r="M1" s="224"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="224"/>
-      <c r="P1" s="224"/>
-      <c r="Q1" s="224"/>
-      <c r="R1" s="271"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="235"/>
+      <c r="O1" s="235"/>
+      <c r="P1" s="235"/>
+      <c r="Q1" s="235"/>
+      <c r="R1" s="282"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="264" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="254"/>
-      <c r="C2" s="306" t="s">
+      <c r="B2" s="265"/>
+      <c r="C2" s="317" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="307"/>
-      <c r="E2" s="308"/>
-      <c r="F2" s="282" t="s">
+      <c r="D2" s="318"/>
+      <c r="E2" s="319"/>
+      <c r="F2" s="293" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="283"/>
-      <c r="H2" s="283"/>
-      <c r="I2" s="284"/>
-      <c r="J2" s="289" t="s">
+      <c r="G2" s="294"/>
+      <c r="H2" s="294"/>
+      <c r="I2" s="295"/>
+      <c r="J2" s="300" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="289"/>
-      <c r="L2" s="289"/>
+      <c r="K2" s="300"/>
+      <c r="L2" s="300"/>
       <c r="M2" s="63"/>
       <c r="N2" s="63"/>
       <c r="O2" s="63"/>
@@ -14992,105 +16350,105 @@
       <c r="R2" s="64"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="264" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="254"/>
-      <c r="C3" s="255">
+      <c r="B3" s="265"/>
+      <c r="C3" s="266">
         <v>100</v>
       </c>
-      <c r="D3" s="256"/>
+      <c r="D3" s="267"/>
       <c r="E3" s="117"/>
-      <c r="F3" s="282" t="s">
+      <c r="F3" s="293" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="283"/>
-      <c r="H3" s="283"/>
-      <c r="I3" s="284"/>
-      <c r="J3" s="285">
+      <c r="G3" s="294"/>
+      <c r="H3" s="294"/>
+      <c r="I3" s="295"/>
+      <c r="J3" s="296">
         <f xml:space="preserve"> IF(FunctionList!E6&lt;&gt;"N/A",SUM(C3*FunctionList!E6/1000,- M6),"N/A")</f>
         <v>8</v>
       </c>
-      <c r="K3" s="286"/>
-      <c r="L3" s="286"/>
-      <c r="M3" s="286"/>
-      <c r="N3" s="286"/>
-      <c r="O3" s="286"/>
-      <c r="P3" s="286"/>
-      <c r="Q3" s="286"/>
-      <c r="R3" s="287"/>
+      <c r="K3" s="297"/>
+      <c r="L3" s="297"/>
+      <c r="M3" s="297"/>
+      <c r="N3" s="297"/>
+      <c r="O3" s="297"/>
+      <c r="P3" s="297"/>
+      <c r="Q3" s="297"/>
+      <c r="R3" s="298"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="253" t="s">
+      <c r="A4" s="264" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="263"/>
-      <c r="D4" s="263"/>
-      <c r="E4" s="263"/>
-      <c r="F4" s="264"/>
-      <c r="G4" s="264"/>
-      <c r="H4" s="264"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="263"/>
-      <c r="K4" s="263"/>
-      <c r="L4" s="263"/>
-      <c r="M4" s="263"/>
-      <c r="N4" s="263"/>
-      <c r="O4" s="263"/>
-      <c r="P4" s="263"/>
-      <c r="Q4" s="263"/>
-      <c r="R4" s="263"/>
+      <c r="B4" s="265"/>
+      <c r="C4" s="274"/>
+      <c r="D4" s="274"/>
+      <c r="E4" s="274"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="275"/>
+      <c r="J4" s="274"/>
+      <c r="K4" s="274"/>
+      <c r="L4" s="274"/>
+      <c r="M4" s="274"/>
+      <c r="N4" s="274"/>
+      <c r="O4" s="274"/>
+      <c r="P4" s="274"/>
+      <c r="Q4" s="274"/>
+      <c r="R4" s="274"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="259" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="249"/>
-      <c r="C5" s="250" t="s">
+      <c r="B5" s="260"/>
+      <c r="C5" s="261" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="250" t="s">
+      <c r="D5" s="250"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="261" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="239"/>
-      <c r="H5" s="239"/>
-      <c r="I5" s="252"/>
-      <c r="J5" s="239" t="s">
+      <c r="G5" s="250"/>
+      <c r="H5" s="250"/>
+      <c r="I5" s="263"/>
+      <c r="J5" s="250" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="239"/>
-      <c r="L5" s="239"/>
-      <c r="M5" s="238" t="s">
+      <c r="K5" s="250"/>
+      <c r="L5" s="250"/>
+      <c r="M5" s="249" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="239"/>
-      <c r="O5" s="239"/>
-      <c r="P5" s="239"/>
-      <c r="Q5" s="239"/>
-      <c r="R5" s="240"/>
+      <c r="N5" s="250"/>
+      <c r="O5" s="250"/>
+      <c r="P5" s="250"/>
+      <c r="Q5" s="250"/>
+      <c r="R5" s="251"/>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1">
-      <c r="A6" s="241">
+      <c r="A6" s="252">
         <f>COUNTIF(F29:HD29,"P")</f>
         <v>2</v>
       </c>
-      <c r="B6" s="242"/>
-      <c r="C6" s="243">
+      <c r="B6" s="253"/>
+      <c r="C6" s="254">
         <f>COUNTIF(F29:HD29,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="244"/>
-      <c r="E6" s="242"/>
-      <c r="F6" s="243">
+      <c r="D6" s="255"/>
+      <c r="E6" s="253"/>
+      <c r="F6" s="254">
         <f>SUM(M6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="244"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="245"/>
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="256"/>
       <c r="J6" s="66">
         <f>COUNTIF(E28:HD28,"N")</f>
         <v>2</v>
@@ -15103,15 +16461,15 @@
         <f>COUNTIF(E28:HD28,"B")</f>
         <v>0</v>
       </c>
-      <c r="M6" s="246">
+      <c r="M6" s="257">
         <f>COUNTA(E8:HG8)</f>
         <v>2</v>
       </c>
-      <c r="N6" s="244"/>
-      <c r="O6" s="244"/>
-      <c r="P6" s="244"/>
-      <c r="Q6" s="244"/>
-      <c r="R6" s="247"/>
+      <c r="N6" s="255"/>
+      <c r="O6" s="255"/>
+      <c r="P6" s="255"/>
+      <c r="Q6" s="255"/>
+      <c r="R6" s="258"/>
     </row>
     <row r="7" spans="1:18" ht="15" thickBot="1"/>
     <row r="8" spans="1:18" ht="37.200000000000003" thickTop="1" thickBot="1">
@@ -15342,11 +16700,11 @@
       <c r="A28" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="266" t="s">
+      <c r="B28" s="277" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="266"/>
-      <c r="D28" s="266"/>
+      <c r="C28" s="277"/>
+      <c r="D28" s="277"/>
       <c r="E28" s="107"/>
       <c r="F28" s="108" t="s">
         <v>53</v>
@@ -15357,11 +16715,11 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="95"/>
-      <c r="B29" s="267" t="s">
+      <c r="B29" s="278" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="267"/>
-      <c r="D29" s="267"/>
+      <c r="C29" s="278"/>
+      <c r="D29" s="278"/>
       <c r="E29" s="109"/>
       <c r="F29" s="110" t="s">
         <v>91</v>
@@ -15372,11 +16730,11 @@
     </row>
     <row r="30" spans="1:7" ht="13.5" customHeight="1">
       <c r="A30" s="95"/>
-      <c r="B30" s="268" t="s">
+      <c r="B30" s="279" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="268"/>
-      <c r="D30" s="268"/>
+      <c r="C30" s="279"/>
+      <c r="D30" s="279"/>
       <c r="E30" s="111"/>
       <c r="F30" s="112">
         <v>43468</v>
@@ -15387,11 +16745,11 @@
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1">
       <c r="A31" s="113"/>
-      <c r="B31" s="269" t="s">
+      <c r="B31" s="280" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="269"/>
-      <c r="D31" s="269"/>
+      <c r="C31" s="280"/>
+      <c r="D31" s="280"/>
       <c r="E31" s="114"/>
       <c r="F31" s="115"/>
       <c r="G31" s="115"/>
